--- a/ecowas/new_data.xlsx
+++ b/ecowas/new_data.xlsx
@@ -11,7 +11,7 @@
   <calcPr/>
   <extLst>
     <ext uri="GoogleSheetsCustomDataVersion2">
-      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId5" roundtripDataChecksum="1VtjFEkOxJWsaRLdmtODRakbNa4w7HcjQmZk2E7YIN4="/>
+      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId5" roundtripDataChecksum="Q2YlBMeAOYQ8zc5RzlXNt1GOXh/Q1b1WAbm2kdOsi2c="/>
     </ext>
   </extLst>
 </workbook>
@@ -397,7 +397,7 @@
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="_-* #,##0.0_-;\-* #,##0.0_-;_-* &quot;-&quot;??_-;_-@"/>
   </numFmts>
-  <fonts count="13">
+  <fonts count="14">
     <font>
       <sz val="11.0"/>
       <color theme="1"/>
@@ -443,6 +443,10 @@
       <name val="Arial"/>
     </font>
     <font>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+    </font>
+    <font>
       <i/>
       <sz val="11.0"/>
       <color theme="1"/>
@@ -483,7 +487,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="6">
     <border/>
     <border>
       <left/>
@@ -517,6 +521,17 @@
       <top style="thin">
         <color rgb="FF000000"/>
       </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
@@ -600,23 +615,25 @@
     <xf borderId="4" fillId="0" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="4" fillId="0" fontId="6" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="4" fillId="0" fontId="3" numFmtId="1" xfId="0" applyBorder="1" applyFont="1" applyNumberFormat="1"/>
-    <xf borderId="4" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="4" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0"/>
+    </xf>
+    <xf borderId="4" fillId="0" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="5" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0"/>
+    </xf>
+    <xf borderId="4" fillId="0" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="4" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="4" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf borderId="4" fillId="0" fontId="9" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="10" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="10" numFmtId="165" xfId="0" applyFont="1" applyNumberFormat="1"/>
-    <xf borderId="4" fillId="0" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="4" fillId="0" fontId="10" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="11" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="11" numFmtId="165" xfId="0" applyFont="1" applyNumberFormat="1"/>
+    <xf borderId="4" fillId="0" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="13" numFmtId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle xfId="0" name="Normal" builtinId="0"/>
@@ -834,9 +851,13 @@
   <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
   <cols>
     <col customWidth="1" min="1" max="1" width="14.71"/>
-    <col customWidth="1" min="2" max="2" width="86.29"/>
-    <col customWidth="1" min="3" max="3" width="83.29"/>
-    <col customWidth="1" min="4" max="15" width="16.14"/>
+    <col customWidth="1" min="2" max="2" width="79.0"/>
+    <col customWidth="1" min="3" max="3" width="64.43"/>
+    <col customWidth="1" min="4" max="11" width="16.14"/>
+    <col customWidth="1" min="12" max="12" width="25.0"/>
+    <col customWidth="1" min="13" max="13" width="27.29"/>
+    <col customWidth="1" min="14" max="14" width="27.86"/>
+    <col customWidth="1" min="15" max="15" width="16.14"/>
     <col customWidth="1" min="16" max="21" width="13.71"/>
   </cols>
   <sheetData>
@@ -4709,7 +4730,9 @@
       <c r="G84" s="12">
         <v>4.165831073972653</v>
       </c>
-      <c r="H84" s="28"/>
+      <c r="H84" s="28">
+        <v>3.13</v>
+      </c>
       <c r="I84" s="12">
         <v>-0.13999999999999968</v>
       </c>
@@ -4754,7 +4777,9 @@
       <c r="G85" s="12">
         <v>613.0825245615357</v>
       </c>
-      <c r="H85" s="28"/>
+      <c r="H85" s="30">
+        <v>248.5</v>
+      </c>
       <c r="I85" s="8" t="s">
         <v>71</v>
       </c>
@@ -4799,7 +4824,9 @@
       <c r="G86" s="12">
         <v>75.83274562119757</v>
       </c>
-      <c r="H86" s="28"/>
+      <c r="H86" s="30">
+        <v>33.66</v>
+      </c>
       <c r="I86" s="12">
         <v>-3.3000000000000114</v>
       </c>
@@ -4844,7 +4871,9 @@
       <c r="G87" s="12">
         <v>28.870284324341053</v>
       </c>
-      <c r="H87" s="28"/>
+      <c r="H87" s="30">
+        <v>21.81</v>
+      </c>
       <c r="I87" s="12">
         <v>-4.299999999999997</v>
       </c>
@@ -4889,7 +4918,9 @@
       <c r="G88" s="12">
         <v>64.66168307851834</v>
       </c>
-      <c r="H88" s="28"/>
+      <c r="H88" s="30">
+        <v>72.72</v>
+      </c>
       <c r="I88" s="12">
         <v>0.8089999999999975</v>
       </c>
@@ -4934,7 +4965,9 @@
       <c r="G89" s="12">
         <v>4.235668880367305</v>
       </c>
-      <c r="H89" s="28"/>
+      <c r="H89" s="30">
+        <v>6.95</v>
+      </c>
       <c r="I89" s="12">
         <v>1.3296425299999997</v>
       </c>
@@ -4979,7 +5012,9 @@
       <c r="G90" s="8" t="s">
         <v>71</v>
       </c>
-      <c r="H90" s="28"/>
+      <c r="H90" s="30">
+        <v>16.02</v>
+      </c>
       <c r="I90" s="8" t="s">
         <v>71</v>
       </c>
@@ -5024,7 +5059,9 @@
       <c r="G91" s="12">
         <v>2.8627928601608272</v>
       </c>
-      <c r="H91" s="28"/>
+      <c r="H91" s="30">
+        <v>3.23</v>
+      </c>
       <c r="I91" s="12">
         <v>-0.4519901275634699</v>
       </c>
@@ -5069,7 +5106,9 @@
       <c r="G92" s="8" t="s">
         <v>71</v>
       </c>
-      <c r="H92" s="28"/>
+      <c r="H92" s="30">
+        <v>40.0</v>
+      </c>
       <c r="I92" s="8" t="s">
         <v>71</v>
       </c>
@@ -5114,7 +5153,9 @@
       <c r="G93" s="12">
         <v>21.192930508724462</v>
       </c>
-      <c r="H93" s="28"/>
+      <c r="H93" s="30">
+        <v>19.3</v>
+      </c>
       <c r="I93" s="8" t="s">
         <v>71</v>
       </c>
@@ -5159,7 +5200,9 @@
       <c r="G94" s="12">
         <v>4.980763317819079</v>
       </c>
-      <c r="H94" s="28"/>
+      <c r="H94" s="30">
+        <v>9.43</v>
+      </c>
       <c r="I94" s="12">
         <v>0.09999999999999964</v>
       </c>
@@ -5204,7 +5247,9 @@
       <c r="G95" s="12">
         <v>347.3622447625404</v>
       </c>
-      <c r="H95" s="28"/>
+      <c r="H95" s="30">
+        <v>403.89</v>
+      </c>
       <c r="I95" s="12">
         <v>-0.2540588378910229</v>
       </c>
@@ -5249,7 +5294,9 @@
       <c r="G96" s="12">
         <v>12.122156693818466</v>
       </c>
-      <c r="H96" s="28"/>
+      <c r="H96" s="30">
+        <v>8.12</v>
+      </c>
       <c r="I96" s="12">
         <v>2.397000000000002</v>
       </c>
@@ -5294,7 +5341,9 @@
       <c r="G97" s="8" t="s">
         <v>71</v>
       </c>
-      <c r="H97" s="28"/>
+      <c r="H97" s="30">
+        <v>87.12</v>
+      </c>
       <c r="I97" s="8" t="s">
         <v>71</v>
       </c>
@@ -5339,7 +5388,9 @@
       <c r="G98" s="12">
         <v>8.12853411670549</v>
       </c>
-      <c r="H98" s="28"/>
+      <c r="H98" s="30">
+        <v>16.73</v>
+      </c>
       <c r="I98" s="12">
         <v>-6.912</v>
       </c>
@@ -5384,7 +5435,9 @@
       <c r="G99" s="8" t="s">
         <v>71</v>
       </c>
-      <c r="H99" s="28"/>
+      <c r="H99" s="30">
+        <v>139.31</v>
+      </c>
       <c r="I99" s="8" t="s">
         <v>71</v>
       </c>
@@ -5429,7 +5482,9 @@
       <c r="G100" s="12">
         <v>19.216267874032077</v>
       </c>
-      <c r="H100" s="28"/>
+      <c r="H100" s="30">
+        <v>47.51</v>
+      </c>
       <c r="I100" s="12">
         <v>5.699999999999999</v>
       </c>
@@ -5474,7 +5529,9 @@
       <c r="G101" s="12">
         <v>0.025222148259279525</v>
       </c>
-      <c r="H101" s="28"/>
+      <c r="H101" s="30">
+        <v>0.05</v>
+      </c>
       <c r="I101" s="12">
         <v>-5.707966819742012E-4</v>
       </c>
@@ -5519,7 +5576,9 @@
       <c r="G102" s="12">
         <v>5.6671255640457705</v>
       </c>
-      <c r="H102" s="28"/>
+      <c r="H102" s="30">
+        <v>4.26</v>
+      </c>
       <c r="I102" s="12">
         <v>-0.18299999999999983</v>
       </c>
@@ -5564,7 +5623,9 @@
       <c r="G103" s="12">
         <v>521.2592720175236</v>
       </c>
-      <c r="H103" s="28"/>
+      <c r="H103" s="30">
+        <v>211.28</v>
+      </c>
       <c r="I103" s="8" t="s">
         <v>71</v>
       </c>
@@ -5609,7 +5670,9 @@
       <c r="G104" s="12">
         <v>87.22059820595078</v>
       </c>
-      <c r="H104" s="28"/>
+      <c r="H104" s="30">
+        <v>38.72</v>
+      </c>
       <c r="I104" s="12">
         <v>-7.099999999999994</v>
       </c>
@@ -5654,7 +5717,9 @@
       <c r="G105" s="12">
         <v>25.384398600968606</v>
       </c>
-      <c r="H105" s="28"/>
+      <c r="H105" s="30">
+        <v>19.17</v>
+      </c>
       <c r="I105" s="12">
         <v>-2.6999999999999993</v>
       </c>
@@ -5699,7 +5764,9 @@
       <c r="G106" s="12">
         <v>59.714111688214764</v>
       </c>
-      <c r="H106" s="28"/>
+      <c r="H106" s="30">
+        <v>67.16</v>
+      </c>
       <c r="I106" s="12">
         <v>0.8539999999999992</v>
       </c>
@@ -5744,7 +5811,9 @@
       <c r="G107" s="12">
         <v>5.897486197208996</v>
       </c>
-      <c r="H107" s="28"/>
+      <c r="H107" s="30">
+        <v>9.67</v>
+      </c>
       <c r="I107" s="12">
         <v>0.0</v>
       </c>
@@ -5789,7 +5858,9 @@
       <c r="G108" s="8" t="s">
         <v>71</v>
       </c>
-      <c r="H108" s="28"/>
+      <c r="H108" s="30">
+        <v>16.02</v>
+      </c>
       <c r="I108" s="8" t="s">
         <v>71</v>
       </c>
@@ -5834,7 +5905,9 @@
       <c r="G109" s="12">
         <v>3.88209196890286</v>
       </c>
-      <c r="H109" s="28"/>
+      <c r="H109" s="30">
+        <v>4.43</v>
+      </c>
       <c r="I109" s="12">
         <v>-0.3510899543762198</v>
       </c>
@@ -5879,7 +5952,9 @@
       <c r="G110" s="8" t="s">
         <v>71</v>
       </c>
-      <c r="H110" s="28"/>
+      <c r="H110" s="30">
+        <v>40.0</v>
+      </c>
       <c r="I110" s="8" t="s">
         <v>71</v>
       </c>
@@ -5924,7 +5999,9 @@
       <c r="G111" s="12">
         <v>32.341554083708765</v>
       </c>
-      <c r="H111" s="28"/>
+      <c r="H111" s="30">
+        <v>29.45</v>
+      </c>
       <c r="I111" s="12">
         <v>8.393531799316406</v>
       </c>
@@ -5969,7 +6046,9 @@
       <c r="G112" s="12">
         <v>2.6953013919201942</v>
       </c>
-      <c r="H112" s="28"/>
+      <c r="H112" s="30">
+        <v>4.81</v>
+      </c>
       <c r="I112" s="12">
         <v>-0.7732899999999998</v>
       </c>
@@ -6014,7 +6093,9 @@
       <c r="G113" s="12">
         <v>321.2054492231925</v>
       </c>
-      <c r="H113" s="28"/>
+      <c r="H113" s="30">
+        <v>373.48</v>
+      </c>
       <c r="I113" s="12">
         <v>0.3649597167969887</v>
       </c>
@@ -6059,7 +6140,9 @@
       <c r="G114" s="12">
         <v>25.32432120367606</v>
       </c>
-      <c r="H114" s="28"/>
+      <c r="H114" s="30">
+        <v>16.96</v>
+      </c>
       <c r="I114" s="12">
         <v>-1.1199999999999974</v>
       </c>
@@ -6104,7 +6187,9 @@
       <c r="G115" s="12">
         <v>52.961544566333224</v>
       </c>
-      <c r="H115" s="28"/>
+      <c r="H115" s="30">
+        <v>69.67</v>
+      </c>
       <c r="I115" s="12">
         <v>-3.9773597717285014</v>
       </c>
@@ -6149,7 +6234,9 @@
       <c r="G116" s="12">
         <v>8.12853411670549</v>
       </c>
-      <c r="H116" s="28"/>
+      <c r="H116" s="30">
+        <v>6.29</v>
+      </c>
       <c r="I116" s="12">
         <v>-2.1209999999999996</v>
       </c>
@@ -6194,7 +6281,9 @@
       <c r="G117" s="12">
         <v>57.59194780389942</v>
       </c>
-      <c r="H117" s="28"/>
+      <c r="H117" s="30">
+        <v>175.3</v>
+      </c>
       <c r="I117" s="12">
         <v>92.27000000000001</v>
       </c>
@@ -6239,7 +6328,9 @@
       <c r="G118" s="12">
         <v>18.391029376374256</v>
       </c>
-      <c r="H118" s="28"/>
+      <c r="H118" s="30">
+        <v>45.47</v>
+      </c>
       <c r="I118" s="12">
         <v>10.4</v>
       </c>
@@ -6284,7 +6375,9 @@
       <c r="G119" s="12">
         <v>0.38542874564351964</v>
       </c>
-      <c r="H119" s="28"/>
+      <c r="H119" s="30">
+        <v>0.83</v>
+      </c>
       <c r="I119" s="12">
         <v>-0.06272561917060099</v>
       </c>
@@ -6329,14 +6422,16 @@
       <c r="G120" s="8">
         <v>5.005264552293106</v>
       </c>
-      <c r="H120" s="28"/>
+      <c r="H120" s="30">
+        <v>3.77</v>
+      </c>
       <c r="I120" s="8">
         <v>-0.16199999999999992</v>
       </c>
       <c r="J120" s="8">
         <v>0.10373544770689413</v>
       </c>
-      <c r="K120" s="30">
+      <c r="K120" s="31">
         <v>-1.0</v>
       </c>
       <c r="L120" s="10">
@@ -6374,14 +6469,16 @@
       <c r="G121" s="8">
         <v>296.80243246549384</v>
       </c>
-      <c r="H121" s="28"/>
+      <c r="H121" s="30">
+        <v>120.3</v>
+      </c>
       <c r="I121" s="8" t="s">
         <v>71</v>
       </c>
       <c r="J121" s="8" t="s">
         <v>71</v>
       </c>
-      <c r="K121" s="30">
+      <c r="K121" s="31">
         <v>-1.0</v>
       </c>
       <c r="L121" s="10">
@@ -6419,14 +6516,16 @@
       <c r="G122" s="8">
         <v>81.00904225063086</v>
       </c>
-      <c r="H122" s="28"/>
+      <c r="H122" s="30">
+        <v>35.96</v>
+      </c>
       <c r="I122" s="8">
         <v>-6.400000000000006</v>
       </c>
       <c r="J122" s="8">
         <v>6.490957749369144</v>
       </c>
-      <c r="K122" s="30">
+      <c r="K122" s="31">
         <v>-1.0</v>
       </c>
       <c r="L122" s="10">
@@ -6464,14 +6563,16 @@
       <c r="G123" s="8">
         <v>25.29501691575393</v>
       </c>
-      <c r="H123" s="28"/>
+      <c r="H123" s="30">
+        <v>19.11</v>
+      </c>
       <c r="I123" s="8">
         <v>-2.8000000000000007</v>
       </c>
       <c r="J123" s="8">
         <v>0.20498308424607004</v>
       </c>
-      <c r="K123" s="30">
+      <c r="K123" s="31">
         <v>-1.0</v>
       </c>
       <c r="L123" s="10">
@@ -6509,14 +6610,16 @@
       <c r="G124" s="8">
         <v>62.080119398300056</v>
       </c>
-      <c r="H124" s="28"/>
+      <c r="H124" s="30">
+        <v>69.82</v>
+      </c>
       <c r="I124" s="8">
         <v>0.8089999999999975</v>
       </c>
       <c r="J124" s="8">
         <v>-0.5031193983000577</v>
       </c>
-      <c r="K124" s="30">
+      <c r="K124" s="31">
         <v>1.0</v>
       </c>
       <c r="L124" s="10">
@@ -6554,14 +6657,16 @@
       <c r="G125" s="8">
         <v>11.982549810974916</v>
       </c>
-      <c r="H125" s="28"/>
+      <c r="H125" s="30">
+        <v>19.65</v>
+      </c>
       <c r="I125" s="8">
         <v>-2.2492227499999995</v>
       </c>
       <c r="J125" s="8">
         <v>-3.1977778909749155</v>
       </c>
-      <c r="K125" s="30">
+      <c r="K125" s="31">
         <v>1.0</v>
       </c>
       <c r="L125" s="10">
@@ -6599,14 +6704,16 @@
       <c r="G126" s="8" t="s">
         <v>71</v>
       </c>
-      <c r="H126" s="28"/>
+      <c r="H126" s="30">
+        <v>16.02</v>
+      </c>
       <c r="I126" s="8" t="s">
         <v>71</v>
       </c>
       <c r="J126" s="8" t="s">
         <v>71</v>
       </c>
-      <c r="K126" s="30">
+      <c r="K126" s="31">
         <v>-1.0</v>
       </c>
       <c r="L126" s="10" t="s">
@@ -6644,14 +6751,16 @@
       <c r="G127" s="8">
         <v>5.765584352875504</v>
       </c>
-      <c r="H127" s="28"/>
+      <c r="H127" s="30">
+        <v>6.58</v>
+      </c>
       <c r="I127" s="8">
         <v>0.15701007843018022</v>
       </c>
       <c r="J127" s="8">
         <v>0.019895669554915507</v>
       </c>
-      <c r="K127" s="30">
+      <c r="K127" s="31">
         <v>1.0</v>
       </c>
       <c r="L127" s="10">
@@ -6689,14 +6798,16 @@
       <c r="G128" s="8">
         <v>44.90681252460525</v>
       </c>
-      <c r="H128" s="28"/>
+      <c r="H128" s="30">
+        <v>42.72</v>
+      </c>
       <c r="I128" s="8">
         <v>-3.8646400000000014</v>
       </c>
       <c r="J128" s="8">
         <v>-3.414442524605249</v>
       </c>
-      <c r="K128" s="30">
+      <c r="K128" s="31">
         <v>-1.0</v>
       </c>
       <c r="L128" s="10">
@@ -6734,14 +6845,16 @@
       <c r="G129" s="8">
         <v>22.46294149764612</v>
       </c>
-      <c r="H129" s="28"/>
+      <c r="H129" s="30">
+        <v>20.78</v>
+      </c>
       <c r="I129" s="8">
         <v>1.5094089508056001</v>
       </c>
       <c r="J129" s="8">
         <v>2.041397720493478</v>
       </c>
-      <c r="K129" s="30">
+      <c r="K129" s="31">
         <v>-1.0</v>
       </c>
       <c r="L129" s="10">
@@ -6779,14 +6892,16 @@
       <c r="G130" s="8">
         <v>1.6955790018107504</v>
       </c>
-      <c r="H130" s="28"/>
+      <c r="H130" s="30">
+        <v>3.21</v>
+      </c>
       <c r="I130" s="8">
         <v>0.0</v>
       </c>
       <c r="J130" s="8">
         <v>-0.0955790018107503</v>
       </c>
-      <c r="K130" s="30">
+      <c r="K130" s="31">
         <v>1.0</v>
       </c>
       <c r="L130" s="10">
@@ -6824,14 +6939,16 @@
       <c r="G131" s="8">
         <v>422.6938159158624</v>
       </c>
-      <c r="H131" s="28"/>
+      <c r="H131" s="30">
+        <v>491.48</v>
+      </c>
       <c r="I131" s="8">
         <v>-0.34567260742301187</v>
       </c>
       <c r="J131" s="8">
         <v>-19.0394885232854</v>
       </c>
-      <c r="K131" s="30">
+      <c r="K131" s="31">
         <v>1.0</v>
       </c>
       <c r="L131" s="10">
@@ -6869,14 +6986,16 @@
       <c r="G132" s="8">
         <v>21.312863601245024</v>
       </c>
-      <c r="H132" s="28"/>
+      <c r="H132" s="30">
+        <v>14.27</v>
+      </c>
       <c r="I132" s="8">
         <v>0.5209999999999972</v>
       </c>
       <c r="J132" s="8">
         <v>3.244136398754975</v>
       </c>
-      <c r="K132" s="30">
+      <c r="K132" s="31">
         <v>-1.0</v>
       </c>
       <c r="L132" s="10">
@@ -6914,14 +7033,16 @@
       <c r="G133" s="8">
         <v>62.1935893806188</v>
       </c>
-      <c r="H133" s="28"/>
+      <c r="H133" s="30">
+        <v>81.82</v>
+      </c>
       <c r="I133" s="8">
         <v>0.0</v>
       </c>
       <c r="J133" s="8">
         <v>-3.319607904788704</v>
       </c>
-      <c r="K133" s="30">
+      <c r="K133" s="31">
         <v>1.0</v>
       </c>
       <c r="L133" s="10">
@@ -6959,14 +7080,16 @@
       <c r="G134" s="8">
         <v>10.447176523218838</v>
       </c>
-      <c r="H134" s="28"/>
+      <c r="H134" s="30">
+        <v>8.9</v>
+      </c>
       <c r="I134" s="8">
         <v>-3.205</v>
       </c>
       <c r="J134" s="8">
         <v>-9.910176523218837</v>
       </c>
-      <c r="K134" s="30">
+      <c r="K134" s="31">
         <v>1.0</v>
       </c>
       <c r="L134" s="10">
@@ -7004,14 +7127,16 @@
       <c r="G135" s="8">
         <v>53.09869847481118</v>
       </c>
-      <c r="H135" s="28"/>
+      <c r="H135" s="30">
+        <v>161.62</v>
+      </c>
       <c r="I135" s="8">
         <v>67.06</v>
       </c>
       <c r="J135" s="8">
         <v>57.33130152518883</v>
       </c>
-      <c r="K135" s="30">
+      <c r="K135" s="31">
         <v>1.0</v>
       </c>
       <c r="L135" s="10">
@@ -7049,14 +7174,16 @@
       <c r="G136" s="8">
         <v>14.146945674134045</v>
       </c>
-      <c r="H136" s="28"/>
+      <c r="H136" s="30">
+        <v>34.98</v>
+      </c>
       <c r="I136" s="8">
         <v>6.0</v>
       </c>
       <c r="J136" s="8">
         <v>3.853054325865955</v>
       </c>
-      <c r="K136" s="30">
+      <c r="K136" s="31">
         <v>1.0</v>
       </c>
       <c r="L136" s="10">
@@ -7094,14 +7221,16 @@
       <c r="G137" s="8">
         <v>0.3829253701770597</v>
       </c>
-      <c r="H137" s="28"/>
+      <c r="H137" s="30">
+        <v>0.82</v>
+      </c>
       <c r="I137" s="8">
         <v>0.0</v>
       </c>
       <c r="J137" s="8">
         <v>-0.054405298283480674</v>
       </c>
-      <c r="K137" s="30">
+      <c r="K137" s="31">
         <v>1.0</v>
       </c>
       <c r="L137" s="10">
@@ -7139,14 +7268,16 @@
       <c r="G138" s="8">
         <v>2.1925926486899607</v>
       </c>
-      <c r="H138" s="28"/>
+      <c r="H138" s="30">
+        <v>1.65</v>
+      </c>
       <c r="I138" s="8">
         <v>-0.06700000000000017</v>
       </c>
       <c r="J138" s="8">
         <v>0.04940735131003926</v>
       </c>
-      <c r="K138" s="30">
+      <c r="K138" s="31">
         <v>-1.0</v>
       </c>
       <c r="L138" s="10">
@@ -7184,14 +7315,16 @@
       <c r="G139" s="8">
         <v>53.79544088437076</v>
       </c>
-      <c r="H139" s="28"/>
+      <c r="H139" s="30">
+        <v>21.8</v>
+      </c>
       <c r="I139" s="8" t="s">
         <v>71</v>
       </c>
       <c r="J139" s="8" t="s">
         <v>71</v>
       </c>
-      <c r="K139" s="30">
+      <c r="K139" s="31">
         <v>-1.0</v>
       </c>
       <c r="L139" s="10">
@@ -7229,14 +7362,16 @@
       <c r="G140" s="8">
         <v>14.493630562413188</v>
       </c>
-      <c r="H140" s="28"/>
+      <c r="H140" s="30">
+        <v>6.43</v>
+      </c>
       <c r="I140" s="8">
         <v>-1.9000000000000004</v>
       </c>
       <c r="J140" s="8">
         <v>0.40636943758681277</v>
       </c>
-      <c r="K140" s="30">
+      <c r="K140" s="31">
         <v>-1.0</v>
       </c>
       <c r="L140" s="10">
@@ -7274,14 +7409,16 @@
       <c r="G141" s="8">
         <v>9.563840317970566</v>
       </c>
-      <c r="H141" s="28"/>
+      <c r="H141" s="30">
+        <v>7.22</v>
+      </c>
       <c r="I141" s="8">
         <v>-1.0</v>
       </c>
       <c r="J141" s="8">
         <v>0.13615968202943307</v>
       </c>
-      <c r="K141" s="30">
+      <c r="K141" s="31">
         <v>-1.0</v>
       </c>
       <c r="L141" s="10">
@@ -7319,14 +7456,16 @@
       <c r="G142" s="8">
         <v>74.13695143389012</v>
       </c>
-      <c r="H142" s="28"/>
+      <c r="H142" s="30">
+        <v>83.38</v>
+      </c>
       <c r="I142" s="8">
         <v>0.41100000000000136</v>
       </c>
       <c r="J142" s="8">
         <v>-1.1559514338901238</v>
       </c>
-      <c r="K142" s="30">
+      <c r="K142" s="31">
         <v>1.0</v>
       </c>
       <c r="L142" s="10">
@@ -7364,14 +7503,16 @@
       <c r="G143" s="8">
         <v>11.285826113839338</v>
       </c>
-      <c r="H143" s="28"/>
+      <c r="H143" s="30">
+        <v>18.51</v>
+      </c>
       <c r="I143" s="8">
         <v>0.0</v>
       </c>
       <c r="J143" s="8">
         <v>-0.893401533839338</v>
       </c>
-      <c r="K143" s="30">
+      <c r="K143" s="31">
         <v>1.0</v>
       </c>
       <c r="L143" s="10">
@@ -7409,14 +7550,16 @@
       <c r="G144" s="8" t="s">
         <v>71</v>
       </c>
-      <c r="H144" s="28"/>
+      <c r="H144" s="30">
+        <v>16.02</v>
+      </c>
       <c r="I144" s="8" t="s">
         <v>71</v>
       </c>
       <c r="J144" s="8" t="s">
         <v>71</v>
       </c>
-      <c r="K144" s="30">
+      <c r="K144" s="31">
         <v>-1.0</v>
       </c>
       <c r="L144" s="10" t="s">
@@ -7454,14 +7597,16 @@
       <c r="G145" s="8">
         <v>5.307981739983031</v>
       </c>
-      <c r="H145" s="28"/>
+      <c r="H145" s="30">
+        <v>6.06</v>
+      </c>
       <c r="I145" s="8">
         <v>-0.4482898712158203</v>
       </c>
       <c r="J145" s="8">
         <v>-0.5745217904896212</v>
       </c>
-      <c r="K145" s="30">
+      <c r="K145" s="31">
         <v>1.0</v>
       </c>
       <c r="L145" s="10">
@@ -7499,14 +7644,16 @@
       <c r="G146" s="8">
         <v>21.276406393485146</v>
       </c>
-      <c r="H146" s="28"/>
+      <c r="H146" s="30">
+        <v>20.14</v>
+      </c>
       <c r="I146" s="8">
         <v>-0.9198899999999988</v>
       </c>
       <c r="J146" s="8">
         <v>-0.8135063934851452</v>
       </c>
-      <c r="K146" s="30">
+      <c r="K146" s="31">
         <v>-1.0</v>
       </c>
       <c r="L146" s="10">
@@ -7544,14 +7691,16 @@
       <c r="G147" s="8">
         <v>6.8863879820711755</v>
       </c>
-      <c r="H147" s="28"/>
+      <c r="H147" s="30">
+        <v>6.32</v>
+      </c>
       <c r="I147" s="8">
         <v>0.7287402153015101</v>
       </c>
       <c r="J147" s="8">
         <v>0.8370421746365846</v>
       </c>
-      <c r="K147" s="30">
+      <c r="K147" s="31">
         <v>-1.0</v>
       </c>
       <c r="L147" s="10">
@@ -7589,14 +7738,16 @@
       <c r="G148" s="8">
         <v>6.570368632016658</v>
       </c>
-      <c r="H148" s="28"/>
+      <c r="H148" s="30">
+        <v>12.44</v>
+      </c>
       <c r="I148" s="8">
         <v>0.09999999999999964</v>
       </c>
       <c r="J148" s="8">
         <v>-0.27036863201665806</v>
       </c>
-      <c r="K148" s="30">
+      <c r="K148" s="31">
         <v>1.0</v>
       </c>
       <c r="L148" s="10">
@@ -7634,14 +7785,16 @@
       <c r="G149" s="8" t="s">
         <v>71</v>
       </c>
-      <c r="H149" s="28"/>
+      <c r="H149" s="30">
+        <v>433.8</v>
+      </c>
       <c r="I149" s="8" t="s">
         <v>71</v>
       </c>
       <c r="J149" s="8" t="s">
         <v>71</v>
       </c>
-      <c r="K149" s="30">
+      <c r="K149" s="31">
         <v>1.0</v>
       </c>
       <c r="L149" s="10" t="s">
@@ -7679,14 +7832,16 @@
       <c r="G150" s="8">
         <v>27.842566029251692</v>
       </c>
-      <c r="H150" s="28"/>
+      <c r="H150" s="30">
+        <v>18.65</v>
+      </c>
       <c r="I150" s="8">
         <v>-1.2459999999999987</v>
       </c>
       <c r="J150" s="8">
         <v>2.3114339707483076</v>
       </c>
-      <c r="K150" s="30">
+      <c r="K150" s="31">
         <v>-1.0</v>
       </c>
       <c r="L150" s="10">
@@ -7724,14 +7879,16 @@
       <c r="G151" s="8" t="s">
         <v>71</v>
       </c>
-      <c r="H151" s="28"/>
+      <c r="H151" s="30">
+        <v>87.12</v>
+      </c>
       <c r="I151" s="8" t="s">
         <v>71</v>
       </c>
       <c r="J151" s="8" t="s">
         <v>71</v>
       </c>
-      <c r="K151" s="30">
+      <c r="K151" s="31">
         <v>1.0</v>
       </c>
       <c r="L151" s="10" t="s">
@@ -7769,14 +7926,16 @@
       <c r="G152" s="8">
         <v>10.447176523218838</v>
       </c>
-      <c r="H152" s="28"/>
+      <c r="H152" s="30">
+        <v>0.46</v>
+      </c>
       <c r="I152" s="8">
         <v>-0.15000000000000002</v>
       </c>
       <c r="J152" s="8">
         <v>-10.404176523218839</v>
       </c>
-      <c r="K152" s="30">
+      <c r="K152" s="31">
         <v>1.0</v>
       </c>
       <c r="L152" s="10">
@@ -7814,14 +7973,16 @@
       <c r="G153" s="8" t="s">
         <v>71</v>
       </c>
-      <c r="H153" s="28"/>
+      <c r="H153" s="30">
+        <v>139.31</v>
+      </c>
       <c r="I153" s="8" t="s">
         <v>71</v>
       </c>
       <c r="J153" s="8" t="s">
         <v>71</v>
       </c>
-      <c r="K153" s="30">
+      <c r="K153" s="31">
         <v>1.0</v>
       </c>
       <c r="L153" s="10" t="s">
@@ -7859,14 +8020,16 @@
       <c r="G154" s="8">
         <v>67.38914825252914</v>
       </c>
-      <c r="H154" s="28"/>
+      <c r="H154" s="30">
+        <v>166.62</v>
+      </c>
       <c r="I154" s="8">
         <v>4.781251410000003</v>
       </c>
       <c r="J154" s="8">
         <v>-5.445750492529136</v>
       </c>
-      <c r="K154" s="30">
+      <c r="K154" s="31">
         <v>1.0</v>
       </c>
       <c r="L154" s="10">
@@ -7904,14 +8067,16 @@
       <c r="G155" s="8">
         <v>18.883109326601573</v>
       </c>
-      <c r="H155" s="28"/>
+      <c r="H155" s="30">
+        <v>40.63</v>
+      </c>
       <c r="I155" s="8">
         <v>-3.1553574732369007</v>
       </c>
       <c r="J155" s="8">
         <v>-5.838233238188973</v>
       </c>
-      <c r="K155" s="30">
+      <c r="K155" s="31">
         <v>1.0</v>
       </c>
       <c r="L155" s="10">
@@ -7949,7 +8114,9 @@
       <c r="G156" s="12">
         <v>6.648047264390825</v>
       </c>
-      <c r="H156" s="28"/>
+      <c r="H156" s="30">
+        <v>5.0</v>
+      </c>
       <c r="I156" s="12">
         <v>-0.1770000000000005</v>
       </c>
@@ -7994,7 +8161,9 @@
       <c r="G157" s="12">
         <v>472.10136914042613</v>
       </c>
-      <c r="H157" s="28"/>
+      <c r="H157" s="30">
+        <v>191.36</v>
+      </c>
       <c r="I157" s="8" t="s">
         <v>71</v>
       </c>
@@ -8039,7 +8208,9 @@
       <c r="G158" s="12">
         <v>74.71121468482035</v>
       </c>
-      <c r="H158" s="28"/>
+      <c r="H158" s="30">
+        <v>33.16</v>
+      </c>
       <c r="I158" s="12">
         <v>-6.199999999999989</v>
       </c>
@@ -8084,7 +8255,9 @@
       <c r="G159" s="12">
         <v>42.09877373611343</v>
       </c>
-      <c r="H159" s="28"/>
+      <c r="H159" s="30">
+        <v>31.8</v>
+      </c>
       <c r="I159" s="12">
         <v>-0.3999999999999986</v>
       </c>
@@ -8129,7 +8302,9 @@
       <c r="G160" s="12">
         <v>62.92906257925034</v>
       </c>
-      <c r="H160" s="28"/>
+      <c r="H160" s="30">
+        <v>70.77</v>
+      </c>
       <c r="I160" s="12">
         <v>0.8210000000000051</v>
       </c>
@@ -8174,7 +8349,9 @@
       <c r="G161" s="12">
         <v>6.174598889465155</v>
       </c>
-      <c r="H161" s="28"/>
+      <c r="H161" s="30">
+        <v>10.13</v>
+      </c>
       <c r="I161" s="12">
         <v>2.6649036400000004</v>
       </c>
@@ -8219,7 +8396,9 @@
       <c r="G162" s="8" t="s">
         <v>71</v>
       </c>
-      <c r="H162" s="28"/>
+      <c r="H162" s="30">
+        <v>16.02</v>
+      </c>
       <c r="I162" s="8" t="s">
         <v>71</v>
       </c>
@@ -8264,7 +8443,9 @@
       <c r="G163" s="12">
         <v>2.6399417312342917</v>
       </c>
-      <c r="H163" s="28"/>
+      <c r="H163" s="30">
+        <v>3.01</v>
+      </c>
       <c r="I163" s="12">
         <v>0.9460101127624498</v>
       </c>
@@ -8309,7 +8490,9 @@
       <c r="G164" s="8" t="s">
         <v>71</v>
       </c>
-      <c r="H164" s="28"/>
+      <c r="H164" s="30">
+        <v>40.0</v>
+      </c>
       <c r="I164" s="8" t="s">
         <v>71</v>
       </c>
@@ -8354,7 +8537,9 @@
       <c r="G165" s="12">
         <v>32.99307820208154</v>
       </c>
-      <c r="H165" s="28"/>
+      <c r="H165" s="30">
+        <v>30.28</v>
+      </c>
       <c r="I165" s="12">
         <v>7.513401031494205</v>
       </c>
@@ -8399,7 +8584,9 @@
       <c r="G166" s="12">
         <v>2.119473752263438</v>
       </c>
-      <c r="H166" s="28"/>
+      <c r="H166" s="30">
+        <v>4.01</v>
+      </c>
       <c r="I166" s="12">
         <v>0.10000000000000009</v>
       </c>
@@ -8444,7 +8631,9 @@
       <c r="G167" s="12">
         <v>319.11290558004464</v>
       </c>
-      <c r="H167" s="28"/>
+      <c r="H167" s="30">
+        <v>371.04</v>
+      </c>
       <c r="I167" s="12">
         <v>-0.07775878906198841</v>
       </c>
@@ -8489,7 +8678,9 @@
       <c r="G168" s="12">
         <v>21.242813833209645</v>
       </c>
-      <c r="H168" s="28"/>
+      <c r="H168" s="30">
+        <v>14.23</v>
+      </c>
       <c r="I168" s="12">
         <v>1.1660000000000004</v>
       </c>
@@ -8534,7 +8725,9 @@
       <c r="G169" s="12">
         <v>45.91048999550703</v>
       </c>
-      <c r="H169" s="28"/>
+      <c r="H169" s="30">
+        <v>60.4</v>
+      </c>
       <c r="I169" s="12">
         <v>0.0</v>
       </c>
@@ -8579,7 +8772,9 @@
       <c r="G170" s="12">
         <v>8.12853411670549</v>
       </c>
-      <c r="H170" s="28"/>
+      <c r="H170" s="30">
+        <v>2.84</v>
+      </c>
       <c r="I170" s="12">
         <v>-0.9570000000000001</v>
       </c>
@@ -8624,7 +8819,9 @@
       <c r="G171" s="12">
         <v>26.788091367970225</v>
       </c>
-      <c r="H171" s="28"/>
+      <c r="H171" s="30">
+        <v>81.54</v>
+      </c>
       <c r="I171" s="12">
         <v>-0.4499999999999993</v>
       </c>
@@ -8669,7 +8866,9 @@
       <c r="G172" s="12">
         <v>12.053565016228392</v>
       </c>
-      <c r="H172" s="28"/>
+      <c r="H172" s="30">
+        <v>29.8</v>
+      </c>
       <c r="I172" s="12">
         <v>-10.22431156</v>
       </c>
@@ -8714,7 +8913,9 @@
       <c r="G173" s="12">
         <v>0.10196629082906007</v>
       </c>
-      <c r="H173" s="28"/>
+      <c r="H173" s="30">
+        <v>0.22</v>
+      </c>
       <c r="I173" s="12">
         <v>0.0</v>
       </c>
@@ -8759,7 +8960,9 @@
       <c r="G174" s="12">
         <v>5.181887433478178</v>
       </c>
-      <c r="H174" s="28"/>
+      <c r="H174" s="30">
+        <v>3.9</v>
+      </c>
       <c r="I174" s="12">
         <v>-0.13999999999999968</v>
       </c>
@@ -8804,7 +9007,9 @@
       <c r="G175" s="12">
         <v>850.5244705339308</v>
       </c>
-      <c r="H175" s="28"/>
+      <c r="H175" s="30">
+        <v>344.74</v>
+      </c>
       <c r="I175" s="8" t="s">
         <v>71</v>
       </c>
@@ -8849,7 +9054,9 @@
       <c r="G176" s="12">
         <v>105.94153768240115</v>
       </c>
-      <c r="H176" s="28"/>
+      <c r="H176" s="30">
+        <v>47.03</v>
+      </c>
       <c r="I176" s="12">
         <v>-5.599999999999994</v>
       </c>
@@ -8894,7 +9101,9 @@
       <c r="G177" s="12">
         <v>32.803078473786904</v>
       </c>
-      <c r="H177" s="28"/>
+      <c r="H177" s="30">
+        <v>24.78</v>
+      </c>
       <c r="I177" s="12">
         <v>-1.4000000000000057</v>
       </c>
@@ -8939,7 +9148,9 @@
       <c r="G178" s="12">
         <v>55.11490326386072</v>
       </c>
-      <c r="H178" s="28"/>
+      <c r="H178" s="30">
+        <v>61.99</v>
+      </c>
       <c r="I178" s="12">
         <v>0.7369999999999948</v>
       </c>
@@ -8984,7 +9195,9 @@
       <c r="G179" s="12">
         <v>5.43482648759177</v>
       </c>
-      <c r="H179" s="28"/>
+      <c r="H179" s="30">
+        <v>8.91</v>
+      </c>
       <c r="I179" s="12">
         <v>-0.5687293999999996</v>
       </c>
@@ -9029,7 +9242,9 @@
       <c r="G180" s="8" t="s">
         <v>71</v>
       </c>
-      <c r="H180" s="28"/>
+      <c r="H180" s="30">
+        <v>16.02</v>
+      </c>
       <c r="I180" s="8" t="s">
         <v>71</v>
       </c>
@@ -9074,7 +9289,9 @@
       <c r="G181" s="8" t="s">
         <v>71</v>
       </c>
-      <c r="H181" s="28"/>
+      <c r="H181" s="30">
+        <v>4.25</v>
+      </c>
       <c r="I181" s="8" t="s">
         <v>71</v>
       </c>
@@ -9119,7 +9336,9 @@
       <c r="G182" s="12">
         <v>48.61084900788925</v>
       </c>
-      <c r="H182" s="28"/>
+      <c r="H182" s="30">
+        <v>46.25</v>
+      </c>
       <c r="I182" s="12">
         <v>0.0</v>
       </c>
@@ -9164,7 +9383,9 @@
       <c r="G183" s="8" t="s">
         <v>71</v>
       </c>
-      <c r="H183" s="28"/>
+      <c r="H183" s="30">
+        <v>14.55</v>
+      </c>
       <c r="I183" s="8" t="s">
         <v>71</v>
       </c>
@@ -9209,7 +9430,9 @@
       <c r="G184" s="12">
         <v>6.888289694856173</v>
       </c>
-      <c r="H184" s="28"/>
+      <c r="H184" s="30">
+        <v>13.04</v>
+      </c>
       <c r="I184" s="12">
         <v>0.20000000000000018</v>
       </c>
@@ -9254,7 +9477,9 @@
       <c r="G185" s="12">
         <v>340.03834201152296</v>
       </c>
-      <c r="H185" s="28"/>
+      <c r="H185" s="30">
+        <v>395.38</v>
+      </c>
       <c r="I185" s="12">
         <v>-15.975036621095</v>
       </c>
@@ -9299,7 +9524,9 @@
       <c r="G186" s="12">
         <v>19.822310942163107</v>
       </c>
-      <c r="H186" s="28"/>
+      <c r="H186" s="30">
+        <v>13.28</v>
+      </c>
       <c r="I186" s="12">
         <v>3.3739999999999988</v>
       </c>
@@ -9344,7 +9571,9 @@
       <c r="G187" s="12">
         <v>79.25924152619059</v>
       </c>
-      <c r="H187" s="28"/>
+      <c r="H187" s="30">
+        <v>104.27</v>
+      </c>
       <c r="I187" s="12">
         <v>0.0</v>
       </c>
@@ -9389,7 +9618,9 @@
       <c r="G188" s="12">
         <v>8.12853411670549</v>
       </c>
-      <c r="H188" s="28"/>
+      <c r="H188" s="30">
+        <v>121.68</v>
+      </c>
       <c r="I188" s="12">
         <v>-40.753</v>
       </c>
@@ -9434,7 +9665,9 @@
       <c r="G189" s="8" t="s">
         <v>71</v>
       </c>
-      <c r="H189" s="28"/>
+      <c r="H189" s="30">
+        <v>139.31</v>
+      </c>
       <c r="I189" s="8" t="s">
         <v>71</v>
       </c>
@@ -9479,7 +9712,9 @@
       <c r="G190" s="12">
         <v>33.00953990631277</v>
       </c>
-      <c r="H190" s="28"/>
+      <c r="H190" s="30">
+        <v>81.62</v>
+      </c>
       <c r="I190" s="12">
         <v>5.600000000000001</v>
       </c>
@@ -9524,7 +9759,9 @@
       <c r="G191" s="12">
         <v>0.9620613369895471</v>
       </c>
-      <c r="H191" s="28"/>
+      <c r="H191" s="30">
+        <v>2.07</v>
+      </c>
       <c r="I191" s="12">
         <v>0.058594439152321987</v>
       </c>
@@ -9548,7 +9785,7 @@
       </c>
     </row>
     <row r="192" ht="15.75" customHeight="1">
-      <c r="A192" s="31" t="s">
+      <c r="A192" s="32" t="s">
         <v>27</v>
       </c>
       <c r="B192" s="6" t="s">
@@ -9569,14 +9806,16 @@
       <c r="G192" s="8">
         <v>4.466849640293449</v>
       </c>
-      <c r="H192" s="28"/>
+      <c r="H192" s="30">
+        <v>3.36</v>
+      </c>
       <c r="I192" s="8">
         <v>-0.11099999999999977</v>
       </c>
       <c r="J192" s="8">
         <v>0.12615035970655075</v>
       </c>
-      <c r="K192" s="30">
+      <c r="K192" s="31">
         <v>-1.0</v>
       </c>
       <c r="L192" s="10">
@@ -9593,7 +9832,7 @@
       </c>
     </row>
     <row r="193" ht="15.75" customHeight="1">
-      <c r="A193" s="31" t="s">
+      <c r="A193" s="32" t="s">
         <v>27</v>
       </c>
       <c r="B193" s="6" t="s">
@@ -9614,14 +9853,16 @@
       <c r="G193" s="8">
         <v>572.2721900975304</v>
       </c>
-      <c r="H193" s="28"/>
+      <c r="H193" s="30">
+        <v>231.96</v>
+      </c>
       <c r="I193" s="8" t="s">
         <v>71</v>
       </c>
       <c r="J193" s="8" t="s">
         <v>71</v>
       </c>
-      <c r="K193" s="30">
+      <c r="K193" s="31">
         <v>-1.0</v>
       </c>
       <c r="L193" s="10">
@@ -9638,7 +9879,7 @@
       </c>
     </row>
     <row r="194" ht="15.75" customHeight="1">
-      <c r="A194" s="31" t="s">
+      <c r="A194" s="32" t="s">
         <v>27</v>
       </c>
       <c r="B194" s="6" t="s">
@@ -9659,14 +9900,16 @@
       <c r="G194" s="8">
         <v>73.58968374844315</v>
       </c>
-      <c r="H194" s="28"/>
+      <c r="H194" s="30">
+        <v>32.67</v>
+      </c>
       <c r="I194" s="8">
         <v>-6.0</v>
       </c>
       <c r="J194" s="8">
         <v>5.710316251556847</v>
       </c>
-      <c r="K194" s="30">
+      <c r="K194" s="31">
         <v>-1.0</v>
       </c>
       <c r="L194" s="10">
@@ -9683,7 +9926,7 @@
       </c>
     </row>
     <row r="195" ht="15.75" customHeight="1">
-      <c r="A195" s="31" t="s">
+      <c r="A195" s="32" t="s">
         <v>27</v>
       </c>
       <c r="B195" s="6" t="s">
@@ -9704,14 +9947,16 @@
       <c r="G195" s="8">
         <v>21.004696025449377</v>
       </c>
-      <c r="H195" s="28"/>
+      <c r="H195" s="30">
+        <v>15.86</v>
+      </c>
       <c r="I195" s="8">
         <v>-5.699999999999999</v>
       </c>
       <c r="J195" s="8">
         <v>-3.204696025449376</v>
       </c>
-      <c r="K195" s="30">
+      <c r="K195" s="31">
         <v>-1.0</v>
       </c>
       <c r="L195" s="10">
@@ -9728,7 +9973,7 @@
       </c>
     </row>
     <row r="196" ht="15.75" customHeight="1">
-      <c r="A196" s="31" t="s">
+      <c r="A196" s="32" t="s">
         <v>27</v>
       </c>
       <c r="B196" s="6" t="s">
@@ -9749,14 +9994,16 @@
       <c r="G196" s="8">
         <v>58.24812677285536</v>
       </c>
-      <c r="H196" s="28"/>
+      <c r="H196" s="30">
+        <v>65.51</v>
+      </c>
       <c r="I196" s="8">
         <v>0.7659999999999982</v>
       </c>
       <c r="J196" s="8">
         <v>-0.4651267728553563</v>
       </c>
-      <c r="K196" s="30">
+      <c r="K196" s="31">
         <v>1.0</v>
       </c>
       <c r="L196" s="10">
@@ -9773,7 +10020,7 @@
       </c>
     </row>
     <row r="197" ht="15.75" customHeight="1">
-      <c r="A197" s="31" t="s">
+      <c r="A197" s="32" t="s">
         <v>27</v>
       </c>
       <c r="B197" s="6" t="s">
@@ -9794,14 +10041,16 @@
       <c r="G197" s="8">
         <v>5.2303414179366206</v>
       </c>
-      <c r="H197" s="28"/>
+      <c r="H197" s="30">
+        <v>8.58</v>
+      </c>
       <c r="I197" s="8">
         <v>0.2501864499999993</v>
       </c>
       <c r="J197" s="8">
         <v>-0.16385457793662095</v>
       </c>
-      <c r="K197" s="30">
+      <c r="K197" s="31">
         <v>1.0</v>
       </c>
       <c r="L197" s="10">
@@ -9818,7 +10067,7 @@
       </c>
     </row>
     <row r="198" ht="15.75" customHeight="1">
-      <c r="A198" s="31" t="s">
+      <c r="A198" s="32" t="s">
         <v>27</v>
       </c>
       <c r="B198" s="6" t="s">
@@ -9839,14 +10088,16 @@
       <c r="G198" s="8">
         <v>23.997492447073522</v>
       </c>
-      <c r="H198" s="28"/>
+      <c r="H198" s="30">
+        <v>11.83</v>
+      </c>
       <c r="I198" s="8" t="s">
         <v>71</v>
       </c>
       <c r="J198" s="8" t="s">
         <v>71</v>
       </c>
-      <c r="K198" s="30">
+      <c r="K198" s="31">
         <v>-1.0</v>
       </c>
       <c r="L198" s="10">
@@ -9863,7 +10114,7 @@
       </c>
     </row>
     <row r="199" ht="15.75" customHeight="1">
-      <c r="A199" s="31" t="s">
+      <c r="A199" s="32" t="s">
         <v>27</v>
       </c>
       <c r="B199" s="6" t="s">
@@ -9884,14 +10135,16 @@
       <c r="G199" s="8">
         <v>3.8961359789001793</v>
       </c>
-      <c r="H199" s="28"/>
+      <c r="H199" s="30">
+        <v>4.45</v>
+      </c>
       <c r="I199" s="8">
         <v>-0.10307979583740012</v>
       </c>
       <c r="J199" s="8">
         <v>-0.19573586484072925</v>
       </c>
-      <c r="K199" s="30">
+      <c r="K199" s="31">
         <v>1.0</v>
       </c>
       <c r="L199" s="10">
@@ -9908,7 +10161,7 @@
       </c>
     </row>
     <row r="200" ht="15.75" customHeight="1">
-      <c r="A200" s="31" t="s">
+      <c r="A200" s="32" t="s">
         <v>27</v>
       </c>
       <c r="B200" s="6" t="s">
@@ -9929,14 +10182,16 @@
       <c r="G200" s="8">
         <v>41.40718679312852</v>
       </c>
-      <c r="H200" s="28"/>
+      <c r="H200" s="30">
+        <v>39.39</v>
+      </c>
       <c r="I200" s="8">
         <v>-1.2482299999999995</v>
       </c>
       <c r="J200" s="8">
         <v>-0.8331167931285179</v>
       </c>
-      <c r="K200" s="30">
+      <c r="K200" s="31">
         <v>-1.0</v>
       </c>
       <c r="L200" s="10">
@@ -9953,7 +10208,7 @@
       </c>
     </row>
     <row r="201" ht="15.75" customHeight="1">
-      <c r="A201" s="31" t="s">
+      <c r="A201" s="32" t="s">
         <v>27</v>
       </c>
       <c r="B201" s="6" t="s">
@@ -9974,14 +10229,16 @@
       <c r="G201" s="8">
         <v>10.968445283887466</v>
       </c>
-      <c r="H201" s="28"/>
+      <c r="H201" s="30">
+        <v>10.15</v>
+      </c>
       <c r="I201" s="8">
         <v>-7.59484052658086</v>
       </c>
       <c r="J201" s="8">
         <v>-7.335075361249526</v>
       </c>
-      <c r="K201" s="30">
+      <c r="K201" s="31">
         <v>-1.0</v>
       </c>
       <c r="L201" s="10">
@@ -9998,7 +10255,7 @@
       </c>
     </row>
     <row r="202" ht="15.75" customHeight="1">
-      <c r="A202" s="31" t="s">
+      <c r="A202" s="32" t="s">
         <v>27</v>
       </c>
       <c r="B202" s="6" t="s">
@@ -10019,14 +10276,16 @@
       <c r="G202" s="8">
         <v>5.510631755884939</v>
       </c>
-      <c r="H202" s="28"/>
+      <c r="H202" s="30">
+        <v>10.43</v>
+      </c>
       <c r="I202" s="8">
         <v>0.09999999999999964</v>
       </c>
       <c r="J202" s="8">
         <v>-0.21063175588493888</v>
       </c>
-      <c r="K202" s="30">
+      <c r="K202" s="31">
         <v>1.0</v>
       </c>
       <c r="L202" s="10">
@@ -10043,7 +10302,7 @@
       </c>
     </row>
     <row r="203" ht="15.75" customHeight="1">
-      <c r="A203" s="31" t="s">
+      <c r="A203" s="32" t="s">
         <v>27</v>
       </c>
       <c r="B203" s="6" t="s">
@@ -10064,14 +10323,16 @@
       <c r="G203" s="8">
         <v>390.259389447071</v>
       </c>
-      <c r="H203" s="28"/>
+      <c r="H203" s="30">
+        <v>453.77</v>
+      </c>
       <c r="I203" s="8">
         <v>0.23052978515602263</v>
       </c>
       <c r="J203" s="8">
         <v>-17.028859661914964</v>
       </c>
-      <c r="K203" s="30">
+      <c r="K203" s="31">
         <v>1.0</v>
       </c>
       <c r="L203" s="10">
@@ -10088,7 +10349,7 @@
       </c>
     </row>
     <row r="204" ht="15.75" customHeight="1">
-      <c r="A204" s="31" t="s">
+      <c r="A204" s="32" t="s">
         <v>27</v>
       </c>
       <c r="B204" s="6" t="s">
@@ -10109,14 +10370,16 @@
       <c r="G204" s="8">
         <v>30.883967350281413</v>
       </c>
-      <c r="H204" s="28"/>
+      <c r="H204" s="30">
+        <v>20.69</v>
+      </c>
       <c r="I204" s="8">
         <v>-0.1280000000000001</v>
       </c>
       <c r="J204" s="8">
         <v>3.8180326497185852</v>
       </c>
-      <c r="K204" s="30">
+      <c r="K204" s="31">
         <v>-1.0</v>
       </c>
       <c r="L204" s="10">
@@ -10133,7 +10396,7 @@
       </c>
     </row>
     <row r="205" ht="15.75" customHeight="1">
-      <c r="A205" s="31" t="s">
+      <c r="A205" s="32" t="s">
         <v>27</v>
       </c>
       <c r="B205" s="6" t="s">
@@ -10154,14 +10417,16 @@
       <c r="G205" s="8" t="s">
         <v>71</v>
       </c>
-      <c r="H205" s="28"/>
+      <c r="H205" s="30">
+        <v>87.12</v>
+      </c>
       <c r="I205" s="8" t="s">
         <v>71</v>
       </c>
       <c r="J205" s="8" t="s">
         <v>71</v>
       </c>
-      <c r="K205" s="30">
+      <c r="K205" s="31">
         <v>1.0</v>
       </c>
       <c r="L205" s="10" t="s">
@@ -10178,7 +10443,7 @@
       </c>
     </row>
     <row r="206" ht="15.75" customHeight="1">
-      <c r="A206" s="31" t="s">
+      <c r="A206" s="32" t="s">
         <v>27</v>
       </c>
       <c r="B206" s="6" t="s">
@@ -10199,14 +10464,16 @@
       <c r="G206" s="8">
         <v>10.447176523218838</v>
       </c>
-      <c r="H206" s="28"/>
+      <c r="H206" s="30">
+        <v>7.94</v>
+      </c>
       <c r="I206" s="8">
         <v>-2.551</v>
       </c>
       <c r="J206" s="8">
         <v>-9.660176523218837</v>
       </c>
-      <c r="K206" s="30">
+      <c r="K206" s="31">
         <v>1.0</v>
       </c>
       <c r="L206" s="10">
@@ -10223,7 +10490,7 @@
       </c>
     </row>
     <row r="207" ht="15.75" customHeight="1">
-      <c r="A207" s="31" t="s">
+      <c r="A207" s="32" t="s">
         <v>27</v>
       </c>
       <c r="B207" s="6" t="s">
@@ -10244,14 +10511,16 @@
       <c r="G207" s="8">
         <v>43.38985183184939</v>
       </c>
-      <c r="H207" s="28"/>
+      <c r="H207" s="30">
+        <v>132.07</v>
+      </c>
       <c r="I207" s="8">
         <v>79.45</v>
       </c>
       <c r="J207" s="8">
         <v>71.50014816815062</v>
       </c>
-      <c r="K207" s="30">
+      <c r="K207" s="31">
         <v>1.0</v>
       </c>
       <c r="L207" s="10">
@@ -10268,7 +10537,7 @@
       </c>
     </row>
     <row r="208" ht="15.75" customHeight="1">
-      <c r="A208" s="31" t="s">
+      <c r="A208" s="32" t="s">
         <v>27</v>
       </c>
       <c r="B208" s="6" t="s">
@@ -10289,14 +10558,16 @@
       <c r="G208" s="8">
         <v>51.68341488527386</v>
       </c>
-      <c r="H208" s="28"/>
+      <c r="H208" s="30">
+        <v>127.79</v>
+      </c>
       <c r="I208" s="8">
         <v>-7.550966279999997</v>
       </c>
       <c r="J208" s="8">
         <v>-15.39446031527386</v>
       </c>
-      <c r="K208" s="30">
+      <c r="K208" s="31">
         <v>1.0</v>
       </c>
       <c r="L208" s="10">
@@ -10313,7 +10584,7 @@
       </c>
     </row>
     <row r="209" ht="15.75" customHeight="1">
-      <c r="A209" s="31" t="s">
+      <c r="A209" s="32" t="s">
         <v>27</v>
       </c>
       <c r="B209" s="6" t="s">
@@ -10334,14 +10605,16 @@
       <c r="G209" s="8">
         <v>0.8618725699241205</v>
       </c>
-      <c r="H209" s="28"/>
+      <c r="H209" s="30">
+        <v>1.85</v>
+      </c>
       <c r="I209" s="8">
         <v>0.041223249205393</v>
       </c>
       <c r="J209" s="8">
         <v>-0.08122994376897252</v>
       </c>
-      <c r="K209" s="30">
+      <c r="K209" s="31">
         <v>1.0</v>
       </c>
       <c r="L209" s="10">
@@ -10379,14 +10652,16 @@
       <c r="G210" s="8">
         <v>3.728072212540834</v>
       </c>
-      <c r="H210" s="28"/>
+      <c r="H210" s="30">
+        <v>2.8</v>
+      </c>
       <c r="I210" s="8">
         <v>-0.11000000000000032</v>
       </c>
       <c r="J210" s="8">
         <v>0.08792778745916596</v>
       </c>
-      <c r="K210" s="30">
+      <c r="K210" s="31">
         <v>-1.0</v>
       </c>
       <c r="L210" s="10">
@@ -10424,14 +10699,16 @@
       <c r="G211" s="8">
         <v>285.6723412480378</v>
       </c>
-      <c r="H211" s="28"/>
+      <c r="H211" s="30">
+        <v>115.79</v>
+      </c>
       <c r="I211" s="8" t="s">
         <v>71</v>
       </c>
       <c r="J211" s="8" t="s">
         <v>71</v>
       </c>
-      <c r="K211" s="30">
+      <c r="K211" s="31">
         <v>-1.0</v>
       </c>
       <c r="L211" s="10">
@@ -10469,14 +10746,16 @@
       <c r="G212" s="8">
         <v>43.13580524527734</v>
       </c>
-      <c r="H212" s="28"/>
+      <c r="H212" s="30">
+        <v>19.15</v>
+      </c>
       <c r="I212" s="8">
         <v>-3.799999999999997</v>
       </c>
       <c r="J212" s="8">
         <v>3.0641947547226636</v>
       </c>
-      <c r="K212" s="30">
+      <c r="K212" s="31">
         <v>-1.0</v>
       </c>
       <c r="L212" s="10">
@@ -10514,14 +10793,16 @@
       <c r="G213" s="8">
         <v>15.999321653427396</v>
       </c>
-      <c r="H213" s="28"/>
+      <c r="H213" s="30">
+        <v>12.08</v>
+      </c>
       <c r="I213" s="8">
         <v>-3.6999999999999993</v>
       </c>
       <c r="J213" s="8">
         <v>-1.7993216534273966</v>
       </c>
-      <c r="K213" s="30">
+      <c r="K213" s="31">
         <v>-1.0</v>
       </c>
       <c r="L213" s="10">
@@ -10559,14 +10840,16 @@
       <c r="G214" s="8">
         <v>64.83331058080431</v>
       </c>
-      <c r="H214" s="28"/>
+      <c r="H214" s="30">
+        <v>72.92</v>
+      </c>
       <c r="I214" s="8">
         <v>0.6109999999999971</v>
       </c>
       <c r="J214" s="8">
         <v>-0.7593105808043106</v>
       </c>
-      <c r="K214" s="30">
+      <c r="K214" s="31">
         <v>1.0</v>
       </c>
       <c r="L214" s="10">
@@ -10604,14 +10887,16 @@
       <c r="G215" s="8">
         <v>7.099700811306511</v>
       </c>
-      <c r="H215" s="28"/>
+      <c r="H215" s="30">
+        <v>11.64</v>
+      </c>
       <c r="I215" s="8">
         <v>-0.1212162999999995</v>
       </c>
       <c r="J215" s="8">
         <v>-0.683238391306511</v>
       </c>
-      <c r="K215" s="30">
+      <c r="K215" s="31">
         <v>1.0</v>
       </c>
       <c r="L215" s="10">
@@ -10649,14 +10934,16 @@
       <c r="G216" s="8" t="s">
         <v>71</v>
       </c>
-      <c r="H216" s="28"/>
+      <c r="H216" s="30">
+        <v>16.02</v>
+      </c>
       <c r="I216" s="8" t="s">
         <v>71</v>
       </c>
       <c r="J216" s="8" t="s">
         <v>71</v>
       </c>
-      <c r="K216" s="30">
+      <c r="K216" s="31">
         <v>-1.0</v>
       </c>
       <c r="L216" s="10" t="s">
@@ -10694,14 +10981,16 @@
       <c r="G217" s="8">
         <v>3.6712970982941036</v>
       </c>
-      <c r="H217" s="28"/>
+      <c r="H217" s="30">
+        <v>4.24</v>
+      </c>
       <c r="I217" s="8">
         <v>0.3767499923706099</v>
       </c>
       <c r="J217" s="8">
         <v>0.3328327883330964</v>
       </c>
-      <c r="K217" s="30">
+      <c r="K217" s="31">
         <v>1.0</v>
       </c>
       <c r="L217" s="10">
@@ -10739,14 +11028,16 @@
       <c r="G218" s="8">
         <v>44.65301686385607</v>
       </c>
-      <c r="H218" s="28"/>
+      <c r="H218" s="30">
+        <v>42.48</v>
+      </c>
       <c r="I218" s="8">
         <v>-8.434719999999999</v>
       </c>
       <c r="J218" s="8">
         <v>-7.9870668638560645</v>
       </c>
-      <c r="K218" s="30">
+      <c r="K218" s="31">
         <v>-1.0</v>
       </c>
       <c r="L218" s="10">
@@ -10784,14 +11075,16 @@
       <c r="G219" s="8">
         <v>2.128070895037981</v>
       </c>
-      <c r="H219" s="28"/>
+      <c r="H219" s="30">
+        <v>1.97</v>
+      </c>
       <c r="I219" s="8">
         <v>3.80522990226745</v>
       </c>
       <c r="J219" s="8">
         <v>3.8556289035459987</v>
       </c>
-      <c r="K219" s="30">
+      <c r="K219" s="31">
         <v>-1.0</v>
       </c>
       <c r="L219" s="10">
@@ -10829,14 +11122,16 @@
       <c r="G220" s="8">
         <v>7.630105508148377</v>
       </c>
-      <c r="H220" s="28"/>
+      <c r="H220" s="30">
+        <v>14.44</v>
+      </c>
       <c r="I220" s="8">
         <v>0.09999999999999964</v>
       </c>
       <c r="J220" s="8">
         <v>-0.33010550814837725</v>
       </c>
-      <c r="K220" s="30">
+      <c r="K220" s="31">
         <v>1.0</v>
       </c>
       <c r="L220" s="10">
@@ -10874,14 +11169,16 @@
       <c r="G221" s="8">
         <v>321.2054492231925</v>
       </c>
-      <c r="H221" s="28"/>
+      <c r="H221" s="30">
+        <v>373.48</v>
+      </c>
       <c r="I221" s="8">
         <v>0.2757873535160229</v>
       </c>
       <c r="J221" s="8">
         <v>-13.929661869676465</v>
       </c>
-      <c r="K221" s="30">
+      <c r="K221" s="31">
         <v>1.0</v>
       </c>
       <c r="L221" s="10">
@@ -10919,14 +11216,16 @@
       <c r="G222" s="8">
         <v>27.009062460223138</v>
       </c>
-      <c r="H222" s="28"/>
+      <c r="H222" s="30">
+        <v>18.09</v>
+      </c>
       <c r="I222" s="8">
         <v>-0.10099999999999909</v>
       </c>
       <c r="J222" s="8">
         <v>3.349937539776864</v>
       </c>
-      <c r="K222" s="30">
+      <c r="K222" s="31">
         <v>-1.0</v>
       </c>
       <c r="L222" s="10">
@@ -10964,14 +11263,16 @@
       <c r="G223" s="8">
         <v>97.70606753923781</v>
       </c>
-      <c r="H223" s="28"/>
+      <c r="H223" s="30">
+        <v>128.54</v>
+      </c>
       <c r="I223" s="8">
         <v>0.0</v>
       </c>
       <c r="J223" s="8">
         <v>-5.215100742362807</v>
       </c>
-      <c r="K223" s="30">
+      <c r="K223" s="31">
         <v>1.0</v>
       </c>
       <c r="L223" s="10">
@@ -11009,14 +11310,16 @@
       <c r="G224" s="8">
         <v>10.447176523218838</v>
       </c>
-      <c r="H224" s="28"/>
+      <c r="H224" s="30">
+        <v>58.22</v>
+      </c>
       <c r="I224" s="8">
         <v>-20.97</v>
       </c>
       <c r="J224" s="8">
         <v>-6.930176523218838</v>
       </c>
-      <c r="K224" s="30">
+      <c r="K224" s="31">
         <v>1.0</v>
       </c>
       <c r="L224" s="10">
@@ -11054,14 +11357,16 @@
       <c r="G225" s="8" t="s">
         <v>71</v>
       </c>
-      <c r="H225" s="28"/>
+      <c r="H225" s="30">
+        <v>139.31</v>
+      </c>
       <c r="I225" s="8" t="s">
         <v>71</v>
       </c>
       <c r="J225" s="8" t="s">
         <v>71</v>
       </c>
-      <c r="K225" s="30">
+      <c r="K225" s="31">
         <v>1.0</v>
       </c>
       <c r="L225" s="10" t="s">
@@ -11099,14 +11404,16 @@
       <c r="G226" s="8">
         <v>44.662087418811915</v>
       </c>
-      <c r="H226" s="28"/>
+      <c r="H226" s="30">
+        <v>110.43</v>
+      </c>
       <c r="I226" s="8">
         <v>15.115847379999998</v>
       </c>
       <c r="J226" s="8">
         <v>8.337912581188085</v>
       </c>
-      <c r="K226" s="30">
+      <c r="K226" s="31">
         <v>1.0</v>
       </c>
       <c r="L226" s="10">
@@ -11144,14 +11451,16 @@
       <c r="G227" s="8" t="s">
         <v>71</v>
       </c>
-      <c r="H227" s="28"/>
+      <c r="H227" s="30">
+        <v>4.38</v>
+      </c>
       <c r="I227" s="8" t="s">
         <v>71</v>
       </c>
       <c r="J227" s="8" t="s">
         <v>71</v>
       </c>
-      <c r="K227" s="30">
+      <c r="K227" s="31">
         <v>1.0</v>
       </c>
       <c r="L227" s="10" t="s">
@@ -11189,7 +11498,9 @@
       <c r="G228" s="12">
         <v>4.460202542614441</v>
       </c>
-      <c r="H228" s="28"/>
+      <c r="H228" s="30">
+        <v>3.36</v>
+      </c>
       <c r="I228" s="12">
         <v>-0.14100000000000001</v>
       </c>
@@ -11234,7 +11545,9 @@
       <c r="G229" s="12">
         <v>292.1648944582205</v>
       </c>
-      <c r="H229" s="28"/>
+      <c r="H229" s="30">
+        <v>118.42</v>
+      </c>
       <c r="I229" s="8" t="s">
         <v>71</v>
       </c>
@@ -11279,7 +11592,9 @@
       <c r="G230" s="12">
         <v>42.10054591939068</v>
       </c>
-      <c r="H230" s="28"/>
+      <c r="H230" s="30">
+        <v>18.69</v>
+      </c>
       <c r="I230" s="12">
         <v>-3.5</v>
       </c>
@@ -11324,7 +11639,9 @@
       <c r="G231" s="12">
         <v>17.161283561218212</v>
       </c>
-      <c r="H231" s="28"/>
+      <c r="H231" s="30">
+        <v>12.96</v>
+      </c>
       <c r="I231" s="12">
         <v>-2.0</v>
       </c>
@@ -11369,7 +11686,9 @@
       <c r="G232" s="12">
         <v>68.83488752398397</v>
       </c>
-      <c r="H232" s="28"/>
+      <c r="H232" s="30">
+        <v>77.42</v>
+      </c>
       <c r="I232" s="12">
         <v>0.561000000000007</v>
       </c>
@@ -11414,7 +11733,9 @@
       <c r="G233" s="12">
         <v>4.84004627722793</v>
       </c>
-      <c r="H233" s="28"/>
+      <c r="H233" s="30">
+        <v>7.94</v>
+      </c>
       <c r="I233" s="12">
         <v>-0.19884872000000087</v>
       </c>
@@ -11459,7 +11780,9 @@
       <c r="G234" s="12">
         <v>26.39451602111625</v>
       </c>
-      <c r="H234" s="28"/>
+      <c r="H234" s="30">
+        <v>13.8</v>
+      </c>
       <c r="I234" s="12">
         <v>-1.0</v>
       </c>
@@ -11504,7 +11827,9 @@
       <c r="G235" s="12">
         <v>4.737638238265412</v>
       </c>
-      <c r="H235" s="28"/>
+      <c r="H235" s="30">
+        <v>5.41</v>
+      </c>
       <c r="I235" s="12">
         <v>0.6622300148010307</v>
       </c>
@@ -11549,7 +11874,9 @@
       <c r="G236" s="8" t="s">
         <v>71</v>
       </c>
-      <c r="H236" s="28"/>
+      <c r="H236" s="30">
+        <v>40.0</v>
+      </c>
       <c r="I236" s="8" t="s">
         <v>71</v>
       </c>
@@ -11594,7 +11921,9 @@
       <c r="G237" s="8" t="s">
         <v>71</v>
       </c>
-      <c r="H237" s="28"/>
+      <c r="H237" s="30">
+        <v>14.55</v>
+      </c>
       <c r="I237" s="8" t="s">
         <v>71</v>
       </c>
@@ -11639,7 +11968,9 @@
       <c r="G238" s="12">
         <v>3.285184316008329</v>
       </c>
-      <c r="H238" s="28"/>
+      <c r="H238" s="30">
+        <v>6.22</v>
+      </c>
       <c r="I238" s="12">
         <v>0.10000000000000009</v>
       </c>
@@ -11684,7 +12015,9 @@
       <c r="G239" s="12">
         <v>431.0639904884537</v>
       </c>
-      <c r="H239" s="28"/>
+      <c r="H239" s="30">
+        <v>501.21</v>
+      </c>
       <c r="I239" s="12">
         <v>0.453857421875</v>
       </c>
@@ -11729,7 +12062,9 @@
       <c r="G240" s="12">
         <v>29.651446115228552</v>
       </c>
-      <c r="H240" s="28"/>
+      <c r="H240" s="30">
+        <v>19.86</v>
+      </c>
       <c r="I240" s="12">
         <v>0.29400000000000404</v>
       </c>
@@ -11774,7 +12109,9 @@
       <c r="G241" s="8" t="s">
         <v>71</v>
       </c>
-      <c r="H241" s="28"/>
+      <c r="H241" s="30">
+        <v>87.12</v>
+      </c>
       <c r="I241" s="8" t="s">
         <v>71</v>
       </c>
@@ -11819,7 +12156,9 @@
       <c r="G242" s="12">
         <v>8.12853411670549</v>
       </c>
-      <c r="H242" s="28"/>
+      <c r="H242" s="30">
+        <v>14.34</v>
+      </c>
       <c r="I242" s="12">
         <v>-4.651</v>
       </c>
@@ -11864,7 +12203,9 @@
       <c r="G243" s="12">
         <v>55.91463129685559</v>
       </c>
-      <c r="H243" s="28"/>
+      <c r="H243" s="30">
+        <v>170.19</v>
+      </c>
       <c r="I243" s="12">
         <v>67.8</v>
       </c>
@@ -11909,7 +12250,9 @@
       <c r="G244" s="12">
         <v>34.94663834759392</v>
       </c>
-      <c r="H244" s="28"/>
+      <c r="H244" s="30">
+        <v>86.41</v>
+      </c>
       <c r="I244" s="12">
         <v>9.856876329999999</v>
       </c>
@@ -11954,7 +12297,9 @@
       <c r="G245" s="12">
         <v>0.5465757691083856</v>
       </c>
-      <c r="H245" s="28"/>
+      <c r="H245" s="30">
+        <v>1.18</v>
+      </c>
       <c r="I245" s="12">
         <v>0.002263964837179999</v>
       </c>
@@ -11999,7 +12344,9 @@
       <c r="G246" s="12">
         <v>4.139242683256621</v>
       </c>
-      <c r="H246" s="28"/>
+      <c r="H246" s="30">
+        <v>3.11</v>
+      </c>
       <c r="I246" s="12">
         <v>-0.1900000000000004</v>
       </c>
@@ -12044,7 +12391,9 @@
       <c r="G247" s="12">
         <v>1038.8085136292284</v>
       </c>
-      <c r="H247" s="28"/>
+      <c r="H247" s="30">
+        <v>421.06</v>
+      </c>
       <c r="I247" s="8" t="s">
         <v>71</v>
       </c>
@@ -12089,7 +12438,9 @@
       <c r="G248" s="12">
         <v>101.97304359983563</v>
       </c>
-      <c r="H248" s="28"/>
+      <c r="H248" s="30">
+        <v>45.26</v>
+      </c>
       <c r="I248" s="12">
         <v>-9.0</v>
       </c>
@@ -12134,7 +12485,9 @@
       <c r="G249" s="12">
         <v>28.33399421305299</v>
       </c>
-      <c r="H249" s="28"/>
+      <c r="H249" s="30">
+        <v>21.4</v>
+      </c>
       <c r="I249" s="12">
         <v>-4.899999999999999</v>
       </c>
@@ -12179,7 +12532,9 @@
       <c r="G250" s="12">
         <v>55.05871568870757</v>
       </c>
-      <c r="H250" s="28"/>
+      <c r="H250" s="30">
+        <v>61.92</v>
+      </c>
       <c r="I250" s="12">
         <v>0.8009999999999948</v>
       </c>
@@ -12224,7 +12579,9 @@
       <c r="G251" s="12">
         <v>8.590874493046194</v>
       </c>
-      <c r="H251" s="28"/>
+      <c r="H251" s="30">
+        <v>14.09</v>
+      </c>
       <c r="I251" s="12">
         <v>-0.6619463000000003</v>
       </c>
@@ -12269,7 +12626,9 @@
       <c r="G252" s="8" t="s">
         <v>71</v>
       </c>
-      <c r="H252" s="28"/>
+      <c r="H252" s="30">
+        <v>16.02</v>
+      </c>
       <c r="I252" s="8" t="s">
         <v>71</v>
       </c>
@@ -12314,7 +12673,9 @@
       <c r="G253" s="12">
         <v>4.8061944183241705</v>
       </c>
-      <c r="H253" s="28"/>
+      <c r="H253" s="30">
+        <v>5.42</v>
+      </c>
       <c r="I253" s="12">
         <v>4.6256999969482395</v>
       </c>
@@ -12359,7 +12720,9 @@
       <c r="G254" s="12">
         <v>44.7320842020297</v>
       </c>
-      <c r="H254" s="28"/>
+      <c r="H254" s="30">
+        <v>42.56</v>
+      </c>
       <c r="I254" s="12">
         <v>14.602490000000003</v>
       </c>
@@ -12404,7 +12767,9 @@
       <c r="G255" s="8" t="s">
         <v>71</v>
       </c>
-      <c r="H255" s="28"/>
+      <c r="H255" s="30">
+        <v>14.55</v>
+      </c>
       <c r="I255" s="8" t="s">
         <v>71</v>
       </c>
@@ -12449,7 +12814,9 @@
       <c r="G256" s="12">
         <v>3.8150527540741885</v>
       </c>
-      <c r="H256" s="28"/>
+      <c r="H256" s="30">
+        <v>7.22</v>
+      </c>
       <c r="I256" s="12">
         <v>0.10000000000000009</v>
       </c>
@@ -12494,7 +12861,9 @@
       <c r="G257" s="8" t="s">
         <v>71</v>
       </c>
-      <c r="H257" s="28"/>
+      <c r="H257" s="30">
+        <v>433.8</v>
+      </c>
       <c r="I257" s="8" t="s">
         <v>71</v>
       </c>
@@ -12539,7 +12908,9 @@
       <c r="G258" s="12">
         <v>9.797213759783501</v>
       </c>
-      <c r="H258" s="28"/>
+      <c r="H258" s="30">
+        <v>6.56</v>
+      </c>
       <c r="I258" s="12">
         <v>0.766</v>
       </c>
@@ -12584,7 +12955,9 @@
       <c r="G259" s="12">
         <v>70.40657715538745</v>
       </c>
-      <c r="H259" s="28"/>
+      <c r="H259" s="30">
+        <v>92.62</v>
+      </c>
       <c r="I259" s="12">
         <v>0.0</v>
       </c>
@@ -12629,7 +13002,9 @@
       <c r="G260" s="12">
         <v>8.12853411670549</v>
       </c>
-      <c r="H260" s="28"/>
+      <c r="H260" s="30">
+        <v>4.26</v>
+      </c>
       <c r="I260" s="12">
         <v>-1.548</v>
       </c>
@@ -12674,7 +13049,9 @@
       <c r="G261" s="8" t="s">
         <v>71</v>
       </c>
-      <c r="H261" s="28"/>
+      <c r="H261" s="30">
+        <v>139.31</v>
+      </c>
       <c r="I261" s="8" t="s">
         <v>71</v>
       </c>
@@ -12719,7 +13096,9 @@
       <c r="G262" s="12">
         <v>15.605177973791815</v>
       </c>
-      <c r="H262" s="28"/>
+      <c r="H262" s="30">
+        <v>38.58</v>
+      </c>
       <c r="I262" s="12">
         <v>3.5630695700000015</v>
       </c>
@@ -12764,7 +13143,9 @@
       <c r="G263" s="12">
         <v>0.5389677094804844</v>
       </c>
-      <c r="H263" s="28"/>
+      <c r="H263" s="30">
+        <v>1.16</v>
+      </c>
       <c r="I263" s="12">
         <v>0.0</v>
       </c>
@@ -12809,14 +13190,16 @@
       <c r="G264" s="8">
         <v>4.536169373231677</v>
       </c>
-      <c r="H264" s="28"/>
+      <c r="H264" s="30">
+        <v>3.41</v>
+      </c>
       <c r="I264" s="8">
         <v>-0.15200000000000014</v>
       </c>
       <c r="J264" s="8">
         <v>0.0888306267683232</v>
       </c>
-      <c r="K264" s="30">
+      <c r="K264" s="31">
         <v>-1.0</v>
       </c>
       <c r="L264" s="10">
@@ -12854,14 +13237,16 @@
       <c r="G265" s="8">
         <v>534.2443784378889</v>
       </c>
-      <c r="H265" s="28"/>
+      <c r="H265" s="30">
+        <v>216.55</v>
+      </c>
       <c r="I265" s="8" t="s">
         <v>71</v>
       </c>
       <c r="J265" s="8" t="s">
         <v>71</v>
       </c>
-      <c r="K265" s="30">
+      <c r="K265" s="31">
         <v>-1.0</v>
       </c>
       <c r="L265" s="10">
@@ -12899,14 +13284,16 @@
       <c r="G266" s="8">
         <v>89.03230202625244</v>
       </c>
-      <c r="H266" s="28"/>
+      <c r="H266" s="30">
+        <v>39.52</v>
+      </c>
       <c r="I266" s="8">
         <v>-4.400000000000006</v>
       </c>
       <c r="J266" s="8">
         <v>9.767697973747559</v>
       </c>
-      <c r="K266" s="30">
+      <c r="K266" s="31">
         <v>-1.0</v>
       </c>
       <c r="L266" s="10">
@@ -12944,14 +13331,16 @@
       <c r="G267" s="8">
         <v>28.78090263912638</v>
       </c>
-      <c r="H267" s="28"/>
+      <c r="H267" s="30">
+        <v>21.74</v>
+      </c>
       <c r="I267" s="8">
         <v>-2.8000000000000043</v>
       </c>
       <c r="J267" s="8">
         <v>0.6190973608736172</v>
       </c>
-      <c r="K267" s="30">
+      <c r="K267" s="31">
         <v>-1.0</v>
       </c>
       <c r="L267" s="10">
@@ -12989,14 +13378,16 @@
       <c r="G268" s="8">
         <v>62.01678067721833</v>
       </c>
-      <c r="H268" s="28"/>
+      <c r="H268" s="30">
+        <v>69.75</v>
+      </c>
       <c r="I268" s="8">
         <v>0.8959999999999937</v>
       </c>
       <c r="J268" s="8">
         <v>-0.41478067721833156</v>
       </c>
-      <c r="K268" s="30">
+      <c r="K268" s="31">
         <v>1.0</v>
       </c>
       <c r="L268" s="10">
@@ -13034,14 +13425,16 @@
       <c r="G269" s="8">
         <v>4.466991736121102</v>
       </c>
-      <c r="H269" s="28"/>
+      <c r="H269" s="30">
+        <v>7.33</v>
+      </c>
       <c r="I269" s="8">
         <v>0.0</v>
       </c>
       <c r="J269" s="8">
         <v>-0.35361321612110164</v>
       </c>
-      <c r="K269" s="30">
+      <c r="K269" s="31">
         <v>1.0</v>
       </c>
       <c r="L269" s="10">
@@ -13079,14 +13472,16 @@
       <c r="G270" s="8">
         <v>45.50635604778387</v>
       </c>
-      <c r="H270" s="28"/>
+      <c r="H270" s="30">
+        <v>22.43</v>
+      </c>
       <c r="I270" s="8">
         <v>-4.700000000000003</v>
       </c>
       <c r="J270" s="8">
         <v>0.9936439522161322</v>
       </c>
-      <c r="K270" s="30">
+      <c r="K270" s="31">
         <v>-1.0</v>
       </c>
       <c r="L270" s="10">
@@ -13124,14 +13519,16 @@
       <c r="G271" s="8">
         <v>2.4056424581699196</v>
       </c>
-      <c r="H271" s="28"/>
+      <c r="H271" s="30">
+        <v>2.71</v>
+      </c>
       <c r="I271" s="8">
         <v>-0.12086987495422985</v>
       </c>
       <c r="J271" s="8">
         <v>-0.20617241498754968</v>
       </c>
-      <c r="K271" s="30">
+      <c r="K271" s="31">
         <v>1.0</v>
       </c>
       <c r="L271" s="10">
@@ -13169,14 +13566,16 @@
       <c r="G272" s="8" t="s">
         <v>71</v>
       </c>
-      <c r="H272" s="28"/>
+      <c r="H272" s="30">
+        <v>40.0</v>
+      </c>
       <c r="I272" s="8" t="s">
         <v>71</v>
       </c>
       <c r="J272" s="8" t="s">
         <v>71</v>
       </c>
-      <c r="K272" s="30">
+      <c r="K272" s="31">
         <v>-1.0</v>
       </c>
       <c r="L272" s="10" t="s">
@@ -13214,14 +13613,16 @@
       <c r="G273" s="8" t="s">
         <v>71</v>
       </c>
-      <c r="H273" s="28"/>
+      <c r="H273" s="30">
+        <v>14.55</v>
+      </c>
       <c r="I273" s="8" t="s">
         <v>71</v>
       </c>
       <c r="J273" s="8" t="s">
         <v>71</v>
       </c>
-      <c r="K273" s="30">
+      <c r="K273" s="31">
         <v>-1.0</v>
       </c>
       <c r="L273" s="10" t="s">
@@ -13259,14 +13660,16 @@
       <c r="G274" s="8">
         <v>2.861289565555641</v>
       </c>
-      <c r="H274" s="28"/>
+      <c r="H274" s="30">
+        <v>5.42</v>
+      </c>
       <c r="I274" s="8">
         <v>0.09999999999999964</v>
       </c>
       <c r="J274" s="8">
         <v>-0.06128956555564136</v>
       </c>
-      <c r="K274" s="30">
+      <c r="K274" s="31">
         <v>1.0</v>
       </c>
       <c r="L274" s="10">
@@ -13304,14 +13707,16 @@
       <c r="G275" s="8">
         <v>426.8789032021581</v>
       </c>
-      <c r="H275" s="28"/>
+      <c r="H275" s="30">
+        <v>496.35</v>
+      </c>
       <c r="I275" s="8">
         <v>0.24908447265602263</v>
       </c>
       <c r="J275" s="8">
         <v>-18.629818729502063</v>
       </c>
-      <c r="K275" s="30">
+      <c r="K275" s="31">
         <v>1.0</v>
       </c>
       <c r="L275" s="10">
@@ -13349,14 +13754,16 @@
       <c r="G276" s="8">
         <v>8.624988527596535</v>
       </c>
-      <c r="H276" s="28"/>
+      <c r="H276" s="30">
+        <v>5.78</v>
+      </c>
       <c r="I276" s="8">
         <v>2.094999999999999</v>
       </c>
       <c r="J276" s="8">
         <v>3.1970114724034637</v>
       </c>
-      <c r="K276" s="30">
+      <c r="K276" s="31">
         <v>-1.0</v>
       </c>
       <c r="L276" s="10">
@@ -13394,14 +13801,16 @@
       <c r="G277" s="8">
         <v>56.981956118747185</v>
       </c>
-      <c r="H277" s="28"/>
+      <c r="H277" s="30">
+        <v>74.96</v>
+      </c>
       <c r="I277" s="8">
         <v>0.0</v>
       </c>
       <c r="J277" s="8">
         <v>-3.0414348785127814</v>
       </c>
-      <c r="K277" s="30">
+      <c r="K277" s="31">
         <v>1.0</v>
       </c>
       <c r="L277" s="10">
@@ -13439,14 +13848,16 @@
       <c r="G278" s="8">
         <v>10.447176523218838</v>
       </c>
-      <c r="H278" s="28"/>
+      <c r="H278" s="30">
+        <v>2.54</v>
+      </c>
       <c r="I278" s="8">
         <v>-0.989</v>
       </c>
       <c r="J278" s="8">
         <v>-10.369176523218838</v>
       </c>
-      <c r="K278" s="30">
+      <c r="K278" s="31">
         <v>1.0</v>
       </c>
       <c r="L278" s="10">
@@ -13484,14 +13895,16 @@
       <c r="G279" s="8" t="s">
         <v>71</v>
       </c>
-      <c r="H279" s="28"/>
+      <c r="H279" s="30">
+        <v>139.31</v>
+      </c>
       <c r="I279" s="8" t="s">
         <v>71</v>
       </c>
       <c r="J279" s="8" t="s">
         <v>71</v>
       </c>
-      <c r="K279" s="30">
+      <c r="K279" s="31">
         <v>1.0</v>
       </c>
       <c r="L279" s="10" t="s">
@@ -13529,14 +13942,16 @@
       <c r="G280" s="8">
         <v>13.439622876432479</v>
       </c>
-      <c r="H280" s="28"/>
+      <c r="H280" s="30">
+        <v>33.23</v>
+      </c>
       <c r="I280" s="8">
         <v>11.59997923</v>
       </c>
       <c r="J280" s="8">
         <v>9.560377123567521</v>
       </c>
-      <c r="K280" s="30">
+      <c r="K280" s="31">
         <v>1.0</v>
       </c>
       <c r="L280" s="10">
@@ -13574,14 +13989,16 @@
       <c r="G281" s="8">
         <v>0.46395957481305944</v>
       </c>
-      <c r="H281" s="28"/>
+      <c r="H281" s="30">
+        <v>1.0</v>
+      </c>
       <c r="I281" s="8">
         <v>0.05207270459180502</v>
       </c>
       <c r="J281" s="8">
         <v>-0.013845777245817426</v>
       </c>
-      <c r="K281" s="30">
+      <c r="K281" s="31">
         <v>1.0</v>
       </c>
       <c r="L281" s="10">
@@ -13619,14 +14036,16 @@
       <c r="G282" s="8">
         <v>4.323462247503417</v>
       </c>
-      <c r="H282" s="28"/>
+      <c r="H282" s="30">
+        <v>3.25</v>
+      </c>
       <c r="I282" s="8">
         <v>-0.1509999999999998</v>
       </c>
       <c r="J282" s="8">
         <v>0.07853775249658312</v>
       </c>
-      <c r="K282" s="30">
+      <c r="K282" s="31">
         <v>-1.0</v>
       </c>
       <c r="L282" s="10">
@@ -13664,14 +14083,16 @@
       <c r="G283" s="8">
         <v>618.6475701702637</v>
       </c>
-      <c r="H283" s="28"/>
+      <c r="H283" s="30">
+        <v>250.76</v>
+      </c>
       <c r="I283" s="8" t="s">
         <v>71</v>
       </c>
       <c r="J283" s="8" t="s">
         <v>71</v>
       </c>
-      <c r="K283" s="30">
+      <c r="K283" s="31">
         <v>-1.0</v>
       </c>
       <c r="L283" s="10">
@@ -13709,14 +14130,16 @@
       <c r="G284" s="8">
         <v>72.64069603304705</v>
       </c>
-      <c r="H284" s="28"/>
+      <c r="H284" s="30">
+        <v>32.24</v>
+      </c>
       <c r="I284" s="8">
         <v>-5.700000000000003</v>
       </c>
       <c r="J284" s="8">
         <v>5.85930396695295</v>
       </c>
-      <c r="K284" s="30">
+      <c r="K284" s="31">
         <v>-1.0</v>
       </c>
       <c r="L284" s="10">
@@ -13754,14 +14177,16 @@
       <c r="G285" s="8">
         <v>25.831307027041998</v>
       </c>
-      <c r="H285" s="28"/>
+      <c r="H285" s="30">
+        <v>19.51</v>
+      </c>
       <c r="I285" s="8">
         <v>-0.8999999999999986</v>
       </c>
       <c r="J285" s="8">
         <v>2.1686929729580022</v>
       </c>
-      <c r="K285" s="30">
+      <c r="K285" s="31">
         <v>-1.0</v>
       </c>
       <c r="L285" s="10">
@@ -13799,14 +14224,16 @@
       <c r="G286" s="8">
         <v>58.91829130559109</v>
       </c>
-      <c r="H286" s="28"/>
+      <c r="H286" s="30">
+        <v>66.26</v>
+      </c>
       <c r="I286" s="8">
         <v>0.6490000000000009</v>
       </c>
       <c r="J286" s="8">
         <v>-0.5962913055910875</v>
       </c>
-      <c r="K286" s="30">
+      <c r="K286" s="31">
         <v>1.0</v>
       </c>
       <c r="L286" s="10">
@@ -13844,14 +14271,16 @@
       <c r="G287" s="8">
         <v>2.907685714554009</v>
       </c>
-      <c r="H287" s="28"/>
+      <c r="H287" s="30">
+        <v>4.77</v>
+      </c>
       <c r="I287" s="8">
         <v>0.3459460700000001</v>
       </c>
       <c r="J287" s="8">
         <v>0.11576966544599099</v>
       </c>
-      <c r="K287" s="30">
+      <c r="K287" s="31">
         <v>1.0</v>
       </c>
       <c r="L287" s="10">
@@ -13889,14 +14318,16 @@
       <c r="G288" s="8" t="s">
         <v>71</v>
       </c>
-      <c r="H288" s="28"/>
+      <c r="H288" s="30">
+        <v>16.02</v>
+      </c>
       <c r="I288" s="8" t="s">
         <v>71</v>
       </c>
       <c r="J288" s="8" t="s">
         <v>71</v>
       </c>
-      <c r="K288" s="30">
+      <c r="K288" s="31">
         <v>-1.0</v>
       </c>
       <c r="L288" s="10" t="s">
@@ -13934,14 +14365,16 @@
       <c r="G289" s="8">
         <v>2.2535939566971734</v>
       </c>
-      <c r="H289" s="28"/>
+      <c r="H289" s="30">
+        <v>2.57</v>
+      </c>
       <c r="I289" s="8">
         <v>0.74781990051269</v>
       </c>
       <c r="J289" s="8">
         <v>0.6942259914992364</v>
       </c>
-      <c r="K289" s="30">
+      <c r="K289" s="31">
         <v>1.0</v>
       </c>
       <c r="L289" s="10">
@@ -13979,14 +14412,16 @@
       <c r="G290" s="8" t="s">
         <v>71</v>
       </c>
-      <c r="H290" s="28"/>
+      <c r="H290" s="30">
+        <v>40.0</v>
+      </c>
       <c r="I290" s="8" t="s">
         <v>71</v>
       </c>
       <c r="J290" s="8" t="s">
         <v>71</v>
       </c>
-      <c r="K290" s="30">
+      <c r="K290" s="31">
         <v>-1.0</v>
       </c>
       <c r="L290" s="10" t="s">
@@ -14024,14 +14459,16 @@
       <c r="G291" s="8" t="s">
         <v>71</v>
       </c>
-      <c r="H291" s="28"/>
+      <c r="H291" s="30">
+        <v>14.55</v>
+      </c>
       <c r="I291" s="8" t="s">
         <v>71</v>
       </c>
       <c r="J291" s="8" t="s">
         <v>71</v>
       </c>
-      <c r="K291" s="30">
+      <c r="K291" s="31">
         <v>-1.0</v>
       </c>
       <c r="L291" s="10" t="s">
@@ -14069,14 +14506,16 @@
       <c r="G292" s="8">
         <v>3.4971316912346726</v>
       </c>
-      <c r="H292" s="28"/>
+      <c r="H292" s="30">
+        <v>6.62</v>
+      </c>
       <c r="I292" s="8">
         <v>0.30000000000000027</v>
       </c>
       <c r="J292" s="8">
         <v>0.10286830876532749</v>
       </c>
-      <c r="K292" s="30">
+      <c r="K292" s="31">
         <v>1.0</v>
       </c>
       <c r="L292" s="10">
@@ -14114,14 +14553,16 @@
       <c r="G293" s="8" t="s">
         <v>71</v>
       </c>
-      <c r="H293" s="28"/>
+      <c r="H293" s="30">
+        <v>433.8</v>
+      </c>
       <c r="I293" s="8" t="s">
         <v>71</v>
       </c>
       <c r="J293" s="8" t="s">
         <v>71</v>
       </c>
-      <c r="K293" s="30">
+      <c r="K293" s="31">
         <v>1.0</v>
       </c>
       <c r="L293" s="10" t="s">
@@ -14159,14 +14600,16 @@
       <c r="G294" s="8">
         <v>20.647834157871177</v>
       </c>
-      <c r="H294" s="28"/>
+      <c r="H294" s="30">
+        <v>13.83</v>
+      </c>
       <c r="I294" s="8">
         <v>1.0839999999999996</v>
       </c>
       <c r="J294" s="8">
         <v>3.722165842128824</v>
       </c>
-      <c r="K294" s="30">
+      <c r="K294" s="31">
         <v>-1.0</v>
       </c>
       <c r="L294" s="10">
@@ -14204,14 +14647,16 @@
       <c r="G295" s="8" t="s">
         <v>71</v>
       </c>
-      <c r="H295" s="28"/>
+      <c r="H295" s="30">
+        <v>87.12</v>
+      </c>
       <c r="I295" s="8" t="s">
         <v>71</v>
       </c>
       <c r="J295" s="8" t="s">
         <v>71</v>
       </c>
-      <c r="K295" s="30">
+      <c r="K295" s="31">
         <v>1.0</v>
       </c>
       <c r="L295" s="10" t="s">
@@ -14249,14 +14694,16 @@
       <c r="G296" s="8">
         <v>10.447176523218838</v>
       </c>
-      <c r="H296" s="28"/>
+      <c r="H296" s="30">
+        <v>0.81</v>
+      </c>
       <c r="I296" s="8">
         <v>-0.23400000000000004</v>
       </c>
       <c r="J296" s="8">
         <v>-10.341176523218838</v>
       </c>
-      <c r="K296" s="30">
+      <c r="K296" s="31">
         <v>1.0</v>
       </c>
       <c r="L296" s="10">
@@ -14294,14 +14741,16 @@
       <c r="G297" s="8">
         <v>2.326205374732332</v>
       </c>
-      <c r="H297" s="28"/>
+      <c r="H297" s="30">
+        <v>7.08</v>
+      </c>
       <c r="I297" s="8">
         <v>0.41999999999999993</v>
       </c>
       <c r="J297" s="8">
         <v>-0.006205374732332292</v>
       </c>
-      <c r="K297" s="30">
+      <c r="K297" s="31">
         <v>1.0</v>
       </c>
       <c r="L297" s="10">
@@ -14339,14 +14788,16 @@
       <c r="G298" s="8">
         <v>21.220418511201068</v>
       </c>
-      <c r="H298" s="28"/>
+      <c r="H298" s="30">
+        <v>52.47</v>
+      </c>
       <c r="I298" s="8">
         <v>10.0</v>
       </c>
       <c r="J298" s="8">
         <v>6.779581488798932</v>
       </c>
-      <c r="K298" s="30">
+      <c r="K298" s="31">
         <v>1.0</v>
       </c>
       <c r="L298" s="10">
@@ -14384,14 +14835,16 @@
       <c r="G299" s="8" t="s">
         <v>71</v>
       </c>
-      <c r="H299" s="28"/>
+      <c r="H299" s="30">
+        <v>4.38</v>
+      </c>
       <c r="I299" s="8" t="s">
         <v>71</v>
       </c>
       <c r="J299" s="8" t="s">
         <v>71</v>
       </c>
-      <c r="K299" s="30">
+      <c r="K299" s="31">
         <v>1.0</v>
       </c>
       <c r="L299" s="10" t="s">
@@ -14429,7 +14882,9 @@
       <c r="G300" s="12">
         <v>5.01476040612026</v>
       </c>
-      <c r="H300" s="28"/>
+      <c r="H300" s="30">
+        <v>3.77</v>
+      </c>
       <c r="I300" s="12">
         <v>-0.12699999999999978</v>
       </c>
@@ -14474,7 +14929,9 @@
       <c r="G301" s="12">
         <v>553.722038068437</v>
       </c>
-      <c r="H301" s="28"/>
+      <c r="H301" s="30">
+        <v>224.44</v>
+      </c>
       <c r="I301" s="8" t="s">
         <v>71</v>
       </c>
@@ -14519,7 +14976,9 @@
       <c r="G302" s="12">
         <v>48.05328704323896</v>
       </c>
-      <c r="H302" s="28"/>
+      <c r="H302" s="30">
+        <v>21.33</v>
+      </c>
       <c r="I302" s="12">
         <v>-4.0</v>
       </c>
@@ -14564,7 +15023,9 @@
       <c r="G303" s="12">
         <v>17.51881030207693</v>
       </c>
-      <c r="H303" s="28"/>
+      <c r="H303" s="30">
+        <v>13.23</v>
+      </c>
       <c r="I303" s="12">
         <v>-3.5</v>
       </c>
@@ -14609,7 +15070,9 @@
       <c r="G304" s="12">
         <v>62.76662940744397</v>
       </c>
-      <c r="H304" s="28"/>
+      <c r="H304" s="30">
+        <v>70.59</v>
+      </c>
       <c r="I304" s="12">
         <v>0.6099999999999994</v>
       </c>
@@ -14654,7 +15117,9 @@
       <c r="G305" s="12">
         <v>6.760680083738179</v>
       </c>
-      <c r="H305" s="28"/>
+      <c r="H305" s="30">
+        <v>11.09</v>
+      </c>
       <c r="I305" s="12">
         <v>-1.8499555599999997</v>
       </c>
@@ -14699,7 +15164,9 @@
       <c r="G306" s="8" t="s">
         <v>71</v>
       </c>
-      <c r="H306" s="28"/>
+      <c r="H306" s="30">
+        <v>16.02</v>
+      </c>
       <c r="I306" s="8" t="s">
         <v>71</v>
       </c>
@@ -14744,7 +15211,9 @@
       <c r="G307" s="12">
         <v>2.5190978902025134</v>
       </c>
-      <c r="H307" s="28"/>
+      <c r="H307" s="30">
+        <v>2.88</v>
+      </c>
       <c r="I307" s="12">
         <v>0.4161100387573202</v>
       </c>
@@ -14789,7 +15258,9 @@
       <c r="G308" s="12">
         <v>35.77943583361894</v>
       </c>
-      <c r="H308" s="28"/>
+      <c r="H308" s="30">
+        <v>34.04</v>
+      </c>
       <c r="I308" s="12">
         <v>5.446400000000004</v>
       </c>
@@ -14834,7 +15305,9 @@
       <c r="G309" s="12">
         <v>19.38651038381283</v>
       </c>
-      <c r="H309" s="28"/>
+      <c r="H309" s="30">
+        <v>17.93</v>
+      </c>
       <c r="I309" s="12">
         <v>-7.0023498535156</v>
       </c>
@@ -14879,7 +15352,9 @@
       <c r="G310" s="12">
         <v>4.027000129300532</v>
       </c>
-      <c r="H310" s="28"/>
+      <c r="H310" s="30">
+        <v>7.62</v>
+      </c>
       <c r="I310" s="12">
         <v>0.10000000000000009</v>
       </c>
@@ -14924,7 +15399,9 @@
       <c r="G311" s="12">
         <v>353.6398756919839</v>
       </c>
-      <c r="H311" s="28"/>
+      <c r="H311" s="30">
+        <v>411.19</v>
+      </c>
       <c r="I311" s="12">
         <v>14.899627685546989</v>
       </c>
@@ -14969,7 +15446,9 @@
       <c r="G312" s="12">
         <v>30.038936604234383</v>
       </c>
-      <c r="H312" s="28"/>
+      <c r="H312" s="30">
+        <v>20.12</v>
+      </c>
       <c r="I312" s="12">
         <v>1.8179999999999978</v>
       </c>
@@ -15014,7 +15493,9 @@
       <c r="G313" s="8" t="s">
         <v>71</v>
       </c>
-      <c r="H313" s="28"/>
+      <c r="H313" s="30">
+        <v>87.12</v>
+      </c>
       <c r="I313" s="8" t="s">
         <v>71</v>
       </c>
@@ -15059,7 +15540,9 @@
       <c r="G314" s="12">
         <v>8.12853411670549</v>
       </c>
-      <c r="H314" s="28"/>
+      <c r="H314" s="30">
+        <v>6.78</v>
+      </c>
       <c r="I314" s="12">
         <v>-2.5789999999999997</v>
       </c>
@@ -15104,7 +15587,9 @@
       <c r="G315" s="8" t="s">
         <v>71</v>
       </c>
-      <c r="H315" s="28"/>
+      <c r="H315" s="30">
+        <v>139.31</v>
+      </c>
       <c r="I315" s="8" t="s">
         <v>71</v>
       </c>
@@ -15149,7 +15634,9 @@
       <c r="G316" s="12">
         <v>37.72518846435745</v>
       </c>
-      <c r="H316" s="28"/>
+      <c r="H316" s="30">
+        <v>93.28</v>
+      </c>
       <c r="I316" s="12">
         <v>19.0</v>
       </c>
@@ -15194,7 +15681,9 @@
       <c r="G317" s="8" t="s">
         <v>71</v>
       </c>
-      <c r="H317" s="28"/>
+      <c r="H317" s="30">
+        <v>4.38</v>
+      </c>
       <c r="I317" s="8" t="s">
         <v>71</v>
       </c>
@@ -15239,7 +15728,9 @@
       <c r="G318" s="12">
         <v>4.162982317824508</v>
       </c>
-      <c r="H318" s="28"/>
+      <c r="H318" s="30">
+        <v>3.13</v>
+      </c>
       <c r="I318" s="12">
         <v>-0.125</v>
       </c>
@@ -15284,7 +15775,9 @@
       <c r="G319" s="12">
         <v>367.29301017604865</v>
       </c>
-      <c r="H319" s="28"/>
+      <c r="H319" s="30">
+        <v>148.88</v>
+      </c>
       <c r="I319" s="8" t="s">
         <v>71</v>
       </c>
@@ -15329,7 +15822,9 @@
       <c r="G320" s="12">
         <v>61.511658279765484</v>
       </c>
-      <c r="H320" s="28"/>
+      <c r="H320" s="30">
+        <v>27.3</v>
+      </c>
       <c r="I320" s="12">
         <v>-4.3999999999999915</v>
       </c>
@@ -15374,7 +15869,9 @@
       <c r="G321" s="12">
         <v>22.88171141495762</v>
       </c>
-      <c r="H321" s="28"/>
+      <c r="H321" s="30">
+        <v>17.28</v>
+      </c>
       <c r="I321" s="12">
         <v>-1.8000000000000007</v>
       </c>
@@ -15419,7 +15916,9 @@
       <c r="G322" s="12">
         <v>61.795095153432264</v>
       </c>
-      <c r="H322" s="28"/>
+      <c r="H322" s="30">
+        <v>69.5</v>
+      </c>
       <c r="I322" s="12">
         <v>0.5530000000000044</v>
       </c>
@@ -15464,7 +15963,9 @@
       <c r="G323" s="12">
         <v>4.625606976973232</v>
       </c>
-      <c r="H323" s="28"/>
+      <c r="H323" s="30">
+        <v>7.59</v>
+      </c>
       <c r="I323" s="12">
         <v>0.0</v>
       </c>
@@ -15509,7 +16010,9 @@
       <c r="G324" s="8" t="s">
         <v>71</v>
       </c>
-      <c r="H324" s="28"/>
+      <c r="H324" s="30">
+        <v>16.02</v>
+      </c>
       <c r="I324" s="8" t="s">
         <v>71</v>
       </c>
@@ -15554,7 +16057,9 @@
       <c r="G325" s="12">
         <v>3.8521397667937824</v>
       </c>
-      <c r="H325" s="28"/>
+      <c r="H325" s="30">
+        <v>4.4</v>
+      </c>
       <c r="I325" s="12">
         <v>1.2088499069213898</v>
       </c>
@@ -15599,7 +16104,9 @@
       <c r="G326" s="8" t="s">
         <v>71</v>
       </c>
-      <c r="H326" s="28"/>
+      <c r="H326" s="30">
+        <v>40.0</v>
+      </c>
       <c r="I326" s="8" t="s">
         <v>71</v>
       </c>
@@ -15644,7 +16151,9 @@
       <c r="G327" s="12">
         <v>7.214773019809358</v>
       </c>
-      <c r="H327" s="28"/>
+      <c r="H327" s="30">
+        <v>6.67</v>
+      </c>
       <c r="I327" s="12">
         <v>-6.16831016540527</v>
       </c>
@@ -15689,7 +16198,9 @@
       <c r="G328" s="12">
         <v>5.0867370054322505</v>
       </c>
-      <c r="H328" s="28"/>
+      <c r="H328" s="30">
+        <v>9.63</v>
+      </c>
       <c r="I328" s="12">
         <v>0.20000000000000018</v>
       </c>
@@ -15734,7 +16245,9 @@
       <c r="G329" s="12">
         <v>401.76837948438407</v>
       </c>
-      <c r="H329" s="28"/>
+      <c r="H329" s="30">
+        <v>467.15</v>
+      </c>
       <c r="I329" s="12">
         <v>-0.28219604492301187</v>
       </c>
@@ -15779,7 +16292,9 @@
       <c r="G330" s="12">
         <v>10.061452125284042</v>
       </c>
-      <c r="H330" s="28"/>
+      <c r="H330" s="30">
+        <v>6.74</v>
+      </c>
       <c r="I330" s="12">
         <v>0.5470000000000006</v>
       </c>
@@ -15824,7 +16339,9 @@
       <c r="G331" s="8" t="s">
         <v>71</v>
       </c>
-      <c r="H331" s="28"/>
+      <c r="H331" s="30">
+        <v>87.12</v>
+      </c>
       <c r="I331" s="8" t="s">
         <v>71</v>
       </c>
@@ -15869,7 +16386,9 @@
       <c r="G332" s="12">
         <v>8.12853411670549</v>
       </c>
-      <c r="H332" s="28"/>
+      <c r="H332" s="30">
+        <v>9.08</v>
+      </c>
       <c r="I332" s="12">
         <v>-3.6740000000000004</v>
       </c>
@@ -15914,7 +16433,9 @@
       <c r="G333" s="12">
         <v>42.30020826158004</v>
       </c>
-      <c r="H333" s="28"/>
+      <c r="H333" s="30">
+        <v>128.75</v>
+      </c>
       <c r="I333" s="12">
         <v>1.980000000000004</v>
       </c>
@@ -15959,7 +16480,9 @@
       <c r="G334" s="12">
         <v>14.571619264222093</v>
       </c>
-      <c r="H334" s="28"/>
+      <c r="H334" s="30">
+        <v>36.03</v>
+      </c>
       <c r="I334" s="12">
         <v>6.93977503</v>
       </c>
@@ -16004,7 +16527,9 @@
       <c r="G335" s="12">
         <v>0.6850438224215754</v>
       </c>
-      <c r="H335" s="28"/>
+      <c r="H335" s="30">
+        <v>1.47</v>
+      </c>
       <c r="I335" s="12">
         <v>0.355790697489758</v>
       </c>
@@ -16049,7 +16574,9 @@
       <c r="G336" s="12">
         <v>4.658665887601969</v>
       </c>
-      <c r="H336" s="28"/>
+      <c r="H336" s="30">
+        <v>3.51</v>
+      </c>
       <c r="I336" s="8">
         <v>-0.13899999999999935</v>
       </c>
@@ -16094,7 +16621,9 @@
       <c r="G337" s="12">
         <v>368.2205177775033</v>
       </c>
-      <c r="H337" s="28"/>
+      <c r="H337" s="30">
+        <v>149.25</v>
+      </c>
       <c r="I337" s="12" t="s">
         <v>71</v>
       </c>
@@ -16139,7 +16668,9 @@
       <c r="G338" s="12">
         <v>82.0443015765175</v>
       </c>
-      <c r="H338" s="28"/>
+      <c r="H338" s="30">
+        <v>36.42</v>
+      </c>
       <c r="I338" s="12">
         <v>-4.799999999999997</v>
       </c>
@@ -16184,7 +16715,9 @@
       <c r="G339" s="12">
         <v>29.406574435629125</v>
       </c>
-      <c r="H339" s="28"/>
+      <c r="H339" s="30">
+        <v>22.21</v>
+      </c>
       <c r="I339" s="12">
         <v>-1.5999999999999979</v>
       </c>
@@ -16229,7 +16762,9 @@
       <c r="G340" s="12">
         <v>62.49488586215784</v>
       </c>
-      <c r="H340" s="28"/>
+      <c r="H340" s="30">
+        <v>70.29</v>
+      </c>
       <c r="I340" s="12">
         <v>0.5970000000000013</v>
       </c>
@@ -16274,7 +16809,9 @@
       <c r="G341" s="8">
         <v>4.0468305371172715</v>
       </c>
-      <c r="H341" s="28"/>
+      <c r="H341" s="30">
+        <v>6.64</v>
+      </c>
       <c r="I341" s="8">
         <v>-0.7634334600000003</v>
       </c>
@@ -16319,7 +16856,9 @@
       <c r="G342" s="12" t="s">
         <v>71</v>
       </c>
-      <c r="H342" s="28"/>
+      <c r="H342" s="30">
+        <v>16.02</v>
+      </c>
       <c r="I342" s="12" t="s">
         <v>71</v>
       </c>
@@ -16364,7 +16903,9 @@
       <c r="G343" s="8">
         <v>3.6217199702555147</v>
       </c>
-      <c r="H343" s="28"/>
+      <c r="H343" s="30">
+        <v>4.13</v>
+      </c>
       <c r="I343" s="8">
         <v>-0.5703899860382102</v>
       </c>
@@ -16409,7 +16950,9 @@
       <c r="G344" s="12">
         <v>55.10515264787833</v>
       </c>
-      <c r="H344" s="28"/>
+      <c r="H344" s="30">
+        <v>52.42</v>
+      </c>
       <c r="I344" s="12">
         <v>-5.925899999999999</v>
       </c>
@@ -16454,7 +16997,9 @@
       <c r="G345" s="12">
         <v>2.897850365039705</v>
       </c>
-      <c r="H345" s="28"/>
+      <c r="H345" s="30">
+        <v>2.68</v>
+      </c>
       <c r="I345" s="12">
         <v>3.7580897808075</v>
       </c>
@@ -16499,7 +17044,9 @@
       <c r="G346" s="12">
         <v>4.027000129300532</v>
       </c>
-      <c r="H346" s="28"/>
+      <c r="H346" s="30">
+        <v>7.62</v>
+      </c>
       <c r="I346" s="12">
         <v>0.0</v>
       </c>
@@ -16544,7 +17091,9 @@
       <c r="G347" s="12">
         <v>401.76837948438407</v>
       </c>
-      <c r="H347" s="28"/>
+      <c r="H347" s="30">
+        <v>467.15</v>
+      </c>
       <c r="I347" s="12">
         <v>-0.0771484375</v>
       </c>
@@ -16589,7 +17138,9 @@
       <c r="G348" s="8">
         <v>28.112124630299224</v>
       </c>
-      <c r="H348" s="28"/>
+      <c r="H348" s="30">
+        <v>18.83</v>
+      </c>
       <c r="I348" s="8">
         <v>4.954999999999998</v>
       </c>
@@ -16634,7 +17185,9 @@
       <c r="G349" s="12">
         <v>64.38463394731158</v>
       </c>
-      <c r="H349" s="28"/>
+      <c r="H349" s="30">
+        <v>84.7</v>
+      </c>
       <c r="I349" s="12">
         <v>0.0</v>
       </c>
@@ -16679,7 +17232,9 @@
       <c r="G350" s="12">
         <v>10.447176523218838</v>
       </c>
-      <c r="H350" s="28"/>
+      <c r="H350" s="30">
+        <v>21.5</v>
+      </c>
       <c r="I350" s="12">
         <v>-8.600999999999999</v>
       </c>
@@ -16724,7 +17279,9 @@
       <c r="G351" s="12">
         <v>84.7350915711709</v>
       </c>
-      <c r="H351" s="28"/>
+      <c r="H351" s="30">
+        <v>257.92</v>
+      </c>
       <c r="I351" s="12">
         <v>42.58000000000001</v>
       </c>
@@ -16769,7 +17326,9 @@
       <c r="G352" s="12">
         <v>15.679531455498566</v>
       </c>
-      <c r="H352" s="28"/>
+      <c r="H352" s="30">
+        <v>38.77</v>
+      </c>
       <c r="I352" s="12">
         <v>15.7</v>
       </c>
@@ -16814,7 +17373,9 @@
       <c r="G353" s="12">
         <v>0.5668952217252948</v>
       </c>
-      <c r="H353" s="28"/>
+      <c r="H353" s="30">
+        <v>1.22</v>
+      </c>
       <c r="I353" s="12">
         <v>0.12111250069735296</v>
       </c>
@@ -16847,11 +17408,11 @@
       <c r="C354" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="D354" s="32"/>
-      <c r="E354" s="32">
+      <c r="D354" s="33"/>
+      <c r="E354" s="33">
         <v>14.0</v>
       </c>
-      <c r="F354" s="33">
+      <c r="F354" s="34">
         <v>0.7250542775318758</v>
       </c>
     </row>
@@ -16865,11 +17426,11 @@
       <c r="C355" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="D355" s="32"/>
-      <c r="E355" s="32">
+      <c r="D355" s="33"/>
+      <c r="E355" s="33">
         <v>5.0</v>
       </c>
-      <c r="F355" s="33">
+      <c r="F355" s="34">
         <v>1.1001312057481887</v>
       </c>
     </row>
@@ -16883,11 +17444,11 @@
       <c r="C356" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="D356" s="32"/>
-      <c r="E356" s="32">
+      <c r="D356" s="33"/>
+      <c r="E356" s="33">
         <v>13.0</v>
       </c>
-      <c r="F356" s="33">
+      <c r="F356" s="34">
         <v>0.6604806204699231</v>
       </c>
     </row>
@@ -16901,11 +17462,11 @@
       <c r="C357" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="D357" s="32"/>
-      <c r="E357" s="32">
+      <c r="D357" s="33"/>
+      <c r="E357" s="33">
         <v>13.0</v>
       </c>
-      <c r="F357" s="33">
+      <c r="F357" s="34">
         <v>0.41455100637751596</v>
       </c>
     </row>
@@ -16919,11 +17480,11 @@
       <c r="C358" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="D358" s="32"/>
-      <c r="E358" s="32">
+      <c r="D358" s="33"/>
+      <c r="E358" s="33">
         <v>11.0</v>
       </c>
-      <c r="F358" s="33">
+      <c r="F358" s="34">
         <v>0.7709154919100376</v>
       </c>
     </row>
@@ -16937,11 +17498,11 @@
       <c r="C359" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="D359" s="32"/>
-      <c r="E359" s="32">
+      <c r="D359" s="33"/>
+      <c r="E359" s="33">
         <v>11.0</v>
       </c>
-      <c r="F359" s="33">
+      <c r="F359" s="34">
         <v>1.0680616366309235</v>
       </c>
     </row>
@@ -16955,11 +17516,11 @@
       <c r="C360" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="D360" s="32"/>
-      <c r="E360" s="32">
+      <c r="D360" s="33"/>
+      <c r="E360" s="33">
         <v>10.0</v>
       </c>
-      <c r="F360" s="33">
+      <c r="F360" s="34">
         <v>0.7218345047802635</v>
       </c>
     </row>
@@ -16973,11 +17534,11 @@
       <c r="C361" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="D361" s="32"/>
-      <c r="E361" s="32">
+      <c r="D361" s="33"/>
+      <c r="E361" s="33">
         <v>9.0</v>
       </c>
-      <c r="F361" s="33">
+      <c r="F361" s="34">
         <v>0.5228503343189258</v>
       </c>
     </row>
@@ -16991,11 +17552,11 @@
       <c r="C362" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="D362" s="32"/>
-      <c r="E362" s="32">
+      <c r="D362" s="33"/>
+      <c r="E362" s="33">
         <v>8.0</v>
       </c>
-      <c r="F362" s="33">
+      <c r="F362" s="34">
         <v>0.8227247739190955</v>
       </c>
     </row>
@@ -17009,11 +17570,11 @@
       <c r="C363" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="D363" s="32"/>
-      <c r="E363" s="32">
+      <c r="D363" s="33"/>
+      <c r="E363" s="33">
         <v>6.0</v>
       </c>
-      <c r="F363" s="33">
+      <c r="F363" s="34">
         <v>1.1000235000898189</v>
       </c>
     </row>
@@ -17027,11 +17588,11 @@
       <c r="C364" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="D364" s="32"/>
-      <c r="E364" s="32">
+      <c r="D364" s="33"/>
+      <c r="E364" s="33">
         <v>8.0</v>
       </c>
-      <c r="F364" s="33">
+      <c r="F364" s="34">
         <v>0.781689278082033</v>
       </c>
     </row>
@@ -17045,11 +17606,11 @@
       <c r="C365" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="D365" s="32"/>
-      <c r="E365" s="32">
+      <c r="D365" s="33"/>
+      <c r="E365" s="33">
         <v>4.0</v>
       </c>
-      <c r="F365" s="33">
+      <c r="F365" s="34">
         <v>0.5864615435854347</v>
       </c>
     </row>
@@ -17063,11 +17624,11 @@
       <c r="C366" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="D366" s="32"/>
-      <c r="E366" s="32">
+      <c r="D366" s="33"/>
+      <c r="E366" s="33">
         <v>15.0</v>
       </c>
-      <c r="F366" s="33">
+      <c r="F366" s="34">
         <v>0.6978811468143772</v>
       </c>
     </row>
@@ -17081,11 +17642,11 @@
       <c r="C367" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="D367" s="32"/>
-      <c r="E367" s="32">
+      <c r="D367" s="33"/>
+      <c r="E367" s="33">
         <v>13.0</v>
       </c>
-      <c r="F367" s="33">
+      <c r="F367" s="34">
         <v>1.0595234838749306</v>
       </c>
     </row>
@@ -17099,11 +17660,11 @@
       <c r="C368" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="D368" s="32"/>
-      <c r="E368" s="32">
+      <c r="D368" s="33"/>
+      <c r="E368" s="33">
         <v>11.0</v>
       </c>
-      <c r="F368" s="33">
+      <c r="F368" s="34">
         <v>0.7127227998691825</v>
       </c>
     </row>
@@ -17117,11 +17678,11 @@
       <c r="C369" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="D369" s="32"/>
-      <c r="E369" s="32">
+      <c r="D369" s="33"/>
+      <c r="E369" s="33">
         <v>14.0</v>
       </c>
-      <c r="F369" s="33">
+      <c r="F369" s="34">
         <v>0.3213971566990185</v>
       </c>
     </row>
@@ -17135,11 +17696,11 @@
       <c r="C370" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="D370" s="32"/>
-      <c r="E370" s="32">
+      <c r="D370" s="33"/>
+      <c r="E370" s="33">
         <v>4.0</v>
       </c>
-      <c r="F370" s="33">
+      <c r="F370" s="34">
         <v>0.9825193651210188</v>
       </c>
     </row>
@@ -17153,11 +17714,11 @@
       <c r="C371" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="D371" s="32"/>
-      <c r="E371" s="32">
+      <c r="D371" s="33"/>
+      <c r="E371" s="33">
         <v>3.0</v>
       </c>
-      <c r="F371" s="33">
+      <c r="F371" s="34">
         <v>1.102102405550921</v>
       </c>
     </row>
@@ -17171,11 +17732,11 @@
       <c r="C372" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="D372" s="32"/>
-      <c r="E372" s="32">
+      <c r="D372" s="33"/>
+      <c r="E372" s="33">
         <v>3.0</v>
       </c>
-      <c r="F372" s="33">
+      <c r="F372" s="34">
         <v>0.9531479975044431</v>
       </c>
     </row>
@@ -17189,11 +17750,11 @@
       <c r="C373" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="D373" s="32"/>
-      <c r="E373" s="32">
-        <v>1.0</v>
-      </c>
-      <c r="F373" s="33">
+      <c r="D373" s="33"/>
+      <c r="E373" s="33">
+        <v>1.0</v>
+      </c>
+      <c r="F373" s="34">
         <v>0.8923076923076924</v>
       </c>
     </row>
@@ -17207,11 +17768,11 @@
       <c r="C374" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="D374" s="32"/>
-      <c r="E374" s="32">
+      <c r="D374" s="33"/>
+      <c r="E374" s="33">
         <v>12.0</v>
       </c>
-      <c r="F374" s="33">
+      <c r="F374" s="34">
         <v>0.7476472823040021</v>
       </c>
     </row>
@@ -17225,11 +17786,11 @@
       <c r="C375" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="D375" s="32"/>
-      <c r="E375" s="32">
+      <c r="D375" s="33"/>
+      <c r="E375" s="33">
         <v>14.0</v>
       </c>
-      <c r="F375" s="33">
+      <c r="F375" s="34">
         <v>1.0559695414022374</v>
       </c>
     </row>
@@ -17243,11 +17804,11 @@
       <c r="C376" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="D376" s="32"/>
-      <c r="E376" s="32">
+      <c r="D376" s="33"/>
+      <c r="E376" s="33">
         <v>12.0</v>
       </c>
-      <c r="F376" s="33">
+      <c r="F376" s="34">
         <v>0.6859147611917493</v>
       </c>
     </row>
@@ -17261,11 +17822,11 @@
       <c r="C377" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="D377" s="32"/>
-      <c r="E377" s="32">
+      <c r="D377" s="33"/>
+      <c r="E377" s="33">
         <v>10.0</v>
       </c>
-      <c r="F377" s="33">
+      <c r="F377" s="34">
         <v>0.5010575443180195</v>
       </c>
     </row>
@@ -17279,11 +17840,11 @@
       <c r="C378" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="D378" s="32"/>
-      <c r="E378" s="32">
+      <c r="D378" s="33"/>
+      <c r="E378" s="33">
         <v>5.0</v>
       </c>
-      <c r="F378" s="33">
+      <c r="F378" s="34">
         <v>0.8312550662542288</v>
       </c>
     </row>
@@ -17297,11 +17858,11 @@
       <c r="C379" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="D379" s="32"/>
-      <c r="E379" s="32">
+      <c r="D379" s="33"/>
+      <c r="E379" s="33">
         <v>10.0</v>
       </c>
-      <c r="F379" s="33">
+      <c r="F379" s="34">
         <v>1.0748921878659647</v>
       </c>
     </row>
@@ -17315,11 +17876,11 @@
       <c r="C380" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="D380" s="32"/>
-      <c r="E380" s="32">
+      <c r="D380" s="33"/>
+      <c r="E380" s="33">
         <v>6.0</v>
       </c>
-      <c r="F380" s="33">
+      <c r="F380" s="34">
         <v>0.8546001803953311</v>
       </c>
     </row>
@@ -17333,11 +17894,11 @@
       <c r="C381" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="D381" s="32"/>
-      <c r="E381" s="32">
+      <c r="D381" s="33"/>
+      <c r="E381" s="33">
         <v>5.0</v>
       </c>
-      <c r="F381" s="33">
+      <c r="F381" s="34">
         <v>0.5642728305013908</v>
       </c>
     </row>
@@ -17351,11 +17912,11 @@
       <c r="C382" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="D382" s="32"/>
-      <c r="E382" s="32">
+      <c r="D382" s="33"/>
+      <c r="E382" s="33">
         <v>13.0</v>
       </c>
-      <c r="F382" s="33">
+      <c r="F382" s="34">
         <v>0.7324815698724594</v>
       </c>
     </row>
@@ -17369,11 +17930,11 @@
       <c r="C383" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="D383" s="32"/>
-      <c r="E383" s="32">
+      <c r="D383" s="33"/>
+      <c r="E383" s="33">
         <v>7.0</v>
       </c>
-      <c r="F383" s="33">
+      <c r="F383" s="34">
         <v>1.0882751756503073</v>
       </c>
     </row>
@@ -17387,11 +17948,11 @@
       <c r="C384" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="D384" s="32"/>
-      <c r="E384" s="32">
+      <c r="D384" s="33"/>
+      <c r="E384" s="33">
         <v>14.0</v>
       </c>
-      <c r="F384" s="33">
+      <c r="F384" s="34">
         <v>0.6563346702209347</v>
       </c>
     </row>
@@ -17405,11 +17966,11 @@
       <c r="C385" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="D385" s="32"/>
-      <c r="E385" s="32">
+      <c r="D385" s="33"/>
+      <c r="E385" s="33">
         <v>12.0</v>
       </c>
-      <c r="F385" s="33">
+      <c r="F385" s="34">
         <v>0.45283486374613635</v>
       </c>
     </row>
@@ -17423,11 +17984,11 @@
       <c r="C386" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="D386" s="32"/>
-      <c r="E386" s="32">
+      <c r="D386" s="33"/>
+      <c r="E386" s="33">
         <v>2.0</v>
       </c>
-      <c r="F386" s="33">
+      <c r="F386" s="34">
         <v>0.9916550960781657</v>
       </c>
     </row>
@@ -17441,11 +18002,11 @@
       <c r="C387" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="D387" s="32"/>
-      <c r="E387" s="32">
+      <c r="D387" s="33"/>
+      <c r="E387" s="33">
         <v>8.0</v>
       </c>
-      <c r="F387" s="33">
+      <c r="F387" s="34">
         <v>1.0872077901075814</v>
       </c>
     </row>
@@ -17459,11 +18020,11 @@
       <c r="C388" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="D388" s="32"/>
-      <c r="E388" s="32">
-        <v>1.0</v>
-      </c>
-      <c r="F388" s="33">
+      <c r="D388" s="33"/>
+      <c r="E388" s="33">
+        <v>1.0</v>
+      </c>
+      <c r="F388" s="34">
         <v>1.3243300008880818</v>
       </c>
     </row>
@@ -17477,11 +18038,11 @@
       <c r="C389" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="D389" s="32"/>
-      <c r="E389" s="32">
+      <c r="D389" s="33"/>
+      <c r="E389" s="33">
         <v>6.0</v>
       </c>
-      <c r="F389" s="33">
+      <c r="F389" s="34">
         <v>0.5634274972388339</v>
       </c>
     </row>
@@ -17495,11 +18056,11 @@
       <c r="C390" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="D390" s="32"/>
-      <c r="E390" s="32">
+      <c r="D390" s="33"/>
+      <c r="E390" s="33">
         <v>6.0</v>
       </c>
-      <c r="F390" s="33">
+      <c r="F390" s="34">
         <v>0.8274165800331771</v>
       </c>
     </row>
@@ -17513,11 +18074,11 @@
       <c r="C391" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="D391" s="32"/>
-      <c r="E391" s="32">
-        <v>1.0</v>
-      </c>
-      <c r="F391" s="33">
+      <c r="D391" s="33"/>
+      <c r="E391" s="33">
+        <v>1.0</v>
+      </c>
+      <c r="F391" s="34">
         <v>1.1617826326677991</v>
       </c>
     </row>
@@ -17531,11 +18092,11 @@
       <c r="C392" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="D392" s="32"/>
-      <c r="E392" s="32">
+      <c r="D392" s="33"/>
+      <c r="E392" s="33">
         <v>7.0</v>
       </c>
-      <c r="F392" s="33">
+      <c r="F392" s="34">
         <v>0.8409589037811557</v>
       </c>
     </row>
@@ -17549,11 +18110,11 @@
       <c r="C393" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="D393" s="32"/>
-      <c r="E393" s="32">
+      <c r="D393" s="33"/>
+      <c r="E393" s="33">
         <v>11.0</v>
       </c>
-      <c r="F393" s="33">
+      <c r="F393" s="34">
         <v>0.4795082036505763</v>
       </c>
     </row>
@@ -17567,11 +18128,11 @@
       <c r="C394" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="D394" s="32"/>
-      <c r="E394" s="32">
+      <c r="D394" s="33"/>
+      <c r="E394" s="33">
         <v>7.0</v>
       </c>
-      <c r="F394" s="33">
+      <c r="F394" s="34">
         <v>0.824133685748758</v>
       </c>
     </row>
@@ -17585,11 +18146,11 @@
       <c r="C395" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="D395" s="32"/>
-      <c r="E395" s="32">
+      <c r="D395" s="33"/>
+      <c r="E395" s="33">
         <v>15.0</v>
       </c>
-      <c r="F395" s="33">
+      <c r="F395" s="34">
         <v>1.0516894690314664</v>
       </c>
     </row>
@@ -17603,11 +18164,11 @@
       <c r="C396" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="D396" s="32"/>
-      <c r="E396" s="32">
+      <c r="D396" s="33"/>
+      <c r="E396" s="33">
         <v>5.0</v>
       </c>
-      <c r="F396" s="33">
+      <c r="F396" s="34">
         <v>0.8831320705027723</v>
       </c>
     </row>
@@ -17621,11 +18182,11 @@
       <c r="C397" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="D397" s="32"/>
-      <c r="E397" s="32">
+      <c r="D397" s="33"/>
+      <c r="E397" s="33">
         <v>8.0</v>
       </c>
-      <c r="F397" s="33">
+      <c r="F397" s="34">
         <v>0.5375795177120354</v>
       </c>
     </row>
@@ -17639,11 +18200,11 @@
       <c r="C398" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="D398" s="32"/>
-      <c r="E398" s="32">
+      <c r="D398" s="33"/>
+      <c r="E398" s="33">
         <v>10.0</v>
       </c>
-      <c r="F398" s="33">
+      <c r="F398" s="34">
         <v>0.7750818212156124</v>
       </c>
     </row>
@@ -17657,11 +18218,11 @@
       <c r="C399" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="D399" s="32"/>
-      <c r="E399" s="32">
+      <c r="D399" s="33"/>
+      <c r="E399" s="33">
         <v>2.0</v>
       </c>
-      <c r="F399" s="33">
+      <c r="F399" s="34">
         <v>1.102600009294249</v>
       </c>
     </row>
@@ -17675,11 +18236,11 @@
       <c r="C400" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="D400" s="32"/>
-      <c r="E400" s="32">
+      <c r="D400" s="33"/>
+      <c r="E400" s="33">
         <v>15.0</v>
       </c>
-      <c r="F400" s="33">
+      <c r="F400" s="34">
         <v>0.6250350100272906</v>
       </c>
     </row>
@@ -17693,11 +18254,11 @@
       <c r="C401" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="D401" s="32"/>
-      <c r="E401" s="32">
+      <c r="D401" s="33"/>
+      <c r="E401" s="33">
         <v>3.0</v>
       </c>
-      <c r="F401" s="33">
+      <c r="F401" s="34">
         <v>0.5976104443252974</v>
       </c>
     </row>
@@ -17711,11 +18272,11 @@
       <c r="C402" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="D402" s="32"/>
-      <c r="E402" s="32">
+      <c r="D402" s="33"/>
+      <c r="E402" s="33">
         <v>3.0</v>
       </c>
-      <c r="F402" s="33">
+      <c r="F402" s="34">
         <v>0.9829977396478018</v>
       </c>
     </row>
@@ -17729,11 +18290,11 @@
       <c r="C403" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="D403" s="32"/>
-      <c r="E403" s="32">
+      <c r="D403" s="33"/>
+      <c r="E403" s="33">
         <v>9.0</v>
       </c>
-      <c r="F403" s="33">
+      <c r="F403" s="34">
         <v>1.080014218265807</v>
       </c>
     </row>
@@ -17747,11 +18308,11 @@
       <c r="C404" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="D404" s="32"/>
-      <c r="E404" s="32">
+      <c r="D404" s="33"/>
+      <c r="E404" s="33">
         <v>4.0</v>
       </c>
-      <c r="F404" s="33">
+      <c r="F404" s="34">
         <v>0.8859812610297966</v>
       </c>
     </row>
@@ -17765,11 +18326,11 @@
       <c r="C405" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="D405" s="32"/>
-      <c r="E405" s="32">
+      <c r="D405" s="33"/>
+      <c r="E405" s="33">
         <v>0.0</v>
       </c>
-      <c r="F405" s="33" t="s">
+      <c r="F405" s="34" t="s">
         <v>71</v>
       </c>
     </row>
@@ -17783,11 +18344,11 @@
       <c r="C406" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="D406" s="32"/>
-      <c r="E406" s="32">
-        <v>1.0</v>
-      </c>
-      <c r="F406" s="33">
+      <c r="D406" s="33"/>
+      <c r="E406" s="33">
+        <v>1.0</v>
+      </c>
+      <c r="F406" s="34">
         <v>0.9954406361848588</v>
       </c>
     </row>
@@ -17801,11 +18362,11 @@
       <c r="C407" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="D407" s="32"/>
-      <c r="E407" s="32">
+      <c r="D407" s="33"/>
+      <c r="E407" s="33">
         <v>4.0</v>
       </c>
-      <c r="F407" s="33">
+      <c r="F407" s="34">
         <v>1.1012202299459446</v>
       </c>
     </row>
@@ -17819,11 +18380,11 @@
       <c r="C408" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="D408" s="32"/>
-      <c r="E408" s="32">
+      <c r="D408" s="33"/>
+      <c r="E408" s="33">
         <v>2.0</v>
       </c>
-      <c r="F408" s="33">
+      <c r="F408" s="34">
         <v>1.0389478324547854</v>
       </c>
     </row>
@@ -17837,11 +18398,11 @@
       <c r="C409" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="D409" s="32"/>
-      <c r="E409" s="32">
+      <c r="D409" s="33"/>
+      <c r="E409" s="33">
         <v>2.0</v>
       </c>
-      <c r="F409" s="33">
+      <c r="F409" s="34">
         <v>0.8461538461538461</v>
       </c>
     </row>
@@ -17855,11 +18416,11 @@
       <c r="C410" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="D410" s="32"/>
-      <c r="E410" s="32">
+      <c r="D410" s="33"/>
+      <c r="E410" s="33">
         <v>9.0</v>
       </c>
-      <c r="F410" s="33">
+      <c r="F410" s="34">
         <v>0.7818745433612073</v>
       </c>
     </row>
@@ -17873,11 +18434,11 @@
       <c r="C411" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="D411" s="32"/>
-      <c r="E411" s="32">
+      <c r="D411" s="33"/>
+      <c r="E411" s="33">
         <v>12.0</v>
       </c>
-      <c r="F411" s="33">
+      <c r="F411" s="34">
         <v>1.0653356884720868</v>
       </c>
     </row>
@@ -17891,11 +18452,11 @@
       <c r="C412" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="D412" s="32"/>
-      <c r="E412" s="32">
+      <c r="D412" s="33"/>
+      <c r="E412" s="33">
         <v>9.0</v>
       </c>
-      <c r="F412" s="33">
+      <c r="F412" s="34">
         <v>0.7263825295049542</v>
       </c>
     </row>
@@ -17909,11 +18470,11 @@
       <c r="C413" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="D413" s="32"/>
-      <c r="E413" s="32">
+      <c r="D413" s="33"/>
+      <c r="E413" s="33">
         <v>7.0</v>
       </c>
-      <c r="F413" s="33">
+      <c r="F413" s="34">
         <v>0.5539054121065811</v>
       </c>
     </row>
@@ -17927,9 +18488,9 @@
       <c r="C414" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="D414" s="32"/>
-      <c r="E414" s="32"/>
-      <c r="F414" s="33">
+      <c r="D414" s="33"/>
+      <c r="E414" s="33"/>
+      <c r="F414" s="34">
         <v>0.8212312416020509</v>
       </c>
     </row>
@@ -17943,9 +18504,9 @@
       <c r="C415" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="D415" s="32"/>
-      <c r="E415" s="32"/>
-      <c r="F415" s="33">
+      <c r="D415" s="33"/>
+      <c r="E415" s="33"/>
+      <c r="F415" s="34">
         <v>1.085533506317743</v>
       </c>
     </row>
@@ -17959,9 +18520,9 @@
       <c r="C416" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="D416" s="32"/>
-      <c r="E416" s="32"/>
-      <c r="F416" s="33">
+      <c r="D416" s="33"/>
+      <c r="E416" s="33"/>
+      <c r="F416" s="34">
         <v>0.8445753940975467</v>
       </c>
     </row>
@@ -17975,9 +18536,9 @@
       <c r="C417" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="D417" s="32"/>
-      <c r="E417" s="32"/>
-      <c r="F417" s="33">
+      <c r="D417" s="33"/>
+      <c r="E417" s="33"/>
+      <c r="F417" s="34">
         <v>0.5335848243908631</v>
       </c>
     </row>
@@ -17991,9 +18552,9 @@
       <c r="C418" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="D418" s="32"/>
-      <c r="E418" s="32"/>
-      <c r="F418" s="32"/>
+      <c r="D418" s="33"/>
+      <c r="E418" s="33"/>
+      <c r="F418" s="33"/>
     </row>
     <row r="419" ht="15.75" customHeight="1">
       <c r="A419" s="26" t="s">
@@ -18002,12 +18563,12 @@
       <c r="B419" s="6" t="s">
         <v>78</v>
       </c>
-      <c r="C419" s="34" t="s">
+      <c r="C419" s="35" t="s">
         <v>79</v>
       </c>
-      <c r="D419" s="32"/>
-      <c r="E419" s="32"/>
-      <c r="F419" s="32">
+      <c r="D419" s="33"/>
+      <c r="E419" s="33"/>
+      <c r="F419" s="33">
         <v>0.99603</v>
       </c>
     </row>
@@ -18018,12 +18579,12 @@
       <c r="B420" s="6" t="s">
         <v>77</v>
       </c>
-      <c r="C420" s="34" t="s">
+      <c r="C420" s="35" t="s">
         <v>41</v>
       </c>
-      <c r="D420" s="32"/>
-      <c r="E420" s="32"/>
-      <c r="F420" s="32">
+      <c r="D420" s="33"/>
+      <c r="E420" s="33"/>
+      <c r="F420" s="33">
         <v>1.1464330413016268</v>
       </c>
     </row>
@@ -18034,12 +18595,12 @@
       <c r="B421" s="6" t="s">
         <v>80</v>
       </c>
-      <c r="C421" s="34" t="s">
+      <c r="C421" s="35" t="s">
         <v>43</v>
       </c>
-      <c r="D421" s="32"/>
-      <c r="E421" s="32"/>
-      <c r="F421" s="32">
+      <c r="D421" s="33"/>
+      <c r="E421" s="33"/>
+      <c r="F421" s="33">
         <v>1.2061855670103092</v>
       </c>
     </row>
@@ -18050,12 +18611,12 @@
       <c r="B422" s="6" t="s">
         <v>81</v>
       </c>
-      <c r="C422" s="34" t="s">
+      <c r="C422" s="35" t="s">
         <v>45</v>
       </c>
-      <c r="D422" s="32"/>
-      <c r="E422" s="32"/>
-      <c r="F422" s="32">
+      <c r="D422" s="33"/>
+      <c r="E422" s="33"/>
+      <c r="F422" s="33">
         <v>1.0518762146808192</v>
       </c>
     </row>
@@ -18066,12 +18627,12 @@
       <c r="B423" s="6" t="s">
         <v>82</v>
       </c>
-      <c r="C423" s="34" t="s">
+      <c r="C423" s="35" t="s">
         <v>72</v>
       </c>
-      <c r="D423" s="32"/>
-      <c r="E423" s="32"/>
-      <c r="F423" s="32">
+      <c r="D423" s="33"/>
+      <c r="E423" s="33"/>
+      <c r="F423" s="33">
         <v>0.35991183277857836</v>
       </c>
     </row>
@@ -18082,12 +18643,12 @@
       <c r="B424" s="6" t="s">
         <v>83</v>
       </c>
-      <c r="C424" s="34" t="s">
+      <c r="C424" s="35" t="s">
         <v>45</v>
       </c>
-      <c r="D424" s="32"/>
-      <c r="E424" s="32"/>
-      <c r="F424" s="32">
+      <c r="D424" s="33"/>
+      <c r="E424" s="33"/>
+      <c r="F424" s="33">
         <v>0.43636363636363634</v>
       </c>
     </row>
@@ -18098,12 +18659,12 @@
       <c r="B425" s="6" t="s">
         <v>84</v>
       </c>
-      <c r="C425" s="34" t="s">
+      <c r="C425" s="35" t="s">
         <v>58</v>
       </c>
-      <c r="D425" s="32"/>
-      <c r="E425" s="32"/>
-      <c r="F425" s="32">
+      <c r="D425" s="33"/>
+      <c r="E425" s="33"/>
+      <c r="F425" s="33">
         <v>0.9991496917533284</v>
       </c>
     </row>
@@ -18114,12 +18675,12 @@
       <c r="B426" s="6" t="s">
         <v>85</v>
       </c>
-      <c r="C426" s="34" t="s">
+      <c r="C426" s="35" t="s">
         <v>60</v>
       </c>
-      <c r="D426" s="32"/>
-      <c r="E426" s="32"/>
-      <c r="F426" s="32">
+      <c r="D426" s="33"/>
+      <c r="E426" s="33"/>
+      <c r="F426" s="33">
         <v>0.7641207985969296</v>
       </c>
     </row>
@@ -18130,12 +18691,12 @@
       <c r="B427" s="6" t="s">
         <v>86</v>
       </c>
-      <c r="C427" s="34" t="s">
+      <c r="C427" s="35" t="s">
         <v>87</v>
       </c>
-      <c r="D427" s="32"/>
-      <c r="E427" s="32"/>
-      <c r="F427" s="32">
+      <c r="D427" s="33"/>
+      <c r="E427" s="33"/>
+      <c r="F427" s="33">
         <v>0.7428571428571429</v>
       </c>
     </row>
@@ -18146,10 +18707,10 @@
       <c r="B428" s="6" t="s">
         <v>88</v>
       </c>
-      <c r="C428" s="34"/>
-      <c r="D428" s="32"/>
-      <c r="E428" s="32"/>
-      <c r="F428" s="32">
+      <c r="C428" s="35"/>
+      <c r="D428" s="33"/>
+      <c r="E428" s="33"/>
+      <c r="F428" s="33">
         <v>0.38</v>
       </c>
     </row>
@@ -18160,12 +18721,12 @@
       <c r="B429" s="6" t="s">
         <v>89</v>
       </c>
-      <c r="C429" s="34" t="s">
+      <c r="C429" s="35" t="s">
         <v>90</v>
       </c>
-      <c r="D429" s="32"/>
-      <c r="E429" s="32"/>
-      <c r="F429" s="32">
+      <c r="D429" s="33"/>
+      <c r="E429" s="33"/>
+      <c r="F429" s="33">
         <v>0.28</v>
       </c>
     </row>
@@ -18176,12 +18737,12 @@
       <c r="B430" s="6" t="s">
         <v>91</v>
       </c>
-      <c r="C430" s="34" t="s">
+      <c r="C430" s="35" t="s">
         <v>92</v>
       </c>
-      <c r="D430" s="32"/>
-      <c r="E430" s="32"/>
-      <c r="F430" s="32">
+      <c r="D430" s="33"/>
+      <c r="E430" s="33"/>
+      <c r="F430" s="33">
         <v>0.5836530191325479</v>
       </c>
     </row>
@@ -18192,12 +18753,12 @@
       <c r="B431" s="6" t="s">
         <v>78</v>
       </c>
-      <c r="C431" s="34" t="s">
+      <c r="C431" s="35" t="s">
         <v>79</v>
       </c>
-      <c r="D431" s="32"/>
-      <c r="E431" s="32"/>
-      <c r="F431" s="32">
+      <c r="D431" s="33"/>
+      <c r="E431" s="33"/>
+      <c r="F431" s="33">
         <v>0.9968</v>
       </c>
     </row>
@@ -18208,12 +18769,12 @@
       <c r="B432" s="6" t="s">
         <v>77</v>
       </c>
-      <c r="C432" s="34" t="s">
+      <c r="C432" s="35" t="s">
         <v>41</v>
       </c>
-      <c r="D432" s="32"/>
-      <c r="E432" s="32"/>
-      <c r="F432" s="32">
+      <c r="D432" s="33"/>
+      <c r="E432" s="33"/>
+      <c r="F432" s="33">
         <v>1.118601747815231</v>
       </c>
     </row>
@@ -18224,12 +18785,12 @@
       <c r="B433" s="6" t="s">
         <v>80</v>
       </c>
-      <c r="C433" s="34" t="s">
+      <c r="C433" s="35" t="s">
         <v>93</v>
       </c>
-      <c r="D433" s="32"/>
-      <c r="E433" s="32"/>
-      <c r="F433" s="32">
+      <c r="D433" s="33"/>
+      <c r="E433" s="33"/>
+      <c r="F433" s="33">
         <v>1.259090909090909</v>
       </c>
     </row>
@@ -18240,12 +18801,12 @@
       <c r="B434" s="6" t="s">
         <v>81</v>
       </c>
-      <c r="C434" s="34" t="s">
+      <c r="C434" s="35" t="s">
         <v>45</v>
       </c>
-      <c r="D434" s="32"/>
-      <c r="E434" s="32"/>
-      <c r="F434" s="32">
+      <c r="D434" s="33"/>
+      <c r="E434" s="33"/>
+      <c r="F434" s="33">
         <v>1.0256013434531355</v>
       </c>
     </row>
@@ -18256,12 +18817,12 @@
       <c r="B435" s="6" t="s">
         <v>82</v>
       </c>
-      <c r="C435" s="34" t="s">
+      <c r="C435" s="35" t="s">
         <v>72</v>
       </c>
-      <c r="D435" s="32"/>
-      <c r="E435" s="32"/>
-      <c r="F435" s="32">
+      <c r="D435" s="33"/>
+      <c r="E435" s="33"/>
+      <c r="F435" s="33">
         <v>0.9501807092532252</v>
       </c>
     </row>
@@ -18272,12 +18833,12 @@
       <c r="B436" s="6" t="s">
         <v>83</v>
       </c>
-      <c r="C436" s="34" t="s">
+      <c r="C436" s="35" t="s">
         <v>45</v>
       </c>
-      <c r="D436" s="32"/>
-      <c r="E436" s="32"/>
-      <c r="F436" s="32">
+      <c r="D436" s="33"/>
+      <c r="E436" s="33"/>
+      <c r="F436" s="33">
         <v>0.47826086956521746</v>
       </c>
     </row>
@@ -18288,12 +18849,12 @@
       <c r="B437" s="6" t="s">
         <v>84</v>
       </c>
-      <c r="C437" s="34" t="s">
+      <c r="C437" s="35" t="s">
         <v>94</v>
       </c>
-      <c r="D437" s="32"/>
-      <c r="E437" s="32"/>
-      <c r="F437" s="32">
+      <c r="D437" s="33"/>
+      <c r="E437" s="33"/>
+      <c r="F437" s="33">
         <v>0.9835459474372367</v>
       </c>
     </row>
@@ -18304,12 +18865,12 @@
       <c r="B438" s="6" t="s">
         <v>85</v>
       </c>
-      <c r="C438" s="34" t="s">
+      <c r="C438" s="35" t="s">
         <v>60</v>
       </c>
-      <c r="D438" s="32"/>
-      <c r="E438" s="32"/>
-      <c r="F438" s="32">
+      <c r="D438" s="33"/>
+      <c r="E438" s="33"/>
+      <c r="F438" s="33">
         <v>0.6527088641544858</v>
       </c>
     </row>
@@ -18320,12 +18881,12 @@
       <c r="B439" s="6" t="s">
         <v>86</v>
       </c>
-      <c r="C439" s="34" t="s">
+      <c r="C439" s="35" t="s">
         <v>87</v>
       </c>
-      <c r="D439" s="32"/>
-      <c r="E439" s="32"/>
-      <c r="F439" s="32">
+      <c r="D439" s="33"/>
+      <c r="E439" s="33"/>
+      <c r="F439" s="33">
         <v>0.84375</v>
       </c>
     </row>
@@ -18336,10 +18897,10 @@
       <c r="B440" s="6" t="s">
         <v>88</v>
       </c>
-      <c r="C440" s="34"/>
-      <c r="D440" s="32"/>
-      <c r="E440" s="32"/>
-      <c r="F440" s="32">
+      <c r="C440" s="35"/>
+      <c r="D440" s="33"/>
+      <c r="E440" s="33"/>
+      <c r="F440" s="33">
         <v>0.3157894736842105</v>
       </c>
     </row>
@@ -18350,12 +18911,12 @@
       <c r="B441" s="6" t="s">
         <v>89</v>
       </c>
-      <c r="C441" s="34" t="s">
+      <c r="C441" s="35" t="s">
         <v>90</v>
       </c>
-      <c r="D441" s="32"/>
-      <c r="E441" s="32"/>
-      <c r="F441" s="32">
+      <c r="D441" s="33"/>
+      <c r="E441" s="33"/>
+      <c r="F441" s="33">
         <v>0.5</v>
       </c>
     </row>
@@ -18366,12 +18927,12 @@
       <c r="B442" s="6" t="s">
         <v>91</v>
       </c>
-      <c r="C442" s="34" t="s">
+      <c r="C442" s="35" t="s">
         <v>92</v>
       </c>
-      <c r="D442" s="32"/>
-      <c r="E442" s="32"/>
-      <c r="F442" s="32">
+      <c r="D442" s="33"/>
+      <c r="E442" s="33"/>
+      <c r="F442" s="33">
         <v>0.9435951570720934</v>
       </c>
     </row>
@@ -18382,12 +18943,12 @@
       <c r="B443" s="6" t="s">
         <v>78</v>
       </c>
-      <c r="C443" s="34" t="s">
+      <c r="C443" s="35" t="s">
         <v>79</v>
       </c>
-      <c r="D443" s="32"/>
-      <c r="E443" s="32"/>
-      <c r="F443" s="32">
+      <c r="D443" s="33"/>
+      <c r="E443" s="33"/>
+      <c r="F443" s="33">
         <v>0.99942</v>
       </c>
     </row>
@@ -18398,12 +18959,12 @@
       <c r="B444" s="6" t="s">
         <v>77</v>
       </c>
-      <c r="C444" s="34" t="s">
+      <c r="C444" s="35" t="s">
         <v>41</v>
       </c>
-      <c r="D444" s="32"/>
-      <c r="E444" s="32"/>
-      <c r="F444" s="32">
+      <c r="D444" s="33"/>
+      <c r="E444" s="33"/>
+      <c r="F444" s="33">
         <v>1.2109375</v>
       </c>
     </row>
@@ -18414,12 +18975,12 @@
       <c r="B445" s="6" t="s">
         <v>80</v>
       </c>
-      <c r="C445" s="34" t="s">
+      <c r="C445" s="35" t="s">
         <v>95</v>
       </c>
-      <c r="D445" s="32"/>
-      <c r="E445" s="32"/>
-      <c r="F445" s="32" t="s">
+      <c r="D445" s="33"/>
+      <c r="E445" s="33"/>
+      <c r="F445" s="33" t="s">
         <v>71</v>
       </c>
     </row>
@@ -18430,12 +18991,12 @@
       <c r="B446" s="6" t="s">
         <v>81</v>
       </c>
-      <c r="C446" s="34" t="s">
+      <c r="C446" s="35" t="s">
         <v>45</v>
       </c>
-      <c r="D446" s="32"/>
-      <c r="E446" s="32"/>
-      <c r="F446" s="32">
+      <c r="D446" s="33"/>
+      <c r="E446" s="33"/>
+      <c r="F446" s="33">
         <v>1.0959497166527632</v>
       </c>
     </row>
@@ -18446,12 +19007,12 @@
       <c r="B447" s="6" t="s">
         <v>82</v>
       </c>
-      <c r="C447" s="34" t="s">
+      <c r="C447" s="35" t="s">
         <v>72</v>
       </c>
-      <c r="D447" s="32"/>
-      <c r="E447" s="32"/>
-      <c r="F447" s="32">
+      <c r="D447" s="33"/>
+      <c r="E447" s="33"/>
+      <c r="F447" s="33">
         <v>0.8797406201162749</v>
       </c>
     </row>
@@ -18462,12 +19023,12 @@
       <c r="B448" s="6" t="s">
         <v>83</v>
       </c>
-      <c r="C448" s="34" t="s">
+      <c r="C448" s="35" t="s">
         <v>45</v>
       </c>
-      <c r="D448" s="32"/>
-      <c r="E448" s="32"/>
-      <c r="F448" s="32">
+      <c r="D448" s="33"/>
+      <c r="E448" s="33"/>
+      <c r="F448" s="33">
         <v>0.9090909090909092</v>
       </c>
     </row>
@@ -18478,12 +19039,12 @@
       <c r="B449" s="6" t="s">
         <v>84</v>
       </c>
-      <c r="C449" s="34" t="s">
+      <c r="C449" s="35" t="s">
         <v>96</v>
       </c>
-      <c r="D449" s="32"/>
-      <c r="E449" s="32"/>
-      <c r="F449" s="32" t="s">
+      <c r="D449" s="33"/>
+      <c r="E449" s="33"/>
+      <c r="F449" s="33" t="s">
         <v>71</v>
       </c>
     </row>
@@ -18494,12 +19055,12 @@
       <c r="B450" s="6" t="s">
         <v>85</v>
       </c>
-      <c r="C450" s="34" t="s">
+      <c r="C450" s="35" t="s">
         <v>60</v>
       </c>
-      <c r="D450" s="32"/>
-      <c r="E450" s="32"/>
-      <c r="F450" s="32">
+      <c r="D450" s="33"/>
+      <c r="E450" s="33"/>
+      <c r="F450" s="33">
         <v>1.0135563791779358</v>
       </c>
     </row>
@@ -18510,12 +19071,12 @@
       <c r="B451" s="6" t="s">
         <v>86</v>
       </c>
-      <c r="C451" s="34" t="s">
+      <c r="C451" s="35" t="s">
         <v>87</v>
       </c>
-      <c r="D451" s="32"/>
-      <c r="E451" s="32"/>
-      <c r="F451" s="32">
+      <c r="D451" s="33"/>
+      <c r="E451" s="33"/>
+      <c r="F451" s="33">
         <v>1.010204081632653</v>
       </c>
     </row>
@@ -18526,10 +19087,10 @@
       <c r="B452" s="6" t="s">
         <v>88</v>
       </c>
-      <c r="C452" s="34"/>
-      <c r="D452" s="32"/>
-      <c r="E452" s="32"/>
-      <c r="F452" s="32" t="s">
+      <c r="C452" s="35"/>
+      <c r="D452" s="33"/>
+      <c r="E452" s="33"/>
+      <c r="F452" s="33" t="s">
         <v>71</v>
       </c>
     </row>
@@ -18540,12 +19101,12 @@
       <c r="B453" s="6" t="s">
         <v>89</v>
       </c>
-      <c r="C453" s="34" t="s">
+      <c r="C453" s="35" t="s">
         <v>90</v>
       </c>
-      <c r="D453" s="32"/>
-      <c r="E453" s="32"/>
-      <c r="F453" s="32">
+      <c r="D453" s="33"/>
+      <c r="E453" s="33"/>
+      <c r="F453" s="33">
         <v>0.8923076923076924</v>
       </c>
     </row>
@@ -18556,12 +19117,12 @@
       <c r="B454" s="6" t="s">
         <v>91</v>
       </c>
-      <c r="C454" s="34" t="s">
+      <c r="C454" s="35" t="s">
         <v>92</v>
       </c>
-      <c r="D454" s="32"/>
-      <c r="E454" s="32"/>
-      <c r="F454" s="32" t="s">
+      <c r="D454" s="33"/>
+      <c r="E454" s="33"/>
+      <c r="F454" s="33" t="s">
         <v>71</v>
       </c>
     </row>
@@ -18572,12 +19133,12 @@
       <c r="B455" s="6" t="s">
         <v>78</v>
       </c>
-      <c r="C455" s="34" t="s">
+      <c r="C455" s="35" t="s">
         <v>79</v>
       </c>
-      <c r="D455" s="32"/>
-      <c r="E455" s="32"/>
-      <c r="F455" s="32">
+      <c r="D455" s="33"/>
+      <c r="E455" s="33"/>
+      <c r="F455" s="33">
         <v>0.99383</v>
       </c>
     </row>
@@ -18588,12 +19149,12 @@
       <c r="B456" s="6" t="s">
         <v>77</v>
       </c>
-      <c r="C456" s="34" t="s">
+      <c r="C456" s="35" t="s">
         <v>41</v>
       </c>
-      <c r="D456" s="32"/>
-      <c r="E456" s="32"/>
-      <c r="F456" s="32">
+      <c r="D456" s="33"/>
+      <c r="E456" s="33"/>
+      <c r="F456" s="33">
         <v>1.2263610315186246</v>
       </c>
     </row>
@@ -18604,12 +19165,12 @@
       <c r="B457" s="6" t="s">
         <v>80</v>
       </c>
-      <c r="C457" s="34" t="s">
+      <c r="C457" s="35" t="s">
         <v>97</v>
       </c>
-      <c r="D457" s="32"/>
-      <c r="E457" s="32"/>
-      <c r="F457" s="32" t="s">
+      <c r="D457" s="33"/>
+      <c r="E457" s="33"/>
+      <c r="F457" s="33" t="s">
         <v>71</v>
       </c>
     </row>
@@ -18620,12 +19181,12 @@
       <c r="B458" s="6" t="s">
         <v>81</v>
       </c>
-      <c r="C458" s="34" t="s">
+      <c r="C458" s="35" t="s">
         <v>45</v>
       </c>
-      <c r="D458" s="32"/>
-      <c r="E458" s="32"/>
-      <c r="F458" s="32">
+      <c r="D458" s="33"/>
+      <c r="E458" s="33"/>
+      <c r="F458" s="33">
         <v>1.0446344954322972</v>
       </c>
     </row>
@@ -18636,12 +19197,12 @@
       <c r="B459" s="6" t="s">
         <v>82</v>
       </c>
-      <c r="C459" s="34" t="s">
+      <c r="C459" s="35" t="s">
         <v>72</v>
       </c>
-      <c r="D459" s="32"/>
-      <c r="E459" s="32"/>
-      <c r="F459" s="32">
+      <c r="D459" s="33"/>
+      <c r="E459" s="33"/>
+      <c r="F459" s="33">
         <v>0.19436829921854126</v>
       </c>
     </row>
@@ -18652,12 +19213,12 @@
       <c r="B460" s="6" t="s">
         <v>83</v>
       </c>
-      <c r="C460" s="34" t="s">
+      <c r="C460" s="35" t="s">
         <v>45</v>
       </c>
-      <c r="D460" s="32"/>
-      <c r="E460" s="32"/>
-      <c r="F460" s="32">
+      <c r="D460" s="33"/>
+      <c r="E460" s="33"/>
+      <c r="F460" s="33">
         <v>0.65625</v>
       </c>
     </row>
@@ -18668,12 +19229,12 @@
       <c r="B461" s="6" t="s">
         <v>84</v>
       </c>
-      <c r="C461" s="34" t="s">
+      <c r="C461" s="35" t="s">
         <v>98</v>
       </c>
-      <c r="D461" s="32"/>
-      <c r="E461" s="32"/>
-      <c r="F461" s="32">
+      <c r="D461" s="33"/>
+      <c r="E461" s="33"/>
+      <c r="F461" s="33">
         <v>0.9900619571021142</v>
       </c>
     </row>
@@ -18684,12 +19245,12 @@
       <c r="B462" s="6" t="s">
         <v>85</v>
       </c>
-      <c r="C462" s="34" t="s">
+      <c r="C462" s="35" t="s">
         <v>60</v>
       </c>
-      <c r="D462" s="32"/>
-      <c r="E462" s="32"/>
-      <c r="F462" s="32">
+      <c r="D462" s="33"/>
+      <c r="E462" s="33"/>
+      <c r="F462" s="33">
         <v>0.6237887937087488</v>
       </c>
     </row>
@@ -18700,12 +19261,12 @@
       <c r="B463" s="6" t="s">
         <v>86</v>
       </c>
-      <c r="C463" s="34" t="s">
+      <c r="C463" s="35" t="s">
         <v>87</v>
       </c>
-      <c r="D463" s="32"/>
-      <c r="E463" s="32"/>
-      <c r="F463" s="32">
+      <c r="D463" s="33"/>
+      <c r="E463" s="33"/>
+      <c r="F463" s="33">
         <v>0.8172043010752689</v>
       </c>
     </row>
@@ -18716,10 +19277,10 @@
       <c r="B464" s="6" t="s">
         <v>88</v>
       </c>
-      <c r="C464" s="34"/>
-      <c r="D464" s="32"/>
-      <c r="E464" s="32"/>
-      <c r="F464" s="32">
+      <c r="C464" s="35"/>
+      <c r="D464" s="33"/>
+      <c r="E464" s="33"/>
+      <c r="F464" s="33">
         <v>0.2853470437017995</v>
       </c>
     </row>
@@ -18730,12 +19291,12 @@
       <c r="B465" s="6" t="s">
         <v>89</v>
       </c>
-      <c r="C465" s="34" t="s">
+      <c r="C465" s="35" t="s">
         <v>90</v>
       </c>
-      <c r="D465" s="32"/>
-      <c r="E465" s="32"/>
-      <c r="F465" s="32">
+      <c r="D465" s="33"/>
+      <c r="E465" s="33"/>
+      <c r="F465" s="33">
         <v>0.5</v>
       </c>
     </row>
@@ -18746,12 +19307,12 @@
       <c r="B466" s="6" t="s">
         <v>91</v>
       </c>
-      <c r="C466" s="34" t="s">
+      <c r="C466" s="35" t="s">
         <v>92</v>
       </c>
-      <c r="D466" s="32"/>
-      <c r="E466" s="32"/>
-      <c r="F466" s="32">
+      <c r="D466" s="33"/>
+      <c r="E466" s="33"/>
+      <c r="F466" s="33">
         <v>0.5731575475366095</v>
       </c>
     </row>
@@ -18762,12 +19323,12 @@
       <c r="B467" s="6" t="s">
         <v>78</v>
       </c>
-      <c r="C467" s="34" t="s">
+      <c r="C467" s="35" t="s">
         <v>79</v>
       </c>
-      <c r="D467" s="32"/>
-      <c r="E467" s="32"/>
-      <c r="F467" s="32">
+      <c r="D467" s="33"/>
+      <c r="E467" s="33"/>
+      <c r="F467" s="33">
         <v>0.99692</v>
       </c>
     </row>
@@ -18778,12 +19339,12 @@
       <c r="B468" s="6" t="s">
         <v>77</v>
       </c>
-      <c r="C468" s="34" t="s">
+      <c r="C468" s="35" t="s">
         <v>41</v>
       </c>
-      <c r="D468" s="32"/>
-      <c r="E468" s="32"/>
-      <c r="F468" s="32">
+      <c r="D468" s="33"/>
+      <c r="E468" s="33"/>
+      <c r="F468" s="33">
         <v>1.23</v>
       </c>
     </row>
@@ -18794,12 +19355,12 @@
       <c r="B469" s="6" t="s">
         <v>80</v>
       </c>
-      <c r="C469" s="34" t="s">
+      <c r="C469" s="35" t="s">
         <v>99</v>
       </c>
-      <c r="D469" s="32"/>
-      <c r="E469" s="32"/>
-      <c r="F469" s="32" t="s">
+      <c r="D469" s="33"/>
+      <c r="E469" s="33"/>
+      <c r="F469" s="33" t="s">
         <v>71</v>
       </c>
     </row>
@@ -18810,12 +19371,12 @@
       <c r="B470" s="6" t="s">
         <v>81</v>
       </c>
-      <c r="C470" s="34" t="s">
+      <c r="C470" s="35" t="s">
         <v>45</v>
       </c>
-      <c r="D470" s="32"/>
-      <c r="E470" s="32"/>
-      <c r="F470" s="32">
+      <c r="D470" s="33"/>
+      <c r="E470" s="33"/>
+      <c r="F470" s="33">
         <v>1.0347033703227446</v>
       </c>
     </row>
@@ -18826,12 +19387,12 @@
       <c r="B471" s="6" t="s">
         <v>82</v>
       </c>
-      <c r="C471" s="34" t="s">
+      <c r="C471" s="35" t="s">
         <v>72</v>
       </c>
-      <c r="D471" s="32"/>
-      <c r="E471" s="32"/>
-      <c r="F471" s="32">
+      <c r="D471" s="33"/>
+      <c r="E471" s="33"/>
+      <c r="F471" s="33">
         <v>2.9115634151879948</v>
       </c>
     </row>
@@ -18842,12 +19403,12 @@
       <c r="B472" s="6" t="s">
         <v>83</v>
       </c>
-      <c r="C472" s="34" t="s">
+      <c r="C472" s="35" t="s">
         <v>45</v>
       </c>
-      <c r="D472" s="32"/>
-      <c r="E472" s="32"/>
-      <c r="F472" s="32">
+      <c r="D472" s="33"/>
+      <c r="E472" s="33"/>
+      <c r="F472" s="33">
         <v>0.8148148148148148</v>
       </c>
     </row>
@@ -18858,12 +19419,12 @@
       <c r="B473" s="6" t="s">
         <v>84</v>
       </c>
-      <c r="C473" s="34" t="s">
+      <c r="C473" s="35" t="s">
         <v>100</v>
       </c>
-      <c r="D473" s="32"/>
-      <c r="E473" s="32"/>
-      <c r="F473" s="32">
+      <c r="D473" s="33"/>
+      <c r="E473" s="33"/>
+      <c r="F473" s="33">
         <v>0.9926004605947838</v>
       </c>
     </row>
@@ -18874,12 +19435,12 @@
       <c r="B474" s="6" t="s">
         <v>85</v>
       </c>
-      <c r="C474" s="34" t="s">
+      <c r="C474" s="35" t="s">
         <v>60</v>
       </c>
-      <c r="D474" s="32"/>
-      <c r="E474" s="32"/>
-      <c r="F474" s="32">
+      <c r="D474" s="33"/>
+      <c r="E474" s="33"/>
+      <c r="F474" s="33">
         <v>0.9134240020148596</v>
       </c>
     </row>
@@ -18890,12 +19451,12 @@
       <c r="B475" s="6" t="s">
         <v>86</v>
       </c>
-      <c r="C475" s="34" t="s">
+      <c r="C475" s="35" t="s">
         <v>87</v>
       </c>
-      <c r="D475" s="32"/>
-      <c r="E475" s="32"/>
-      <c r="F475" s="32">
+      <c r="D475" s="33"/>
+      <c r="E475" s="33"/>
+      <c r="F475" s="33">
         <v>0.989247311827957</v>
       </c>
     </row>
@@ -18906,10 +19467,10 @@
       <c r="B476" s="6" t="s">
         <v>88</v>
       </c>
-      <c r="C476" s="34"/>
-      <c r="D476" s="32"/>
-      <c r="E476" s="32"/>
-      <c r="F476" s="32">
+      <c r="C476" s="35"/>
+      <c r="D476" s="33"/>
+      <c r="E476" s="33"/>
+      <c r="F476" s="33">
         <v>0.3623978201634877</v>
       </c>
     </row>
@@ -18920,12 +19481,12 @@
       <c r="B477" s="6" t="s">
         <v>89</v>
       </c>
-      <c r="C477" s="34" t="s">
+      <c r="C477" s="35" t="s">
         <v>90</v>
       </c>
-      <c r="D477" s="32"/>
-      <c r="E477" s="32"/>
-      <c r="F477" s="32">
+      <c r="D477" s="33"/>
+      <c r="E477" s="33"/>
+      <c r="F477" s="33">
         <v>0.5757575757575758</v>
       </c>
     </row>
@@ -18936,12 +19497,12 @@
       <c r="B478" s="6" t="s">
         <v>91</v>
       </c>
-      <c r="C478" s="34" t="s">
+      <c r="C478" s="35" t="s">
         <v>92</v>
       </c>
-      <c r="D478" s="32"/>
-      <c r="E478" s="32"/>
-      <c r="F478" s="32">
+      <c r="D478" s="33"/>
+      <c r="E478" s="33"/>
+      <c r="F478" s="33">
         <v>0.7521270957954381</v>
       </c>
     </row>
@@ -18952,12 +19513,12 @@
       <c r="B479" s="6" t="s">
         <v>78</v>
       </c>
-      <c r="C479" s="34" t="s">
+      <c r="C479" s="35" t="s">
         <v>79</v>
       </c>
-      <c r="D479" s="32"/>
-      <c r="E479" s="32"/>
-      <c r="F479" s="32">
+      <c r="D479" s="33"/>
+      <c r="E479" s="33"/>
+      <c r="F479" s="33">
         <v>0.99424</v>
       </c>
     </row>
@@ -18968,12 +19529,12 @@
       <c r="B480" s="6" t="s">
         <v>77</v>
       </c>
-      <c r="C480" s="34" t="s">
+      <c r="C480" s="35" t="s">
         <v>41</v>
       </c>
-      <c r="D480" s="32"/>
-      <c r="E480" s="32"/>
-      <c r="F480" s="32">
+      <c r="D480" s="33"/>
+      <c r="E480" s="33"/>
+      <c r="F480" s="33">
         <v>1.1342281879194631</v>
       </c>
     </row>
@@ -18984,12 +19545,12 @@
       <c r="B481" s="6" t="s">
         <v>80</v>
       </c>
-      <c r="C481" s="34" t="s">
+      <c r="C481" s="35" t="s">
         <v>101</v>
       </c>
-      <c r="D481" s="32"/>
-      <c r="E481" s="32"/>
-      <c r="F481" s="32">
+      <c r="D481" s="33"/>
+      <c r="E481" s="33"/>
+      <c r="F481" s="33">
         <v>1.261194029850746</v>
       </c>
     </row>
@@ -19000,12 +19561,12 @@
       <c r="B482" s="6" t="s">
         <v>81</v>
       </c>
-      <c r="C482" s="34" t="s">
+      <c r="C482" s="35" t="s">
         <v>45</v>
       </c>
-      <c r="D482" s="32"/>
-      <c r="E482" s="32"/>
-      <c r="F482" s="32">
+      <c r="D482" s="33"/>
+      <c r="E482" s="33"/>
+      <c r="F482" s="33">
         <v>1.0207378194067867</v>
       </c>
     </row>
@@ -19016,12 +19577,12 @@
       <c r="B483" s="6" t="s">
         <v>82</v>
       </c>
-      <c r="C483" s="34" t="s">
+      <c r="C483" s="35" t="s">
         <v>72</v>
       </c>
-      <c r="D483" s="32"/>
-      <c r="E483" s="32"/>
-      <c r="F483" s="32" t="s">
+      <c r="D483" s="33"/>
+      <c r="E483" s="33"/>
+      <c r="F483" s="33" t="s">
         <v>71</v>
       </c>
     </row>
@@ -19032,12 +19593,12 @@
       <c r="B484" s="6" t="s">
         <v>83</v>
       </c>
-      <c r="C484" s="34" t="s">
+      <c r="C484" s="35" t="s">
         <v>45</v>
       </c>
-      <c r="D484" s="32"/>
-      <c r="E484" s="32"/>
-      <c r="F484" s="32">
+      <c r="D484" s="33"/>
+      <c r="E484" s="33"/>
+      <c r="F484" s="33">
         <v>0.35714285714285715</v>
       </c>
     </row>
@@ -19048,12 +19609,12 @@
       <c r="B485" s="6" t="s">
         <v>84</v>
       </c>
-      <c r="C485" s="34" t="s">
+      <c r="C485" s="35" t="s">
         <v>102</v>
       </c>
-      <c r="D485" s="32"/>
-      <c r="E485" s="32"/>
-      <c r="F485" s="32">
+      <c r="D485" s="33"/>
+      <c r="E485" s="33"/>
+      <c r="F485" s="33">
         <v>0.9531915005763977</v>
       </c>
     </row>
@@ -19064,12 +19625,12 @@
       <c r="B486" s="6" t="s">
         <v>85</v>
       </c>
-      <c r="C486" s="34" t="s">
+      <c r="C486" s="35" t="s">
         <v>60</v>
       </c>
-      <c r="D486" s="32"/>
-      <c r="E486" s="32"/>
-      <c r="F486" s="32">
+      <c r="D486" s="33"/>
+      <c r="E486" s="33"/>
+      <c r="F486" s="33">
         <v>0.5755199681041929</v>
       </c>
     </row>
@@ -19080,12 +19641,12 @@
       <c r="B487" s="6" t="s">
         <v>86</v>
       </c>
-      <c r="C487" s="34" t="s">
+      <c r="C487" s="35" t="s">
         <v>87</v>
       </c>
-      <c r="D487" s="32"/>
-      <c r="E487" s="32"/>
-      <c r="F487" s="32">
+      <c r="D487" s="33"/>
+      <c r="E487" s="33"/>
+      <c r="F487" s="33">
         <v>0.6142857142857143</v>
       </c>
     </row>
@@ -19096,10 +19657,10 @@
       <c r="B488" s="6" t="s">
         <v>88</v>
       </c>
-      <c r="C488" s="34"/>
-      <c r="D488" s="32"/>
-      <c r="E488" s="32"/>
-      <c r="F488" s="32">
+      <c r="C488" s="35"/>
+      <c r="D488" s="33"/>
+      <c r="E488" s="33"/>
+      <c r="F488" s="33">
         <v>0.39</v>
       </c>
     </row>
@@ -19110,12 +19671,12 @@
       <c r="B489" s="6" t="s">
         <v>89</v>
       </c>
-      <c r="C489" s="34" t="s">
+      <c r="C489" s="35" t="s">
         <v>90</v>
       </c>
-      <c r="D489" s="32"/>
-      <c r="E489" s="32"/>
-      <c r="F489" s="32">
+      <c r="D489" s="33"/>
+      <c r="E489" s="33"/>
+      <c r="F489" s="33">
         <v>0.6666666666666666</v>
       </c>
     </row>
@@ -19126,12 +19687,12 @@
       <c r="B490" s="6" t="s">
         <v>91</v>
       </c>
-      <c r="C490" s="34" t="s">
+      <c r="C490" s="35" t="s">
         <v>92</v>
       </c>
-      <c r="D490" s="32"/>
-      <c r="E490" s="32"/>
-      <c r="F490" s="32">
+      <c r="D490" s="33"/>
+      <c r="E490" s="33"/>
+      <c r="F490" s="33">
         <v>0.7361646663092255</v>
       </c>
     </row>
@@ -19142,12 +19703,12 @@
       <c r="B491" s="6" t="s">
         <v>78</v>
       </c>
-      <c r="C491" s="34" t="s">
+      <c r="C491" s="35" t="s">
         <v>79</v>
       </c>
-      <c r="D491" s="32"/>
-      <c r="E491" s="32"/>
-      <c r="F491" s="32">
+      <c r="D491" s="33"/>
+      <c r="E491" s="33"/>
+      <c r="F491" s="33">
         <v>0.99333</v>
       </c>
     </row>
@@ -19158,12 +19719,12 @@
       <c r="B492" s="6" t="s">
         <v>77</v>
       </c>
-      <c r="C492" s="34" t="s">
+      <c r="C492" s="35" t="s">
         <v>41</v>
       </c>
-      <c r="D492" s="32"/>
-      <c r="E492" s="32"/>
-      <c r="F492" s="32">
+      <c r="D492" s="33"/>
+      <c r="E492" s="33"/>
+      <c r="F492" s="33">
         <v>1.177304964539007</v>
       </c>
     </row>
@@ -19174,12 +19735,12 @@
       <c r="B493" s="6" t="s">
         <v>80</v>
       </c>
-      <c r="C493" s="34" t="s">
+      <c r="C493" s="35" t="s">
         <v>103</v>
       </c>
-      <c r="D493" s="32"/>
-      <c r="E493" s="32"/>
-      <c r="F493" s="32" t="s">
+      <c r="D493" s="33"/>
+      <c r="E493" s="33"/>
+      <c r="F493" s="33" t="s">
         <v>71</v>
       </c>
     </row>
@@ -19190,12 +19751,12 @@
       <c r="B494" s="6" t="s">
         <v>81</v>
       </c>
-      <c r="C494" s="34" t="s">
+      <c r="C494" s="35" t="s">
         <v>45</v>
       </c>
-      <c r="D494" s="32"/>
-      <c r="E494" s="32"/>
-      <c r="F494" s="32">
+      <c r="D494" s="33"/>
+      <c r="E494" s="33"/>
+      <c r="F494" s="33">
         <v>1.069407690258414</v>
       </c>
     </row>
@@ -19206,12 +19767,12 @@
       <c r="B495" s="6" t="s">
         <v>82</v>
       </c>
-      <c r="C495" s="34" t="s">
+      <c r="C495" s="35" t="s">
         <v>72</v>
       </c>
-      <c r="D495" s="32"/>
-      <c r="E495" s="32"/>
-      <c r="F495" s="32">
+      <c r="D495" s="33"/>
+      <c r="E495" s="33"/>
+      <c r="F495" s="33">
         <v>1.0934066873226584</v>
       </c>
     </row>
@@ -19222,12 +19783,12 @@
       <c r="B496" s="6" t="s">
         <v>83</v>
       </c>
-      <c r="C496" s="34" t="s">
+      <c r="C496" s="35" t="s">
         <v>45</v>
       </c>
-      <c r="D496" s="32"/>
-      <c r="E496" s="32"/>
-      <c r="F496" s="32">
+      <c r="D496" s="33"/>
+      <c r="E496" s="33"/>
+      <c r="F496" s="33">
         <v>0.8955399061032864</v>
       </c>
     </row>
@@ -19238,12 +19799,12 @@
       <c r="B497" s="6" t="s">
         <v>84</v>
       </c>
-      <c r="C497" s="34" t="s">
+      <c r="C497" s="35" t="s">
         <v>104</v>
       </c>
-      <c r="D497" s="32"/>
-      <c r="E497" s="32"/>
-      <c r="F497" s="32" t="s">
+      <c r="D497" s="33"/>
+      <c r="E497" s="33"/>
+      <c r="F497" s="33" t="s">
         <v>71</v>
       </c>
     </row>
@@ -19254,12 +19815,12 @@
       <c r="B498" s="6" t="s">
         <v>85</v>
       </c>
-      <c r="C498" s="34" t="s">
+      <c r="C498" s="35" t="s">
         <v>60</v>
       </c>
-      <c r="D498" s="32"/>
-      <c r="E498" s="32"/>
-      <c r="F498" s="32">
+      <c r="D498" s="33"/>
+      <c r="E498" s="33"/>
+      <c r="F498" s="33">
         <v>0.668997189663445</v>
       </c>
     </row>
@@ -19270,12 +19831,12 @@
       <c r="B499" s="6" t="s">
         <v>86</v>
       </c>
-      <c r="C499" s="34" t="s">
+      <c r="C499" s="35" t="s">
         <v>87</v>
       </c>
-      <c r="D499" s="32"/>
-      <c r="E499" s="32"/>
-      <c r="F499" s="32" t="s">
+      <c r="D499" s="33"/>
+      <c r="E499" s="33"/>
+      <c r="F499" s="33" t="s">
         <v>71</v>
       </c>
     </row>
@@ -19286,10 +19847,10 @@
       <c r="B500" s="6" t="s">
         <v>88</v>
       </c>
-      <c r="C500" s="34"/>
-      <c r="D500" s="32"/>
-      <c r="E500" s="32"/>
-      <c r="F500" s="32" t="s">
+      <c r="C500" s="35"/>
+      <c r="D500" s="33"/>
+      <c r="E500" s="33"/>
+      <c r="F500" s="33" t="s">
         <v>71</v>
       </c>
     </row>
@@ -19300,234 +19861,234 @@
       <c r="B501" s="6" t="s">
         <v>89</v>
       </c>
-      <c r="C501" s="34" t="s">
+      <c r="C501" s="35" t="s">
         <v>90</v>
       </c>
-      <c r="D501" s="32"/>
-      <c r="E501" s="32"/>
-      <c r="F501" s="32" t="s">
+      <c r="D501" s="33"/>
+      <c r="E501" s="33"/>
+      <c r="F501" s="33" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="502" ht="15.75" customHeight="1">
-      <c r="A502" s="31" t="s">
+      <c r="A502" s="32" t="s">
         <v>32</v>
       </c>
       <c r="B502" s="6" t="s">
         <v>91</v>
       </c>
-      <c r="C502" s="34" t="s">
+      <c r="C502" s="35" t="s">
         <v>92</v>
       </c>
-      <c r="D502" s="32"/>
-      <c r="E502" s="32"/>
-      <c r="F502" s="32" t="s">
+      <c r="D502" s="33"/>
+      <c r="E502" s="33"/>
+      <c r="F502" s="33" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="503" ht="15.75" customHeight="1">
-      <c r="A503" s="31" t="s">
+      <c r="A503" s="32" t="s">
         <v>21</v>
       </c>
       <c r="B503" s="6" t="s">
         <v>78</v>
       </c>
-      <c r="C503" s="34" t="s">
+      <c r="C503" s="35" t="s">
         <v>79</v>
       </c>
-      <c r="D503" s="32"/>
-      <c r="E503" s="32"/>
-      <c r="F503" s="32">
+      <c r="D503" s="33"/>
+      <c r="E503" s="33"/>
+      <c r="F503" s="33">
         <v>0.99339</v>
       </c>
     </row>
     <row r="504" ht="15.75" customHeight="1">
-      <c r="A504" s="31" t="s">
+      <c r="A504" s="32" t="s">
         <v>21</v>
       </c>
       <c r="B504" s="6" t="s">
         <v>77</v>
       </c>
-      <c r="C504" s="34" t="s">
+      <c r="C504" s="35" t="s">
         <v>41</v>
       </c>
-      <c r="D504" s="32"/>
-      <c r="E504" s="32"/>
-      <c r="F504" s="32">
+      <c r="D504" s="33"/>
+      <c r="E504" s="33"/>
+      <c r="F504" s="33">
         <v>1.1664355062413314</v>
       </c>
     </row>
     <row r="505" ht="15.75" customHeight="1">
-      <c r="A505" s="31" t="s">
+      <c r="A505" s="32" t="s">
         <v>21</v>
       </c>
       <c r="B505" s="6" t="s">
         <v>80</v>
       </c>
-      <c r="C505" s="34" t="s">
+      <c r="C505" s="35" t="s">
         <v>105</v>
       </c>
-      <c r="D505" s="32"/>
-      <c r="E505" s="32"/>
-      <c r="F505" s="32" t="s">
+      <c r="D505" s="33"/>
+      <c r="E505" s="33"/>
+      <c r="F505" s="33" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="506" ht="15.75" customHeight="1">
-      <c r="A506" s="31" t="s">
+      <c r="A506" s="32" t="s">
         <v>21</v>
       </c>
       <c r="B506" s="6" t="s">
         <v>81</v>
       </c>
-      <c r="C506" s="34" t="s">
+      <c r="C506" s="35" t="s">
         <v>45</v>
       </c>
-      <c r="D506" s="32"/>
-      <c r="E506" s="32"/>
-      <c r="F506" s="32">
+      <c r="D506" s="33"/>
+      <c r="E506" s="33"/>
+      <c r="F506" s="33">
         <v>1.044359403651439</v>
       </c>
     </row>
     <row r="507" ht="15.75" customHeight="1">
-      <c r="A507" s="31" t="s">
+      <c r="A507" s="32" t="s">
         <v>21</v>
       </c>
       <c r="B507" s="6" t="s">
         <v>82</v>
       </c>
-      <c r="C507" s="34" t="s">
+      <c r="C507" s="35" t="s">
         <v>72</v>
       </c>
-      <c r="D507" s="32"/>
-      <c r="E507" s="32"/>
-      <c r="F507" s="32" t="s">
+      <c r="D507" s="33"/>
+      <c r="E507" s="33"/>
+      <c r="F507" s="33" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="508" ht="15.75" customHeight="1">
-      <c r="A508" s="31" t="s">
+      <c r="A508" s="32" t="s">
         <v>21</v>
       </c>
       <c r="B508" s="6" t="s">
         <v>83</v>
       </c>
-      <c r="C508" s="34" t="s">
+      <c r="C508" s="35" t="s">
         <v>45</v>
       </c>
-      <c r="D508" s="32"/>
-      <c r="E508" s="32"/>
-      <c r="F508" s="32">
+      <c r="D508" s="33"/>
+      <c r="E508" s="33"/>
+      <c r="F508" s="33">
         <v>0.564516129032258</v>
       </c>
     </row>
     <row r="509" ht="15.75" customHeight="1">
-      <c r="A509" s="31" t="s">
+      <c r="A509" s="32" t="s">
         <v>21</v>
       </c>
       <c r="B509" s="6" t="s">
         <v>84</v>
       </c>
-      <c r="C509" s="34" t="s">
+      <c r="C509" s="35" t="s">
         <v>106</v>
       </c>
-      <c r="D509" s="32"/>
-      <c r="E509" s="32"/>
-      <c r="F509" s="32">
+      <c r="D509" s="33"/>
+      <c r="E509" s="33"/>
+      <c r="F509" s="33">
         <v>0.9769268783200421</v>
       </c>
     </row>
     <row r="510" ht="15.75" customHeight="1">
-      <c r="A510" s="31" t="s">
+      <c r="A510" s="32" t="s">
         <v>21</v>
       </c>
       <c r="B510" s="6" t="s">
         <v>85</v>
       </c>
-      <c r="C510" s="34" t="s">
+      <c r="C510" s="35" t="s">
         <v>60</v>
       </c>
-      <c r="D510" s="32"/>
-      <c r="E510" s="32"/>
-      <c r="F510" s="32">
+      <c r="D510" s="33"/>
+      <c r="E510" s="33"/>
+      <c r="F510" s="33">
         <v>0.638202704076446</v>
       </c>
     </row>
     <row r="511" ht="15.75" customHeight="1">
-      <c r="A511" s="31" t="s">
+      <c r="A511" s="32" t="s">
         <v>21</v>
       </c>
       <c r="B511" s="6" t="s">
         <v>86</v>
       </c>
-      <c r="C511" s="34" t="s">
+      <c r="C511" s="35" t="s">
         <v>87</v>
       </c>
-      <c r="D511" s="32"/>
-      <c r="E511" s="32"/>
-      <c r="F511" s="32">
+      <c r="D511" s="33"/>
+      <c r="E511" s="33"/>
+      <c r="F511" s="33">
         <v>0.7076923076923077</v>
       </c>
     </row>
     <row r="512" ht="15.75" customHeight="1">
-      <c r="A512" s="31" t="s">
+      <c r="A512" s="32" t="s">
         <v>21</v>
       </c>
       <c r="B512" s="6" t="s">
         <v>88</v>
       </c>
-      <c r="C512" s="34"/>
-      <c r="D512" s="32"/>
-      <c r="E512" s="32"/>
-      <c r="F512" s="32">
+      <c r="C512" s="35"/>
+      <c r="D512" s="33"/>
+      <c r="E512" s="33"/>
+      <c r="F512" s="33">
         <v>0.2771392081736909</v>
       </c>
     </row>
     <row r="513" ht="15.75" customHeight="1">
-      <c r="A513" s="31" t="s">
+      <c r="A513" s="32" t="s">
         <v>21</v>
       </c>
       <c r="B513" s="6" t="s">
         <v>89</v>
       </c>
-      <c r="C513" s="34" t="s">
+      <c r="C513" s="35" t="s">
         <v>90</v>
       </c>
-      <c r="D513" s="32"/>
-      <c r="E513" s="32"/>
-      <c r="F513" s="32">
+      <c r="D513" s="33"/>
+      <c r="E513" s="33"/>
+      <c r="F513" s="33">
         <v>0.6571428571428571</v>
       </c>
     </row>
     <row r="514" ht="15.75" customHeight="1">
-      <c r="A514" s="31" t="s">
+      <c r="A514" s="32" t="s">
         <v>21</v>
       </c>
       <c r="B514" s="6" t="s">
         <v>91</v>
       </c>
-      <c r="C514" s="34" t="s">
+      <c r="C514" s="35" t="s">
         <v>92</v>
       </c>
-      <c r="D514" s="32"/>
-      <c r="E514" s="32"/>
-      <c r="F514" s="32">
+      <c r="D514" s="33"/>
+      <c r="E514" s="33"/>
+      <c r="F514" s="33">
         <v>0.6342689376402294</v>
       </c>
     </row>
     <row r="515" ht="15.75" customHeight="1">
-      <c r="A515" s="31" t="s">
+      <c r="A515" s="32" t="s">
         <v>23</v>
       </c>
       <c r="B515" s="6" t="s">
         <v>78</v>
       </c>
-      <c r="C515" s="34" t="s">
+      <c r="C515" s="35" t="s">
         <v>79</v>
       </c>
-      <c r="D515" s="32"/>
-      <c r="E515" s="32"/>
-      <c r="F515" s="32">
+      <c r="D515" s="33"/>
+      <c r="E515" s="33"/>
+      <c r="F515" s="33">
         <v>0.99438</v>
       </c>
     </row>
@@ -19538,12 +20099,12 @@
       <c r="B516" s="6" t="s">
         <v>77</v>
       </c>
-      <c r="C516" s="34" t="s">
+      <c r="C516" s="35" t="s">
         <v>41</v>
       </c>
-      <c r="D516" s="32"/>
-      <c r="E516" s="32"/>
-      <c r="F516" s="32">
+      <c r="D516" s="33"/>
+      <c r="E516" s="33"/>
+      <c r="F516" s="33">
         <v>1.1276346604215455</v>
       </c>
     </row>
@@ -19554,12 +20115,12 @@
       <c r="B517" s="6" t="s">
         <v>80</v>
       </c>
-      <c r="C517" s="34" t="s">
+      <c r="C517" s="35" t="s">
         <v>107</v>
       </c>
-      <c r="D517" s="32"/>
-      <c r="E517" s="32"/>
-      <c r="F517" s="32">
+      <c r="D517" s="33"/>
+      <c r="E517" s="33"/>
+      <c r="F517" s="33">
         <v>1.0894941634241246</v>
       </c>
     </row>
@@ -19570,12 +20131,12 @@
       <c r="B518" s="6" t="s">
         <v>81</v>
       </c>
-      <c r="C518" s="34" t="s">
+      <c r="C518" s="35" t="s">
         <v>45</v>
       </c>
-      <c r="D518" s="32"/>
-      <c r="E518" s="32"/>
-      <c r="F518" s="32">
+      <c r="D518" s="33"/>
+      <c r="E518" s="33"/>
+      <c r="F518" s="33">
         <v>1.0265851116540519</v>
       </c>
     </row>
@@ -19586,12 +20147,12 @@
       <c r="B519" s="6" t="s">
         <v>82</v>
       </c>
-      <c r="C519" s="34" t="s">
+      <c r="C519" s="35" t="s">
         <v>72</v>
       </c>
-      <c r="D519" s="32"/>
-      <c r="E519" s="32"/>
-      <c r="F519" s="32">
+      <c r="D519" s="33"/>
+      <c r="E519" s="33"/>
+      <c r="F519" s="33">
         <v>0.8583322091071129</v>
       </c>
     </row>
@@ -19602,12 +20163,12 @@
       <c r="B520" s="6" t="s">
         <v>83</v>
       </c>
-      <c r="C520" s="34" t="s">
+      <c r="C520" s="35" t="s">
         <v>45</v>
       </c>
-      <c r="D520" s="32"/>
-      <c r="E520" s="32"/>
-      <c r="F520" s="32">
+      <c r="D520" s="33"/>
+      <c r="E520" s="33"/>
+      <c r="F520" s="33">
         <v>0.5666666666666667</v>
       </c>
     </row>
@@ -19618,12 +20179,12 @@
       <c r="B521" s="6" t="s">
         <v>84</v>
       </c>
-      <c r="C521" s="34" t="s">
+      <c r="C521" s="35" t="s">
         <v>108</v>
       </c>
-      <c r="D521" s="32"/>
-      <c r="E521" s="32"/>
-      <c r="F521" s="32">
+      <c r="D521" s="33"/>
+      <c r="E521" s="33"/>
+      <c r="F521" s="33">
         <v>1.0003970276748557</v>
       </c>
     </row>
@@ -19634,12 +20195,12 @@
       <c r="B522" s="6" t="s">
         <v>85</v>
       </c>
-      <c r="C522" s="34" t="s">
+      <c r="C522" s="35" t="s">
         <v>60</v>
       </c>
-      <c r="D522" s="32"/>
-      <c r="E522" s="32"/>
-      <c r="F522" s="32">
+      <c r="D522" s="33"/>
+      <c r="E522" s="33"/>
+      <c r="F522" s="33">
         <v>0.4473090049881859</v>
       </c>
     </row>
@@ -19650,12 +20211,12 @@
       <c r="B523" s="6" t="s">
         <v>86</v>
       </c>
-      <c r="C523" s="34" t="s">
+      <c r="C523" s="35" t="s">
         <v>87</v>
       </c>
-      <c r="D523" s="32"/>
-      <c r="E523" s="32"/>
-      <c r="F523" s="32">
+      <c r="D523" s="33"/>
+      <c r="E523" s="33"/>
+      <c r="F523" s="33">
         <v>0.6909090909090909</v>
       </c>
     </row>
@@ -19666,10 +20227,10 @@
       <c r="B524" s="6" t="s">
         <v>88</v>
       </c>
-      <c r="C524" s="34"/>
-      <c r="D524" s="32"/>
-      <c r="E524" s="32"/>
-      <c r="F524" s="32">
+      <c r="C524" s="35"/>
+      <c r="D524" s="33"/>
+      <c r="E524" s="33"/>
+      <c r="F524" s="33">
         <v>0.22</v>
       </c>
     </row>
@@ -19680,12 +20241,12 @@
       <c r="B525" s="6" t="s">
         <v>89</v>
       </c>
-      <c r="C525" s="34" t="s">
+      <c r="C525" s="35" t="s">
         <v>90</v>
       </c>
-      <c r="D525" s="32"/>
-      <c r="E525" s="32"/>
-      <c r="F525" s="32">
+      <c r="D525" s="33"/>
+      <c r="E525" s="33"/>
+      <c r="F525" s="33">
         <v>0.29411764705882354</v>
       </c>
     </row>
@@ -19696,12 +20257,12 @@
       <c r="B526" s="6" t="s">
         <v>91</v>
       </c>
-      <c r="C526" s="34" t="s">
+      <c r="C526" s="35" t="s">
         <v>92</v>
       </c>
-      <c r="D526" s="32"/>
-      <c r="E526" s="32"/>
-      <c r="F526" s="32">
+      <c r="D526" s="33"/>
+      <c r="E526" s="33"/>
+      <c r="F526" s="33">
         <v>0.45007382303823207</v>
       </c>
     </row>
@@ -19712,12 +20273,12 @@
       <c r="B527" s="6" t="s">
         <v>78</v>
       </c>
-      <c r="C527" s="34" t="s">
+      <c r="C527" s="35" t="s">
         <v>79</v>
       </c>
-      <c r="D527" s="32"/>
-      <c r="E527" s="32"/>
-      <c r="F527" s="32">
+      <c r="D527" s="33"/>
+      <c r="E527" s="33"/>
+      <c r="F527" s="33">
         <v>0.99491</v>
       </c>
     </row>
@@ -19728,12 +20289,12 @@
       <c r="B528" s="6" t="s">
         <v>77</v>
       </c>
-      <c r="C528" s="34" t="s">
+      <c r="C528" s="35" t="s">
         <v>41</v>
       </c>
-      <c r="D528" s="32"/>
-      <c r="E528" s="32"/>
-      <c r="F528" s="32">
+      <c r="D528" s="33"/>
+      <c r="E528" s="33"/>
+      <c r="F528" s="33">
         <v>1.1047619047619048</v>
       </c>
     </row>
@@ -19744,12 +20305,12 @@
       <c r="B529" s="6" t="s">
         <v>80</v>
       </c>
-      <c r="C529" s="34" t="s">
+      <c r="C529" s="35" t="s">
         <v>109</v>
       </c>
-      <c r="D529" s="32"/>
-      <c r="E529" s="32"/>
-      <c r="F529" s="32">
+      <c r="D529" s="33"/>
+      <c r="E529" s="33"/>
+      <c r="F529" s="33">
         <v>1.086021505376344</v>
       </c>
     </row>
@@ -19760,12 +20321,12 @@
       <c r="B530" s="6" t="s">
         <v>81</v>
       </c>
-      <c r="C530" s="34" t="s">
+      <c r="C530" s="35" t="s">
         <v>45</v>
       </c>
-      <c r="D530" s="32"/>
-      <c r="E530" s="32"/>
-      <c r="F530" s="32">
+      <c r="D530" s="33"/>
+      <c r="E530" s="33"/>
+      <c r="F530" s="33">
         <v>1.0381847554707007</v>
       </c>
     </row>
@@ -19776,12 +20337,12 @@
       <c r="B531" s="6" t="s">
         <v>82</v>
       </c>
-      <c r="C531" s="34" t="s">
+      <c r="C531" s="35" t="s">
         <v>72</v>
       </c>
-      <c r="D531" s="32"/>
-      <c r="E531" s="32"/>
-      <c r="F531" s="32">
+      <c r="D531" s="33"/>
+      <c r="E531" s="33"/>
+      <c r="F531" s="33">
         <v>0.8299329840688611</v>
       </c>
     </row>
@@ -19792,12 +20353,12 @@
       <c r="B532" s="6" t="s">
         <v>83</v>
       </c>
-      <c r="C532" s="34" t="s">
+      <c r="C532" s="35" t="s">
         <v>45</v>
       </c>
-      <c r="D532" s="32"/>
-      <c r="E532" s="32"/>
-      <c r="F532" s="32">
+      <c r="D532" s="33"/>
+      <c r="E532" s="33"/>
+      <c r="F532" s="33">
         <v>0.5</v>
       </c>
     </row>
@@ -19808,12 +20369,12 @@
       <c r="B533" s="6" t="s">
         <v>84</v>
       </c>
-      <c r="C533" s="34" t="s">
+      <c r="C533" s="35" t="s">
         <v>110</v>
       </c>
-      <c r="D533" s="32"/>
-      <c r="E533" s="32"/>
-      <c r="F533" s="32">
+      <c r="D533" s="33"/>
+      <c r="E533" s="33"/>
+      <c r="F533" s="33">
         <v>0.9837141804887773</v>
       </c>
     </row>
@@ -19824,12 +20385,12 @@
       <c r="B534" s="6" t="s">
         <v>85</v>
       </c>
-      <c r="C534" s="34" t="s">
+      <c r="C534" s="35" t="s">
         <v>60</v>
       </c>
-      <c r="D534" s="32"/>
-      <c r="E534" s="32"/>
-      <c r="F534" s="32">
+      <c r="D534" s="33"/>
+      <c r="E534" s="33"/>
+      <c r="F534" s="33">
         <v>0.4100442884599314</v>
       </c>
     </row>
@@ -19840,12 +20401,12 @@
       <c r="B535" s="6" t="s">
         <v>86</v>
       </c>
-      <c r="C535" s="34" t="s">
+      <c r="C535" s="35" t="s">
         <v>87</v>
       </c>
-      <c r="D535" s="32"/>
-      <c r="E535" s="32"/>
-      <c r="F535" s="32">
+      <c r="D535" s="33"/>
+      <c r="E535" s="33"/>
+      <c r="F535" s="33">
         <v>0.7058823529411765</v>
       </c>
     </row>
@@ -19856,10 +20417,10 @@
       <c r="B536" s="6" t="s">
         <v>88</v>
       </c>
-      <c r="C536" s="34"/>
-      <c r="D536" s="32"/>
-      <c r="E536" s="32"/>
-      <c r="F536" s="32">
+      <c r="C536" s="35"/>
+      <c r="D536" s="33"/>
+      <c r="E536" s="33"/>
+      <c r="F536" s="33">
         <v>0.2755102040816326</v>
       </c>
     </row>
@@ -19870,12 +20431,12 @@
       <c r="B537" s="6" t="s">
         <v>89</v>
       </c>
-      <c r="C537" s="34" t="s">
+      <c r="C537" s="35" t="s">
         <v>90</v>
       </c>
-      <c r="D537" s="32"/>
-      <c r="E537" s="32"/>
-      <c r="F537" s="32">
+      <c r="D537" s="33"/>
+      <c r="E537" s="33"/>
+      <c r="F537" s="33">
         <v>0.4166666666666667</v>
       </c>
     </row>
@@ -19886,12 +20447,12 @@
       <c r="B538" s="6" t="s">
         <v>91</v>
       </c>
-      <c r="C538" s="34" t="s">
+      <c r="C538" s="35" t="s">
         <v>92</v>
       </c>
-      <c r="D538" s="32"/>
-      <c r="E538" s="32"/>
-      <c r="F538" s="32">
+      <c r="D538" s="33"/>
+      <c r="E538" s="33"/>
+      <c r="F538" s="33">
         <v>0.8109957622057594</v>
       </c>
     </row>
@@ -19902,12 +20463,12 @@
       <c r="B539" s="6" t="s">
         <v>78</v>
       </c>
-      <c r="C539" s="34" t="s">
+      <c r="C539" s="35" t="s">
         <v>79</v>
       </c>
-      <c r="D539" s="32"/>
-      <c r="E539" s="32"/>
-      <c r="F539" s="32">
+      <c r="D539" s="33"/>
+      <c r="E539" s="33"/>
+      <c r="F539" s="33">
         <v>0.99083</v>
       </c>
     </row>
@@ -19918,12 +20479,12 @@
       <c r="B540" s="6" t="s">
         <v>77</v>
       </c>
-      <c r="C540" s="34" t="s">
+      <c r="C540" s="35" t="s">
         <v>41</v>
       </c>
-      <c r="D540" s="32"/>
-      <c r="E540" s="32"/>
-      <c r="F540" s="32">
+      <c r="D540" s="33"/>
+      <c r="E540" s="33"/>
+      <c r="F540" s="33">
         <v>1.119291705498602</v>
       </c>
     </row>
@@ -19934,12 +20495,12 @@
       <c r="B541" s="6" t="s">
         <v>80</v>
       </c>
-      <c r="C541" s="34" t="s">
+      <c r="C541" s="35" t="s">
         <v>111</v>
       </c>
-      <c r="D541" s="32"/>
-      <c r="E541" s="32"/>
-      <c r="F541" s="32">
+      <c r="D541" s="33"/>
+      <c r="E541" s="33"/>
+      <c r="F541" s="33">
         <v>1.1554252199413488</v>
       </c>
     </row>
@@ -19950,12 +20511,12 @@
       <c r="B542" s="6" t="s">
         <v>81</v>
       </c>
-      <c r="C542" s="34" t="s">
+      <c r="C542" s="35" t="s">
         <v>45</v>
       </c>
-      <c r="D542" s="32"/>
-      <c r="E542" s="32"/>
-      <c r="F542" s="32">
+      <c r="D542" s="33"/>
+      <c r="E542" s="33"/>
+      <c r="F542" s="33">
         <v>1.0340218260239082</v>
       </c>
     </row>
@@ -19966,12 +20527,12 @@
       <c r="B543" s="6" t="s">
         <v>82</v>
       </c>
-      <c r="C543" s="34" t="s">
+      <c r="C543" s="35" t="s">
         <v>72</v>
       </c>
-      <c r="D543" s="32"/>
-      <c r="E543" s="32"/>
-      <c r="F543" s="32">
+      <c r="D543" s="33"/>
+      <c r="E543" s="33"/>
+      <c r="F543" s="33">
         <v>0.9300699310026644</v>
       </c>
     </row>
@@ -19982,12 +20543,12 @@
       <c r="B544" s="6" t="s">
         <v>83</v>
       </c>
-      <c r="C544" s="34" t="s">
+      <c r="C544" s="35" t="s">
         <v>45</v>
       </c>
-      <c r="D544" s="32"/>
-      <c r="E544" s="32"/>
-      <c r="F544" s="32">
+      <c r="D544" s="33"/>
+      <c r="E544" s="33"/>
+      <c r="F544" s="33">
         <v>0.7402597402597403</v>
       </c>
     </row>
@@ -19998,12 +20559,12 @@
       <c r="B545" s="6" t="s">
         <v>84</v>
       </c>
-      <c r="C545" s="34" t="s">
+      <c r="C545" s="35" t="s">
         <v>112</v>
       </c>
-      <c r="D545" s="32"/>
-      <c r="E545" s="32"/>
-      <c r="F545" s="32">
+      <c r="D545" s="33"/>
+      <c r="E545" s="33"/>
+      <c r="F545" s="33">
         <v>0.9963067530363215</v>
       </c>
     </row>
@@ -20014,12 +20575,12 @@
       <c r="B546" s="6" t="s">
         <v>85</v>
       </c>
-      <c r="C546" s="34" t="s">
+      <c r="C546" s="35" t="s">
         <v>60</v>
       </c>
-      <c r="D546" s="32"/>
-      <c r="E546" s="32"/>
-      <c r="F546" s="32">
+      <c r="D546" s="33"/>
+      <c r="E546" s="33"/>
+      <c r="F546" s="33">
         <v>0.7770961849950029</v>
       </c>
     </row>
@@ -20030,12 +20591,12 @@
       <c r="B547" s="6" t="s">
         <v>86</v>
       </c>
-      <c r="C547" s="34" t="s">
+      <c r="C547" s="35" t="s">
         <v>87</v>
       </c>
-      <c r="D547" s="32"/>
-      <c r="E547" s="32"/>
-      <c r="F547" s="32">
+      <c r="D547" s="33"/>
+      <c r="E547" s="33"/>
+      <c r="F547" s="33">
         <v>0.8292682926829268</v>
       </c>
     </row>
@@ -20046,10 +20607,10 @@
       <c r="B548" s="6" t="s">
         <v>88</v>
       </c>
-      <c r="C548" s="34"/>
-      <c r="D548" s="32"/>
-      <c r="E548" s="32"/>
-      <c r="F548" s="32">
+      <c r="C548" s="35"/>
+      <c r="D548" s="33"/>
+      <c r="E548" s="33"/>
+      <c r="F548" s="33">
         <v>0.4577259475218659</v>
       </c>
     </row>
@@ -20060,12 +20621,12 @@
       <c r="B549" s="6" t="s">
         <v>89</v>
       </c>
-      <c r="C549" s="34" t="s">
+      <c r="C549" s="35" t="s">
         <v>90</v>
       </c>
-      <c r="D549" s="32"/>
-      <c r="E549" s="32"/>
-      <c r="F549" s="32">
+      <c r="D549" s="33"/>
+      <c r="E549" s="33"/>
+      <c r="F549" s="33">
         <v>0.7441860465116279</v>
       </c>
     </row>
@@ -20076,12 +20637,12 @@
       <c r="B550" s="6" t="s">
         <v>91</v>
       </c>
-      <c r="C550" s="34" t="s">
+      <c r="C550" s="35" t="s">
         <v>92</v>
       </c>
-      <c r="D550" s="32"/>
-      <c r="E550" s="32"/>
-      <c r="F550" s="32">
+      <c r="D550" s="33"/>
+      <c r="E550" s="33"/>
+      <c r="F550" s="33">
         <v>0.49090649747067855</v>
       </c>
     </row>
@@ -20092,12 +20653,12 @@
       <c r="B551" s="6" t="s">
         <v>78</v>
       </c>
-      <c r="C551" s="34" t="s">
+      <c r="C551" s="35" t="s">
         <v>79</v>
       </c>
-      <c r="D551" s="32"/>
-      <c r="E551" s="32"/>
-      <c r="F551" s="32">
+      <c r="D551" s="33"/>
+      <c r="E551" s="33"/>
+      <c r="F551" s="33">
         <v>0.99685</v>
       </c>
     </row>
@@ -20108,12 +20669,12 @@
       <c r="B552" s="6" t="s">
         <v>77</v>
       </c>
-      <c r="C552" s="34" t="s">
+      <c r="C552" s="35" t="s">
         <v>41</v>
       </c>
-      <c r="D552" s="32"/>
-      <c r="E552" s="32"/>
-      <c r="F552" s="32">
+      <c r="D552" s="33"/>
+      <c r="E552" s="33"/>
+      <c r="F552" s="33">
         <v>1.222222222222222</v>
       </c>
     </row>
@@ -20124,12 +20685,12 @@
       <c r="B553" s="6" t="s">
         <v>80</v>
       </c>
-      <c r="C553" s="34" t="s">
+      <c r="C553" s="35" t="s">
         <v>113</v>
       </c>
-      <c r="D553" s="32"/>
-      <c r="E553" s="32"/>
-      <c r="F553" s="32">
+      <c r="D553" s="33"/>
+      <c r="E553" s="33"/>
+      <c r="F553" s="33">
         <v>1.3647798742138364</v>
       </c>
     </row>
@@ -20140,12 +20701,12 @@
       <c r="B554" s="6" t="s">
         <v>81</v>
       </c>
-      <c r="C554" s="34" t="s">
+      <c r="C554" s="35" t="s">
         <v>45</v>
       </c>
-      <c r="D554" s="32"/>
-      <c r="E554" s="32"/>
-      <c r="F554" s="32">
+      <c r="D554" s="33"/>
+      <c r="E554" s="33"/>
+      <c r="F554" s="33">
         <v>1.0632784342351385</v>
       </c>
     </row>
@@ -20156,12 +20717,12 @@
       <c r="B555" s="6" t="s">
         <v>82</v>
       </c>
-      <c r="C555" s="34" t="s">
+      <c r="C555" s="35" t="s">
         <v>72</v>
       </c>
-      <c r="D555" s="32"/>
-      <c r="E555" s="32"/>
-      <c r="F555" s="32">
+      <c r="D555" s="33"/>
+      <c r="E555" s="33"/>
+      <c r="F555" s="33">
         <v>1.4486850332953232</v>
       </c>
     </row>
@@ -20172,12 +20733,12 @@
       <c r="B556" s="6" t="s">
         <v>83</v>
       </c>
-      <c r="C556" s="34" t="s">
+      <c r="C556" s="35" t="s">
         <v>45</v>
       </c>
-      <c r="D556" s="32"/>
-      <c r="E556" s="32"/>
-      <c r="F556" s="32">
+      <c r="D556" s="33"/>
+      <c r="E556" s="33"/>
+      <c r="F556" s="33">
         <v>0.41304347826086957</v>
       </c>
     </row>
@@ -20188,12 +20749,12 @@
       <c r="B557" s="6" t="s">
         <v>84</v>
       </c>
-      <c r="C557" s="34" t="s">
+      <c r="C557" s="35" t="s">
         <v>114</v>
       </c>
-      <c r="D557" s="32"/>
-      <c r="E557" s="32"/>
-      <c r="F557" s="32">
+      <c r="D557" s="33"/>
+      <c r="E557" s="33"/>
+      <c r="F557" s="33">
         <v>0.978449590016199</v>
       </c>
     </row>
@@ -20204,12 +20765,12 @@
       <c r="B558" s="6" t="s">
         <v>85</v>
       </c>
-      <c r="C558" s="34" t="s">
+      <c r="C558" s="35" t="s">
         <v>60</v>
       </c>
-      <c r="D558" s="32"/>
-      <c r="E558" s="32"/>
-      <c r="F558" s="32">
+      <c r="D558" s="33"/>
+      <c r="E558" s="33"/>
+      <c r="F558" s="33">
         <v>0.5225111541754923</v>
       </c>
     </row>
@@ -20220,12 +20781,12 @@
       <c r="B559" s="6" t="s">
         <v>86</v>
       </c>
-      <c r="C559" s="34" t="s">
+      <c r="C559" s="35" t="s">
         <v>87</v>
       </c>
-      <c r="D559" s="32"/>
-      <c r="E559" s="32"/>
-      <c r="F559" s="32">
+      <c r="D559" s="33"/>
+      <c r="E559" s="33"/>
+      <c r="F559" s="33">
         <v>0.8421052631578947</v>
       </c>
     </row>
@@ -20236,10 +20797,10 @@
       <c r="B560" s="6" t="s">
         <v>88</v>
       </c>
-      <c r="C560" s="34"/>
-      <c r="D560" s="32"/>
-      <c r="E560" s="32"/>
-      <c r="F560" s="32">
+      <c r="C560" s="35"/>
+      <c r="D560" s="33"/>
+      <c r="E560" s="33"/>
+      <c r="F560" s="33">
         <v>0.26582278481012656</v>
       </c>
     </row>
@@ -20250,12 +20811,12 @@
       <c r="B561" s="6" t="s">
         <v>89</v>
       </c>
-      <c r="C561" s="34" t="s">
+      <c r="C561" s="35" t="s">
         <v>90</v>
       </c>
-      <c r="D561" s="32"/>
-      <c r="E561" s="32"/>
-      <c r="F561" s="32">
+      <c r="D561" s="33"/>
+      <c r="E561" s="33"/>
+      <c r="F561" s="33">
         <v>0.7073170731707317</v>
       </c>
     </row>
@@ -20266,12 +20827,12 @@
       <c r="B562" s="6" t="s">
         <v>91</v>
       </c>
-      <c r="C562" s="34" t="s">
+      <c r="C562" s="35" t="s">
         <v>92</v>
       </c>
-      <c r="D562" s="32"/>
-      <c r="E562" s="32"/>
-      <c r="F562" s="32">
+      <c r="D562" s="33"/>
+      <c r="E562" s="33"/>
+      <c r="F562" s="33">
         <v>0.4653847529708707</v>
       </c>
     </row>
@@ -20282,12 +20843,12 @@
       <c r="B563" s="6" t="s">
         <v>78</v>
       </c>
-      <c r="C563" s="34" t="s">
+      <c r="C563" s="35" t="s">
         <v>79</v>
       </c>
-      <c r="D563" s="32"/>
-      <c r="E563" s="32"/>
-      <c r="F563" s="32">
+      <c r="D563" s="33"/>
+      <c r="E563" s="33"/>
+      <c r="F563" s="33">
         <v>0.9888</v>
       </c>
     </row>
@@ -20298,12 +20859,12 @@
       <c r="B564" s="6" t="s">
         <v>77</v>
       </c>
-      <c r="C564" s="34" t="s">
+      <c r="C564" s="35" t="s">
         <v>41</v>
       </c>
-      <c r="D564" s="32"/>
-      <c r="E564" s="32"/>
-      <c r="F564" s="32">
+      <c r="D564" s="33"/>
+      <c r="E564" s="33"/>
+      <c r="F564" s="33">
         <v>1.1357779980178393</v>
       </c>
     </row>
@@ -20314,12 +20875,12 @@
       <c r="B565" s="6" t="s">
         <v>80</v>
       </c>
-      <c r="C565" s="34" t="s">
+      <c r="C565" s="35" t="s">
         <v>115</v>
       </c>
-      <c r="D565" s="32"/>
-      <c r="E565" s="32"/>
-      <c r="F565" s="32" t="s">
+      <c r="D565" s="33"/>
+      <c r="E565" s="33"/>
+      <c r="F565" s="33" t="s">
         <v>71</v>
       </c>
     </row>
@@ -20330,12 +20891,12 @@
       <c r="B566" s="6" t="s">
         <v>81</v>
       </c>
-      <c r="C566" s="34" t="s">
+      <c r="C566" s="35" t="s">
         <v>45</v>
       </c>
-      <c r="D566" s="32"/>
-      <c r="E566" s="32"/>
-      <c r="F566" s="32">
+      <c r="D566" s="33"/>
+      <c r="E566" s="33"/>
+      <c r="F566" s="33">
         <v>1.03049040907656</v>
       </c>
     </row>
@@ -20346,12 +20907,12 @@
       <c r="B567" s="6" t="s">
         <v>82</v>
       </c>
-      <c r="C567" s="34" t="s">
+      <c r="C567" s="35" t="s">
         <v>72</v>
       </c>
-      <c r="D567" s="32"/>
-      <c r="E567" s="32"/>
-      <c r="F567" s="32" t="s">
+      <c r="D567" s="33"/>
+      <c r="E567" s="33"/>
+      <c r="F567" s="33" t="s">
         <v>71</v>
       </c>
     </row>
@@ -20362,12 +20923,12 @@
       <c r="B568" s="6" t="s">
         <v>83</v>
       </c>
-      <c r="C568" s="34" t="s">
+      <c r="C568" s="35" t="s">
         <v>45</v>
       </c>
-      <c r="D568" s="32"/>
-      <c r="E568" s="32"/>
-      <c r="F568" s="32">
+      <c r="D568" s="33"/>
+      <c r="E568" s="33"/>
+      <c r="F568" s="33">
         <v>0.6444444444444444</v>
       </c>
     </row>
@@ -20378,12 +20939,12 @@
       <c r="B569" s="6" t="s">
         <v>84</v>
       </c>
-      <c r="C569" s="34" t="s">
+      <c r="C569" s="35" t="s">
         <v>116</v>
       </c>
-      <c r="D569" s="32"/>
-      <c r="E569" s="32"/>
-      <c r="F569" s="32">
+      <c r="D569" s="33"/>
+      <c r="E569" s="33"/>
+      <c r="F569" s="33">
         <v>0.9877253053887418</v>
       </c>
     </row>
@@ -20394,12 +20955,12 @@
       <c r="B570" s="6" t="s">
         <v>85</v>
       </c>
-      <c r="C570" s="34" t="s">
+      <c r="C570" s="35" t="s">
         <v>60</v>
       </c>
-      <c r="D570" s="32"/>
-      <c r="E570" s="32"/>
-      <c r="F570" s="32">
+      <c r="D570" s="33"/>
+      <c r="E570" s="33"/>
+      <c r="F570" s="33">
         <v>1.0130345885159313</v>
       </c>
     </row>
@@ -20410,12 +20971,12 @@
       <c r="B571" s="6" t="s">
         <v>86</v>
       </c>
-      <c r="C571" s="34" t="s">
+      <c r="C571" s="35" t="s">
         <v>87</v>
       </c>
-      <c r="D571" s="32"/>
-      <c r="E571" s="32"/>
-      <c r="F571" s="32">
+      <c r="D571" s="33"/>
+      <c r="E571" s="33"/>
+      <c r="F571" s="33">
         <v>0.8873239436619719</v>
       </c>
     </row>
@@ -20426,10 +20987,10 @@
       <c r="B572" s="6" t="s">
         <v>88</v>
       </c>
-      <c r="C572" s="34"/>
-      <c r="D572" s="32"/>
-      <c r="E572" s="32"/>
-      <c r="F572" s="32">
+      <c r="C572" s="35"/>
+      <c r="D572" s="33"/>
+      <c r="E572" s="33"/>
+      <c r="F572" s="33">
         <v>0.27388535031847133</v>
       </c>
     </row>
@@ -20440,12 +21001,12 @@
       <c r="B573" s="6" t="s">
         <v>89</v>
       </c>
-      <c r="C573" s="34" t="s">
+      <c r="C573" s="35" t="s">
         <v>90</v>
       </c>
-      <c r="D573" s="32"/>
-      <c r="E573" s="32"/>
-      <c r="F573" s="32">
+      <c r="D573" s="33"/>
+      <c r="E573" s="33"/>
+      <c r="F573" s="33">
         <v>0.7037037037037037</v>
       </c>
     </row>
@@ -20456,12 +21017,12 @@
       <c r="B574" s="6" t="s">
         <v>91</v>
       </c>
-      <c r="C574" s="34" t="s">
+      <c r="C574" s="35" t="s">
         <v>92</v>
       </c>
-      <c r="D574" s="32"/>
-      <c r="E574" s="32"/>
-      <c r="F574" s="32">
+      <c r="D574" s="33"/>
+      <c r="E574" s="33"/>
+      <c r="F574" s="33">
         <v>0.6351494991139309</v>
       </c>
     </row>
@@ -20472,12 +21033,12 @@
       <c r="B575" s="6" t="s">
         <v>78</v>
       </c>
-      <c r="C575" s="34" t="s">
+      <c r="C575" s="35" t="s">
         <v>79</v>
       </c>
-      <c r="D575" s="32"/>
-      <c r="E575" s="32"/>
-      <c r="F575" s="32">
+      <c r="D575" s="33"/>
+      <c r="E575" s="33"/>
+      <c r="F575" s="33">
         <v>0.99403</v>
       </c>
     </row>
@@ -20488,12 +21049,12 @@
       <c r="B576" s="6" t="s">
         <v>77</v>
       </c>
-      <c r="C576" s="34" t="s">
+      <c r="C576" s="35" t="s">
         <v>41</v>
       </c>
-      <c r="D576" s="32"/>
-      <c r="E576" s="32"/>
-      <c r="F576" s="32">
+      <c r="D576" s="33"/>
+      <c r="E576" s="33"/>
+      <c r="F576" s="33">
         <v>1.2134831460674158</v>
       </c>
     </row>
@@ -20504,12 +21065,12 @@
       <c r="B577" s="6" t="s">
         <v>80</v>
       </c>
-      <c r="C577" s="34" t="s">
+      <c r="C577" s="35" t="s">
         <v>117</v>
       </c>
-      <c r="D577" s="32"/>
-      <c r="E577" s="32"/>
-      <c r="F577" s="32">
+      <c r="D577" s="33"/>
+      <c r="E577" s="33"/>
+      <c r="F577" s="33">
         <v>1.150793650793651</v>
       </c>
     </row>
@@ -20520,12 +21081,12 @@
       <c r="B578" s="6" t="s">
         <v>81</v>
       </c>
-      <c r="C578" s="34" t="s">
+      <c r="C578" s="35" t="s">
         <v>45</v>
       </c>
-      <c r="D578" s="32"/>
-      <c r="E578" s="32"/>
-      <c r="F578" s="32">
+      <c r="D578" s="33"/>
+      <c r="E578" s="33"/>
+      <c r="F578" s="33">
         <v>1.0465741229227117</v>
       </c>
     </row>
@@ -20536,12 +21097,12 @@
       <c r="B579" s="6" t="s">
         <v>82</v>
       </c>
-      <c r="C579" s="34" t="s">
+      <c r="C579" s="35" t="s">
         <v>72</v>
       </c>
-      <c r="D579" s="32"/>
-      <c r="E579" s="32"/>
-      <c r="F579" s="32">
+      <c r="D579" s="33"/>
+      <c r="E579" s="33"/>
+      <c r="F579" s="33">
         <v>1.9312434078330816</v>
       </c>
     </row>
@@ -20552,12 +21113,12 @@
       <c r="B580" s="6" t="s">
         <v>83</v>
       </c>
-      <c r="C580" s="34" t="s">
+      <c r="C580" s="35" t="s">
         <v>45</v>
       </c>
-      <c r="D580" s="32"/>
-      <c r="E580" s="32"/>
-      <c r="F580" s="32">
+      <c r="D580" s="33"/>
+      <c r="E580" s="33"/>
+      <c r="F580" s="33">
         <v>0.717391304347826</v>
       </c>
     </row>
@@ -20568,12 +21129,12 @@
       <c r="B581" s="6" t="s">
         <v>84</v>
       </c>
-      <c r="C581" s="34" t="s">
+      <c r="C581" s="35" t="s">
         <v>118</v>
       </c>
-      <c r="D581" s="32"/>
-      <c r="E581" s="32"/>
-      <c r="F581" s="32">
+      <c r="D581" s="33"/>
+      <c r="E581" s="33"/>
+      <c r="F581" s="33">
         <v>1.0040612977675454</v>
       </c>
     </row>
@@ -20584,12 +21145,12 @@
       <c r="B582" s="6" t="s">
         <v>85</v>
       </c>
-      <c r="C582" s="34" t="s">
+      <c r="C582" s="35" t="s">
         <v>60</v>
       </c>
-      <c r="D582" s="32"/>
-      <c r="E582" s="32"/>
-      <c r="F582" s="32">
+      <c r="D582" s="33"/>
+      <c r="E582" s="33"/>
+      <c r="F582" s="33">
         <v>0.6406347016212487</v>
       </c>
     </row>
@@ -20600,12 +21161,12 @@
       <c r="B583" s="6" t="s">
         <v>86</v>
       </c>
-      <c r="C583" s="34" t="s">
+      <c r="C583" s="35" t="s">
         <v>87</v>
       </c>
-      <c r="D583" s="32"/>
-      <c r="E583" s="32"/>
-      <c r="F583" s="32">
+      <c r="D583" s="33"/>
+      <c r="E583" s="33"/>
+      <c r="F583" s="33">
         <v>0.9014084507042254</v>
       </c>
     </row>
@@ -20616,10 +21177,10 @@
       <c r="B584" s="6" t="s">
         <v>88</v>
       </c>
-      <c r="C584" s="34"/>
-      <c r="D584" s="32"/>
-      <c r="E584" s="32"/>
-      <c r="F584" s="32" t="s">
+      <c r="C584" s="35"/>
+      <c r="D584" s="33"/>
+      <c r="E584" s="33"/>
+      <c r="F584" s="33" t="s">
         <v>71</v>
       </c>
     </row>
@@ -20630,12 +21191,12 @@
       <c r="B585" s="6" t="s">
         <v>89</v>
       </c>
-      <c r="C585" s="34" t="s">
+      <c r="C585" s="35" t="s">
         <v>90</v>
       </c>
-      <c r="D585" s="32"/>
-      <c r="E585" s="32"/>
-      <c r="F585" s="32">
+      <c r="D585" s="33"/>
+      <c r="E585" s="33"/>
+      <c r="F585" s="33">
         <v>0.8461538461538461</v>
       </c>
     </row>
@@ -20646,12 +21207,12 @@
       <c r="B586" s="6" t="s">
         <v>91</v>
       </c>
-      <c r="C586" s="34" t="s">
+      <c r="C586" s="35" t="s">
         <v>92</v>
       </c>
-      <c r="D586" s="32"/>
-      <c r="E586" s="32"/>
-      <c r="F586" s="32" t="s">
+      <c r="D586" s="33"/>
+      <c r="E586" s="33"/>
+      <c r="F586" s="33" t="s">
         <v>71</v>
       </c>
     </row>
@@ -20662,12 +21223,12 @@
       <c r="B587" s="6" t="s">
         <v>78</v>
       </c>
-      <c r="C587" s="34" t="s">
+      <c r="C587" s="35" t="s">
         <v>79</v>
       </c>
-      <c r="D587" s="32"/>
-      <c r="E587" s="32"/>
-      <c r="F587" s="32">
+      <c r="D587" s="33"/>
+      <c r="E587" s="33"/>
+      <c r="F587" s="33">
         <v>0.99604</v>
       </c>
     </row>
@@ -20678,12 +21239,12 @@
       <c r="B588" s="6" t="s">
         <v>77</v>
       </c>
-      <c r="C588" s="34" t="s">
+      <c r="C588" s="35" t="s">
         <v>41</v>
       </c>
-      <c r="D588" s="32"/>
-      <c r="E588" s="32"/>
-      <c r="F588" s="32">
+      <c r="D588" s="33"/>
+      <c r="E588" s="33"/>
+      <c r="F588" s="33">
         <v>1.1706081081081081</v>
       </c>
     </row>
@@ -20694,12 +21255,12 @@
       <c r="B589" s="6" t="s">
         <v>80</v>
       </c>
-      <c r="C589" s="34" t="s">
+      <c r="C589" s="35" t="s">
         <v>119</v>
       </c>
-      <c r="D589" s="32"/>
-      <c r="E589" s="32"/>
-      <c r="F589" s="32" t="s">
+      <c r="D589" s="33"/>
+      <c r="E589" s="33"/>
+      <c r="F589" s="33" t="s">
         <v>71</v>
       </c>
     </row>
@@ -20710,12 +21271,12 @@
       <c r="B590" s="6" t="s">
         <v>81</v>
       </c>
-      <c r="C590" s="34" t="s">
+      <c r="C590" s="35" t="s">
         <v>45</v>
       </c>
-      <c r="D590" s="32"/>
-      <c r="E590" s="32"/>
-      <c r="F590" s="32">
+      <c r="D590" s="33"/>
+      <c r="E590" s="33"/>
+      <c r="F590" s="33">
         <v>1.0293589573081527</v>
       </c>
     </row>
@@ -20726,12 +21287,12 @@
       <c r="B591" s="6" t="s">
         <v>82</v>
       </c>
-      <c r="C591" s="34" t="s">
+      <c r="C591" s="35" t="s">
         <v>72</v>
       </c>
-      <c r="D591" s="32"/>
-      <c r="E591" s="32"/>
-      <c r="F591" s="32">
+      <c r="D591" s="33"/>
+      <c r="E591" s="33"/>
+      <c r="F591" s="33">
         <v>0.5581743889958144</v>
       </c>
     </row>
@@ -20742,12 +21303,12 @@
       <c r="B592" s="6" t="s">
         <v>83</v>
       </c>
-      <c r="C592" s="34" t="s">
+      <c r="C592" s="35" t="s">
         <v>45</v>
       </c>
-      <c r="D592" s="32"/>
-      <c r="E592" s="32"/>
-      <c r="F592" s="32">
+      <c r="D592" s="33"/>
+      <c r="E592" s="33"/>
+      <c r="F592" s="33">
         <v>0.5223880597014925</v>
       </c>
     </row>
@@ -20758,12 +21319,12 @@
       <c r="B593" s="6" t="s">
         <v>84</v>
       </c>
-      <c r="C593" s="34" t="s">
+      <c r="C593" s="35" t="s">
         <v>120</v>
       </c>
-      <c r="D593" s="32"/>
-      <c r="E593" s="32"/>
-      <c r="F593" s="32">
+      <c r="D593" s="33"/>
+      <c r="E593" s="33"/>
+      <c r="F593" s="33">
         <v>0.9970548247993257</v>
       </c>
     </row>
@@ -20774,12 +21335,12 @@
       <c r="B594" s="6" t="s">
         <v>85</v>
       </c>
-      <c r="C594" s="34" t="s">
+      <c r="C594" s="35" t="s">
         <v>60</v>
       </c>
-      <c r="D594" s="32"/>
-      <c r="E594" s="32"/>
-      <c r="F594" s="32">
+      <c r="D594" s="33"/>
+      <c r="E594" s="33"/>
+      <c r="F594" s="33">
         <v>0.6412518957672686</v>
       </c>
     </row>
@@ -20790,12 +21351,12 @@
       <c r="B595" s="6" t="s">
         <v>86</v>
       </c>
-      <c r="C595" s="34" t="s">
+      <c r="C595" s="35" t="s">
         <v>87</v>
       </c>
-      <c r="D595" s="32"/>
-      <c r="E595" s="32"/>
-      <c r="F595" s="32">
+      <c r="D595" s="33"/>
+      <c r="E595" s="33"/>
+      <c r="F595" s="33">
         <v>0.9130434782608695</v>
       </c>
     </row>
@@ -20806,10 +21367,10 @@
       <c r="B596" s="6" t="s">
         <v>88</v>
       </c>
-      <c r="C596" s="34"/>
-      <c r="D596" s="32"/>
-      <c r="E596" s="32"/>
-      <c r="F596" s="32">
+      <c r="C596" s="35"/>
+      <c r="D596" s="33"/>
+      <c r="E596" s="33"/>
+      <c r="F596" s="33">
         <v>0.41843971631205673</v>
       </c>
     </row>
@@ -20820,12 +21381,12 @@
       <c r="B597" s="6" t="s">
         <v>89</v>
       </c>
-      <c r="C597" s="34" t="s">
+      <c r="C597" s="35" t="s">
         <v>90</v>
       </c>
-      <c r="D597" s="32"/>
-      <c r="E597" s="32"/>
-      <c r="F597" s="32">
+      <c r="D597" s="33"/>
+      <c r="E597" s="33"/>
+      <c r="F597" s="33">
         <v>0.5517241379310345</v>
       </c>
     </row>
@@ -20836,12 +21397,12 @@
       <c r="B598" s="6" t="s">
         <v>91</v>
       </c>
-      <c r="C598" s="34" t="s">
+      <c r="C598" s="35" t="s">
         <v>92</v>
       </c>
-      <c r="D598" s="32"/>
-      <c r="E598" s="32"/>
-      <c r="F598" s="32">
+      <c r="D598" s="33"/>
+      <c r="E598" s="33"/>
+      <c r="F598" s="33">
         <v>0.6915523820766519</v>
       </c>
     </row>
@@ -20852,12 +21413,12 @@
       <c r="B599" s="6" t="s">
         <v>78</v>
       </c>
-      <c r="C599" s="34" t="s">
+      <c r="C599" s="35" t="s">
         <v>79</v>
       </c>
-      <c r="D599" s="32"/>
-      <c r="E599" s="32"/>
-      <c r="F599" s="32">
+      <c r="D599" s="33"/>
+      <c r="E599" s="33"/>
+      <c r="F599" s="33">
         <v>0.9929189762959842</v>
       </c>
     </row>
@@ -20868,12 +21429,12 @@
       <c r="B600" s="6" t="s">
         <v>77</v>
       </c>
-      <c r="C600" s="34" t="s">
+      <c r="C600" s="35" t="s">
         <v>41</v>
       </c>
-      <c r="D600" s="32"/>
-      <c r="E600" s="32"/>
-      <c r="F600" s="32">
+      <c r="D600" s="33"/>
+      <c r="E600" s="33"/>
+      <c r="F600" s="33">
         <v>1.1432172151373967</v>
       </c>
     </row>
@@ -20884,12 +21445,12 @@
       <c r="B601" s="6" t="s">
         <v>80</v>
       </c>
-      <c r="C601" s="34" t="s">
+      <c r="C601" s="35" t="s">
         <v>121</v>
       </c>
-      <c r="D601" s="32"/>
-      <c r="E601" s="32"/>
-      <c r="F601" s="32">
+      <c r="D601" s="33"/>
+      <c r="E601" s="33"/>
+      <c r="F601" s="33">
         <v>1.170145569981988</v>
       </c>
     </row>
@@ -20900,12 +21461,12 @@
       <c r="B602" s="6" t="s">
         <v>81</v>
       </c>
-      <c r="C602" s="34" t="s">
+      <c r="C602" s="35" t="s">
         <v>45</v>
       </c>
-      <c r="D602" s="32"/>
-      <c r="E602" s="32"/>
-      <c r="F602" s="32">
+      <c r="D602" s="33"/>
+      <c r="E602" s="33"/>
+      <c r="F602" s="33">
         <v>1.035852263855603</v>
       </c>
     </row>
@@ -20916,12 +21477,12 @@
       <c r="B603" s="6" t="s">
         <v>82</v>
       </c>
-      <c r="C603" s="34" t="s">
+      <c r="C603" s="35" t="s">
         <v>72</v>
       </c>
-      <c r="D603" s="32"/>
-      <c r="E603" s="32"/>
-      <c r="F603" s="32">
+      <c r="D603" s="33"/>
+      <c r="E603" s="33"/>
+      <c r="F603" s="33">
         <v>1.0381817639558915</v>
       </c>
     </row>
@@ -20932,12 +21493,12 @@
       <c r="B604" s="6" t="s">
         <v>83</v>
       </c>
-      <c r="C604" s="34" t="s">
+      <c r="C604" s="35" t="s">
         <v>45</v>
       </c>
-      <c r="D604" s="32"/>
-      <c r="E604" s="32"/>
-      <c r="F604" s="32">
+      <c r="D604" s="33"/>
+      <c r="E604" s="33"/>
+      <c r="F604" s="33">
         <v>0.6596605102394345</v>
       </c>
     </row>
@@ -20948,12 +21509,12 @@
       <c r="B605" s="6" t="s">
         <v>84</v>
       </c>
-      <c r="C605" s="34" t="s">
+      <c r="C605" s="35" t="s">
         <v>122</v>
       </c>
-      <c r="D605" s="32"/>
-      <c r="E605" s="32"/>
-      <c r="F605" s="32">
+      <c r="D605" s="33"/>
+      <c r="E605" s="33"/>
+      <c r="F605" s="33">
         <v>0.9918957977704698</v>
       </c>
     </row>
@@ -20964,12 +21525,12 @@
       <c r="B606" s="6" t="s">
         <v>85</v>
       </c>
-      <c r="C606" s="34" t="s">
+      <c r="C606" s="35" t="s">
         <v>60</v>
       </c>
-      <c r="D606" s="32"/>
-      <c r="E606" s="32"/>
-      <c r="F606" s="32">
+      <c r="D606" s="33"/>
+      <c r="E606" s="33"/>
+      <c r="F606" s="33">
         <v>0.7131622182103192</v>
       </c>
     </row>
@@ -20980,12 +21541,12 @@
       <c r="B607" s="6" t="s">
         <v>86</v>
       </c>
-      <c r="C607" s="34" t="s">
+      <c r="C607" s="35" t="s">
         <v>87</v>
       </c>
-      <c r="D607" s="32"/>
-      <c r="E607" s="32"/>
-      <c r="F607" s="32">
+      <c r="D607" s="33"/>
+      <c r="E607" s="33"/>
+      <c r="F607" s="33">
         <v>0.8199766803116185</v>
       </c>
     </row>
@@ -20996,10 +21557,10 @@
       <c r="B608" s="6" t="s">
         <v>88</v>
       </c>
-      <c r="C608" s="34"/>
-      <c r="D608" s="32"/>
-      <c r="E608" s="32"/>
-      <c r="F608" s="32">
+      <c r="C608" s="35"/>
+      <c r="D608" s="33"/>
+      <c r="E608" s="33"/>
+      <c r="F608" s="33">
         <v>0.387744879956152</v>
       </c>
     </row>
@@ -21010,12 +21571,12 @@
       <c r="B609" s="6" t="s">
         <v>89</v>
       </c>
-      <c r="C609" s="34" t="s">
+      <c r="C609" s="35" t="s">
         <v>90</v>
       </c>
-      <c r="D609" s="32"/>
-      <c r="E609" s="32"/>
-      <c r="F609" s="32">
+      <c r="D609" s="33"/>
+      <c r="E609" s="33"/>
+      <c r="F609" s="33">
         <v>0.6351073532863435</v>
       </c>
     </row>
@@ -21026,1268 +21587,812 @@
       <c r="B610" s="6" t="s">
         <v>91</v>
       </c>
-      <c r="C610" s="34" t="s">
+      <c r="C610" s="35" t="s">
         <v>92</v>
       </c>
-      <c r="D610" s="32"/>
-      <c r="E610" s="32"/>
-      <c r="F610" s="32">
+      <c r="D610" s="33"/>
+      <c r="E610" s="33"/>
+      <c r="F610" s="33">
         <v>0.577902239930094</v>
       </c>
     </row>
     <row r="611" ht="15.75" customHeight="1">
-      <c r="A611" s="35"/>
-      <c r="B611" s="36"/>
+      <c r="A611" s="36"/>
     </row>
     <row r="612" ht="15.75" customHeight="1">
-      <c r="A612" s="35"/>
-      <c r="B612" s="36"/>
+      <c r="A612" s="36"/>
     </row>
     <row r="613" ht="15.75" customHeight="1">
-      <c r="A613" s="35"/>
-      <c r="B613" s="36"/>
+      <c r="A613" s="36"/>
     </row>
     <row r="614" ht="15.75" customHeight="1">
-      <c r="A614" s="35"/>
-      <c r="B614" s="36"/>
+      <c r="A614" s="36"/>
     </row>
     <row r="615" ht="15.75" customHeight="1">
-      <c r="A615" s="35"/>
-      <c r="B615" s="36"/>
+      <c r="A615" s="36"/>
     </row>
     <row r="616" ht="15.75" customHeight="1">
-      <c r="A616" s="35"/>
-      <c r="B616" s="36"/>
+      <c r="A616" s="36"/>
     </row>
     <row r="617" ht="15.75" customHeight="1">
-      <c r="A617" s="35"/>
-      <c r="B617" s="36"/>
+      <c r="A617" s="36"/>
     </row>
     <row r="618" ht="15.75" customHeight="1">
-      <c r="A618" s="35"/>
-      <c r="B618" s="36"/>
+      <c r="A618" s="36"/>
     </row>
     <row r="619" ht="15.75" customHeight="1">
-      <c r="A619" s="35"/>
-      <c r="B619" s="36"/>
+      <c r="A619" s="36"/>
     </row>
     <row r="620" ht="15.75" customHeight="1">
-      <c r="A620" s="35"/>
-      <c r="B620" s="36"/>
+      <c r="A620" s="36"/>
     </row>
     <row r="621" ht="15.75" customHeight="1">
-      <c r="A621" s="35"/>
-      <c r="B621" s="36"/>
+      <c r="A621" s="36"/>
     </row>
     <row r="622" ht="15.75" customHeight="1">
-      <c r="A622" s="35"/>
-      <c r="B622" s="36"/>
+      <c r="A622" s="36"/>
     </row>
     <row r="623" ht="15.75" customHeight="1">
-      <c r="A623" s="35"/>
-      <c r="B623" s="36"/>
+      <c r="A623" s="36"/>
     </row>
     <row r="624" ht="15.75" customHeight="1">
-      <c r="A624" s="35"/>
-      <c r="B624" s="36"/>
+      <c r="A624" s="36"/>
     </row>
     <row r="625" ht="15.75" customHeight="1">
-      <c r="A625" s="35"/>
-      <c r="B625" s="36"/>
+      <c r="A625" s="36"/>
     </row>
     <row r="626" ht="15.75" customHeight="1">
-      <c r="A626" s="35"/>
-      <c r="B626" s="36"/>
+      <c r="A626" s="36"/>
     </row>
     <row r="627" ht="15.75" customHeight="1">
-      <c r="A627" s="35"/>
-      <c r="B627" s="36"/>
+      <c r="A627" s="36"/>
     </row>
     <row r="628" ht="15.75" customHeight="1">
-      <c r="A628" s="35"/>
-      <c r="B628" s="36"/>
+      <c r="A628" s="36"/>
     </row>
     <row r="629" ht="15.75" customHeight="1">
-      <c r="A629" s="35"/>
-      <c r="B629" s="36"/>
+      <c r="A629" s="36"/>
     </row>
     <row r="630" ht="15.75" customHeight="1">
-      <c r="A630" s="35"/>
-      <c r="B630" s="36"/>
+      <c r="A630" s="36"/>
     </row>
     <row r="631" ht="15.75" customHeight="1">
-      <c r="A631" s="35"/>
-      <c r="B631" s="36"/>
+      <c r="A631" s="36"/>
     </row>
     <row r="632" ht="15.75" customHeight="1">
-      <c r="A632" s="35"/>
-      <c r="B632" s="36"/>
+      <c r="A632" s="36"/>
     </row>
     <row r="633" ht="15.75" customHeight="1">
-      <c r="A633" s="35"/>
-      <c r="B633" s="36"/>
+      <c r="A633" s="36"/>
     </row>
     <row r="634" ht="15.75" customHeight="1">
-      <c r="A634" s="35"/>
-      <c r="B634" s="36"/>
+      <c r="A634" s="36"/>
     </row>
     <row r="635" ht="15.75" customHeight="1">
-      <c r="A635" s="35"/>
-      <c r="B635" s="36"/>
+      <c r="A635" s="36"/>
     </row>
     <row r="636" ht="15.75" customHeight="1">
-      <c r="A636" s="35"/>
-      <c r="B636" s="36"/>
+      <c r="A636" s="36"/>
     </row>
     <row r="637" ht="15.75" customHeight="1">
-      <c r="A637" s="35"/>
-      <c r="B637" s="36"/>
+      <c r="A637" s="36"/>
     </row>
     <row r="638" ht="15.75" customHeight="1">
-      <c r="A638" s="35"/>
-      <c r="B638" s="36"/>
+      <c r="A638" s="36"/>
     </row>
     <row r="639" ht="15.75" customHeight="1">
-      <c r="A639" s="35"/>
-      <c r="B639" s="36"/>
+      <c r="A639" s="36"/>
     </row>
     <row r="640" ht="15.75" customHeight="1">
-      <c r="A640" s="35"/>
-      <c r="B640" s="36"/>
+      <c r="A640" s="36"/>
     </row>
     <row r="641" ht="15.75" customHeight="1">
-      <c r="A641" s="35"/>
-      <c r="B641" s="36"/>
+      <c r="A641" s="36"/>
     </row>
     <row r="642" ht="15.75" customHeight="1">
-      <c r="A642" s="35"/>
-      <c r="B642" s="36"/>
+      <c r="A642" s="36"/>
     </row>
     <row r="643" ht="15.75" customHeight="1">
-      <c r="A643" s="35"/>
-      <c r="B643" s="36"/>
+      <c r="A643" s="36"/>
     </row>
     <row r="644" ht="15.75" customHeight="1">
-      <c r="A644" s="35"/>
-      <c r="B644" s="36"/>
+      <c r="A644" s="36"/>
     </row>
     <row r="645" ht="15.75" customHeight="1">
-      <c r="A645" s="35"/>
-      <c r="B645" s="36"/>
+      <c r="A645" s="36"/>
     </row>
     <row r="646" ht="15.75" customHeight="1">
-      <c r="A646" s="35"/>
-      <c r="B646" s="36"/>
+      <c r="A646" s="36"/>
     </row>
     <row r="647" ht="15.75" customHeight="1">
-      <c r="A647" s="35"/>
-      <c r="B647" s="36"/>
+      <c r="A647" s="36"/>
     </row>
     <row r="648" ht="15.75" customHeight="1">
-      <c r="A648" s="35"/>
-      <c r="B648" s="36"/>
+      <c r="A648" s="36"/>
     </row>
     <row r="649" ht="15.75" customHeight="1">
-      <c r="A649" s="35"/>
-      <c r="B649" s="36"/>
+      <c r="A649" s="36"/>
     </row>
     <row r="650" ht="15.75" customHeight="1">
-      <c r="A650" s="35"/>
-      <c r="B650" s="36"/>
+      <c r="A650" s="36"/>
     </row>
     <row r="651" ht="15.75" customHeight="1">
-      <c r="A651" s="35"/>
-      <c r="B651" s="36"/>
+      <c r="A651" s="36"/>
     </row>
     <row r="652" ht="15.75" customHeight="1">
-      <c r="A652" s="35"/>
-      <c r="B652" s="36"/>
+      <c r="A652" s="36"/>
     </row>
     <row r="653" ht="15.75" customHeight="1">
-      <c r="A653" s="35"/>
-      <c r="B653" s="36"/>
+      <c r="A653" s="36"/>
     </row>
     <row r="654" ht="15.75" customHeight="1">
-      <c r="A654" s="35"/>
-      <c r="B654" s="36"/>
+      <c r="A654" s="36"/>
     </row>
     <row r="655" ht="15.75" customHeight="1">
-      <c r="A655" s="35"/>
-      <c r="B655" s="36"/>
+      <c r="A655" s="36"/>
     </row>
     <row r="656" ht="15.75" customHeight="1">
-      <c r="A656" s="35"/>
-      <c r="B656" s="36"/>
+      <c r="A656" s="36"/>
     </row>
     <row r="657" ht="15.75" customHeight="1">
-      <c r="A657" s="35"/>
-      <c r="B657" s="36"/>
+      <c r="A657" s="36"/>
     </row>
     <row r="658" ht="15.75" customHeight="1">
-      <c r="A658" s="35"/>
-      <c r="B658" s="36"/>
+      <c r="A658" s="36"/>
     </row>
     <row r="659" ht="15.75" customHeight="1">
-      <c r="A659" s="35"/>
-      <c r="B659" s="36"/>
+      <c r="A659" s="36"/>
     </row>
     <row r="660" ht="15.75" customHeight="1">
-      <c r="A660" s="35"/>
-      <c r="B660" s="36"/>
+      <c r="A660" s="36"/>
     </row>
     <row r="661" ht="15.75" customHeight="1">
-      <c r="A661" s="35"/>
-      <c r="B661" s="36"/>
+      <c r="A661" s="36"/>
     </row>
     <row r="662" ht="15.75" customHeight="1">
-      <c r="A662" s="35"/>
-      <c r="B662" s="36"/>
+      <c r="A662" s="36"/>
     </row>
     <row r="663" ht="15.75" customHeight="1">
-      <c r="A663" s="35"/>
-      <c r="B663" s="36"/>
+      <c r="A663" s="36"/>
     </row>
     <row r="664" ht="15.75" customHeight="1">
-      <c r="A664" s="35"/>
-      <c r="B664" s="36"/>
+      <c r="A664" s="36"/>
     </row>
     <row r="665" ht="15.75" customHeight="1">
-      <c r="A665" s="35"/>
-      <c r="B665" s="36"/>
+      <c r="A665" s="36"/>
     </row>
     <row r="666" ht="15.75" customHeight="1">
-      <c r="A666" s="35"/>
-      <c r="B666" s="36"/>
+      <c r="A666" s="36"/>
     </row>
     <row r="667" ht="15.75" customHeight="1">
-      <c r="A667" s="35"/>
-      <c r="B667" s="36"/>
+      <c r="A667" s="36"/>
     </row>
     <row r="668" ht="15.75" customHeight="1">
-      <c r="A668" s="35"/>
-      <c r="B668" s="36"/>
+      <c r="A668" s="36"/>
     </row>
     <row r="669" ht="15.75" customHeight="1">
-      <c r="A669" s="35"/>
-      <c r="B669" s="36"/>
+      <c r="A669" s="36"/>
     </row>
     <row r="670" ht="15.75" customHeight="1">
-      <c r="A670" s="35"/>
-      <c r="B670" s="36"/>
+      <c r="A670" s="36"/>
     </row>
     <row r="671" ht="15.75" customHeight="1">
-      <c r="A671" s="35"/>
-      <c r="B671" s="36"/>
+      <c r="A671" s="36"/>
     </row>
     <row r="672" ht="15.75" customHeight="1">
-      <c r="A672" s="35"/>
-      <c r="B672" s="36"/>
+      <c r="A672" s="36"/>
     </row>
     <row r="673" ht="15.75" customHeight="1">
-      <c r="A673" s="35"/>
-      <c r="B673" s="36"/>
+      <c r="A673" s="36"/>
     </row>
     <row r="674" ht="15.75" customHeight="1">
-      <c r="A674" s="35"/>
-      <c r="B674" s="36"/>
+      <c r="A674" s="36"/>
     </row>
     <row r="675" ht="15.75" customHeight="1">
-      <c r="A675" s="35"/>
-      <c r="B675" s="36"/>
+      <c r="A675" s="36"/>
     </row>
     <row r="676" ht="15.75" customHeight="1">
-      <c r="A676" s="35"/>
-      <c r="B676" s="36"/>
+      <c r="A676" s="36"/>
     </row>
     <row r="677" ht="15.75" customHeight="1">
-      <c r="A677" s="35"/>
-      <c r="B677" s="36"/>
+      <c r="A677" s="36"/>
     </row>
     <row r="678" ht="15.75" customHeight="1">
-      <c r="A678" s="35"/>
-      <c r="B678" s="36"/>
+      <c r="A678" s="36"/>
     </row>
     <row r="679" ht="15.75" customHeight="1">
-      <c r="A679" s="35"/>
-      <c r="B679" s="36"/>
+      <c r="A679" s="36"/>
     </row>
     <row r="680" ht="15.75" customHeight="1">
-      <c r="A680" s="35"/>
-      <c r="B680" s="36"/>
+      <c r="A680" s="36"/>
     </row>
     <row r="681" ht="15.75" customHeight="1">
-      <c r="A681" s="35"/>
-      <c r="B681" s="36"/>
+      <c r="A681" s="36"/>
     </row>
     <row r="682" ht="15.75" customHeight="1">
-      <c r="A682" s="35"/>
-      <c r="B682" s="36"/>
+      <c r="A682" s="36"/>
     </row>
     <row r="683" ht="15.75" customHeight="1">
-      <c r="A683" s="35"/>
-      <c r="B683" s="36"/>
+      <c r="A683" s="36"/>
     </row>
     <row r="684" ht="15.75" customHeight="1">
-      <c r="A684" s="35"/>
-      <c r="B684" s="36"/>
+      <c r="A684" s="36"/>
     </row>
     <row r="685" ht="15.75" customHeight="1">
-      <c r="A685" s="35"/>
-      <c r="B685" s="36"/>
+      <c r="A685" s="36"/>
     </row>
     <row r="686" ht="15.75" customHeight="1">
-      <c r="A686" s="35"/>
-      <c r="B686" s="36"/>
+      <c r="A686" s="36"/>
     </row>
     <row r="687" ht="15.75" customHeight="1">
-      <c r="A687" s="35"/>
-      <c r="B687" s="36"/>
+      <c r="A687" s="36"/>
     </row>
     <row r="688" ht="15.75" customHeight="1">
-      <c r="A688" s="35"/>
-      <c r="B688" s="36"/>
+      <c r="A688" s="36"/>
     </row>
     <row r="689" ht="15.75" customHeight="1">
-      <c r="A689" s="35"/>
-      <c r="B689" s="36"/>
+      <c r="A689" s="36"/>
     </row>
     <row r="690" ht="15.75" customHeight="1">
-      <c r="A690" s="35"/>
-      <c r="B690" s="36"/>
+      <c r="A690" s="36"/>
     </row>
     <row r="691" ht="15.75" customHeight="1">
-      <c r="A691" s="35"/>
-      <c r="B691" s="36"/>
+      <c r="A691" s="36"/>
     </row>
     <row r="692" ht="15.75" customHeight="1">
-      <c r="A692" s="35"/>
-      <c r="B692" s="36"/>
+      <c r="A692" s="36"/>
     </row>
     <row r="693" ht="15.75" customHeight="1">
-      <c r="A693" s="35"/>
-      <c r="B693" s="36"/>
+      <c r="A693" s="36"/>
     </row>
     <row r="694" ht="15.75" customHeight="1">
-      <c r="A694" s="35"/>
-      <c r="B694" s="36"/>
+      <c r="A694" s="36"/>
     </row>
     <row r="695" ht="15.75" customHeight="1">
-      <c r="A695" s="35"/>
-      <c r="B695" s="36"/>
+      <c r="A695" s="36"/>
     </row>
     <row r="696" ht="15.75" customHeight="1">
-      <c r="A696" s="35"/>
-      <c r="B696" s="36"/>
+      <c r="A696" s="36"/>
     </row>
     <row r="697" ht="15.75" customHeight="1">
-      <c r="A697" s="35"/>
-      <c r="B697" s="36"/>
+      <c r="A697" s="36"/>
     </row>
     <row r="698" ht="15.75" customHeight="1">
-      <c r="A698" s="35"/>
-      <c r="B698" s="36"/>
+      <c r="A698" s="36"/>
     </row>
     <row r="699" ht="15.75" customHeight="1">
-      <c r="A699" s="35"/>
-      <c r="B699" s="36"/>
+      <c r="A699" s="36"/>
     </row>
     <row r="700" ht="15.75" customHeight="1">
-      <c r="A700" s="35"/>
-      <c r="B700" s="36"/>
+      <c r="A700" s="36"/>
     </row>
     <row r="701" ht="15.75" customHeight="1">
-      <c r="A701" s="35"/>
-      <c r="B701" s="36"/>
+      <c r="A701" s="36"/>
     </row>
     <row r="702" ht="15.75" customHeight="1">
-      <c r="A702" s="35"/>
-      <c r="B702" s="36"/>
+      <c r="A702" s="36"/>
     </row>
     <row r="703" ht="15.75" customHeight="1">
-      <c r="A703" s="35"/>
-      <c r="B703" s="36"/>
+      <c r="A703" s="36"/>
     </row>
     <row r="704" ht="15.75" customHeight="1">
-      <c r="A704" s="35"/>
-      <c r="B704" s="36"/>
+      <c r="A704" s="36"/>
     </row>
     <row r="705" ht="15.75" customHeight="1">
-      <c r="A705" s="35"/>
-      <c r="B705" s="36"/>
+      <c r="A705" s="36"/>
     </row>
     <row r="706" ht="15.75" customHeight="1">
-      <c r="A706" s="35"/>
-      <c r="B706" s="36"/>
+      <c r="A706" s="36"/>
     </row>
     <row r="707" ht="15.75" customHeight="1">
-      <c r="A707" s="35"/>
-      <c r="B707" s="36"/>
+      <c r="A707" s="36"/>
     </row>
     <row r="708" ht="15.75" customHeight="1">
-      <c r="A708" s="35"/>
-      <c r="B708" s="36"/>
+      <c r="A708" s="36"/>
     </row>
     <row r="709" ht="15.75" customHeight="1">
-      <c r="A709" s="35"/>
-      <c r="B709" s="36"/>
+      <c r="A709" s="36"/>
     </row>
     <row r="710" ht="15.75" customHeight="1">
-      <c r="A710" s="35"/>
-      <c r="B710" s="36"/>
+      <c r="A710" s="36"/>
     </row>
     <row r="711" ht="15.75" customHeight="1">
-      <c r="A711" s="35"/>
-      <c r="B711" s="36"/>
+      <c r="A711" s="36"/>
     </row>
     <row r="712" ht="15.75" customHeight="1">
-      <c r="A712" s="35"/>
-      <c r="B712" s="36"/>
+      <c r="A712" s="36"/>
     </row>
     <row r="713" ht="15.75" customHeight="1">
-      <c r="A713" s="35"/>
+      <c r="A713" s="36"/>
     </row>
     <row r="714" ht="15.75" customHeight="1">
-      <c r="A714" s="35"/>
+      <c r="A714" s="36"/>
     </row>
     <row r="715" ht="15.75" customHeight="1">
-      <c r="A715" s="35"/>
+      <c r="A715" s="36"/>
     </row>
     <row r="716" ht="15.75" customHeight="1">
-      <c r="A716" s="35"/>
+      <c r="A716" s="36"/>
     </row>
     <row r="717" ht="15.75" customHeight="1">
-      <c r="A717" s="35"/>
+      <c r="A717" s="36"/>
     </row>
     <row r="718" ht="15.75" customHeight="1">
-      <c r="A718" s="35"/>
+      <c r="A718" s="36"/>
     </row>
     <row r="719" ht="15.75" customHeight="1">
-      <c r="A719" s="35"/>
+      <c r="A719" s="36"/>
     </row>
     <row r="720" ht="15.75" customHeight="1">
-      <c r="A720" s="35"/>
+      <c r="A720" s="36"/>
     </row>
     <row r="721" ht="15.75" customHeight="1">
-      <c r="A721" s="35"/>
+      <c r="A721" s="36"/>
     </row>
     <row r="722" ht="15.75" customHeight="1">
-      <c r="A722" s="35"/>
+      <c r="A722" s="36"/>
     </row>
     <row r="723" ht="15.75" customHeight="1">
-      <c r="A723" s="35"/>
+      <c r="A723" s="36"/>
     </row>
     <row r="724" ht="15.75" customHeight="1">
-      <c r="A724" s="35"/>
+      <c r="A724" s="36"/>
     </row>
     <row r="725" ht="15.75" customHeight="1">
-      <c r="A725" s="35"/>
+      <c r="A725" s="36"/>
     </row>
     <row r="726" ht="15.75" customHeight="1">
-      <c r="A726" s="35"/>
+      <c r="A726" s="36"/>
     </row>
     <row r="727" ht="15.75" customHeight="1">
-      <c r="A727" s="35"/>
+      <c r="A727" s="36"/>
     </row>
     <row r="728" ht="15.75" customHeight="1">
-      <c r="A728" s="35"/>
+      <c r="A728" s="36"/>
     </row>
     <row r="729" ht="15.75" customHeight="1">
-      <c r="A729" s="35"/>
+      <c r="A729" s="36"/>
     </row>
     <row r="730" ht="15.75" customHeight="1">
-      <c r="A730" s="35"/>
+      <c r="A730" s="36"/>
     </row>
     <row r="731" ht="15.75" customHeight="1">
-      <c r="A731" s="35"/>
+      <c r="A731" s="36"/>
     </row>
     <row r="732" ht="15.75" customHeight="1">
-      <c r="A732" s="35"/>
+      <c r="A732" s="36"/>
     </row>
     <row r="733" ht="15.75" customHeight="1">
-      <c r="A733" s="35"/>
+      <c r="A733" s="36"/>
     </row>
     <row r="734" ht="15.75" customHeight="1">
-      <c r="A734" s="35"/>
+      <c r="A734" s="36"/>
     </row>
     <row r="735" ht="15.75" customHeight="1">
-      <c r="A735" s="35"/>
+      <c r="A735" s="36"/>
     </row>
     <row r="736" ht="15.75" customHeight="1">
-      <c r="A736" s="35"/>
+      <c r="A736" s="36"/>
     </row>
     <row r="737" ht="15.75" customHeight="1">
-      <c r="A737" s="35"/>
+      <c r="A737" s="36"/>
     </row>
     <row r="738" ht="15.75" customHeight="1">
-      <c r="A738" s="35"/>
+      <c r="A738" s="36"/>
     </row>
     <row r="739" ht="15.75" customHeight="1">
-      <c r="A739" s="35"/>
+      <c r="A739" s="36"/>
     </row>
     <row r="740" ht="15.75" customHeight="1">
-      <c r="A740" s="35"/>
+      <c r="A740" s="36"/>
     </row>
     <row r="741" ht="15.75" customHeight="1">
-      <c r="A741" s="35"/>
+      <c r="A741" s="36"/>
     </row>
     <row r="742" ht="15.75" customHeight="1">
-      <c r="A742" s="35"/>
+      <c r="A742" s="36"/>
     </row>
     <row r="743" ht="15.75" customHeight="1">
-      <c r="A743" s="35"/>
+      <c r="A743" s="36"/>
     </row>
     <row r="744" ht="15.75" customHeight="1">
-      <c r="A744" s="35"/>
+      <c r="A744" s="36"/>
     </row>
     <row r="745" ht="15.75" customHeight="1">
-      <c r="A745" s="35"/>
+      <c r="A745" s="36"/>
     </row>
     <row r="746" ht="15.75" customHeight="1">
-      <c r="A746" s="35"/>
+      <c r="A746" s="36"/>
     </row>
     <row r="747" ht="15.75" customHeight="1">
-      <c r="A747" s="35"/>
+      <c r="A747" s="36"/>
     </row>
     <row r="748" ht="15.75" customHeight="1">
-      <c r="A748" s="35"/>
+      <c r="A748" s="36"/>
     </row>
     <row r="749" ht="15.75" customHeight="1">
-      <c r="A749" s="35"/>
+      <c r="A749" s="36"/>
     </row>
     <row r="750" ht="15.75" customHeight="1">
-      <c r="A750" s="35"/>
+      <c r="A750" s="36"/>
     </row>
     <row r="751" ht="15.75" customHeight="1">
-      <c r="A751" s="35"/>
+      <c r="A751" s="36"/>
     </row>
     <row r="752" ht="15.75" customHeight="1">
-      <c r="A752" s="35"/>
+      <c r="A752" s="36"/>
     </row>
     <row r="753" ht="15.75" customHeight="1">
-      <c r="A753" s="35"/>
+      <c r="A753" s="36"/>
     </row>
     <row r="754" ht="15.75" customHeight="1">
-      <c r="A754" s="35"/>
+      <c r="A754" s="36"/>
     </row>
     <row r="755" ht="15.75" customHeight="1">
-      <c r="A755" s="35"/>
+      <c r="A755" s="36"/>
     </row>
     <row r="756" ht="15.75" customHeight="1">
-      <c r="A756" s="35"/>
+      <c r="A756" s="36"/>
     </row>
     <row r="757" ht="15.75" customHeight="1">
-      <c r="A757" s="35"/>
+      <c r="A757" s="36"/>
     </row>
     <row r="758" ht="15.75" customHeight="1">
-      <c r="A758" s="35"/>
+      <c r="A758" s="36"/>
     </row>
     <row r="759" ht="15.75" customHeight="1">
-      <c r="A759" s="35"/>
+      <c r="A759" s="36"/>
     </row>
     <row r="760" ht="15.75" customHeight="1">
-      <c r="A760" s="35"/>
+      <c r="A760" s="36"/>
     </row>
     <row r="761" ht="15.75" customHeight="1">
-      <c r="A761" s="35"/>
+      <c r="A761" s="36"/>
     </row>
     <row r="762" ht="15.75" customHeight="1">
-      <c r="A762" s="35"/>
+      <c r="A762" s="36"/>
     </row>
     <row r="763" ht="15.75" customHeight="1">
-      <c r="A763" s="35"/>
+      <c r="A763" s="36"/>
     </row>
     <row r="764" ht="15.75" customHeight="1">
-      <c r="A764" s="35"/>
+      <c r="A764" s="36"/>
     </row>
     <row r="765" ht="15.75" customHeight="1">
-      <c r="A765" s="35"/>
+      <c r="A765" s="36"/>
     </row>
     <row r="766" ht="15.75" customHeight="1">
-      <c r="A766" s="35"/>
+      <c r="A766" s="36"/>
     </row>
     <row r="767" ht="15.75" customHeight="1">
-      <c r="A767" s="35"/>
+      <c r="A767" s="36"/>
     </row>
     <row r="768" ht="15.75" customHeight="1">
-      <c r="A768" s="35"/>
+      <c r="A768" s="36"/>
     </row>
     <row r="769" ht="15.75" customHeight="1">
-      <c r="A769" s="35"/>
+      <c r="A769" s="36"/>
     </row>
     <row r="770" ht="15.75" customHeight="1">
-      <c r="A770" s="35"/>
+      <c r="A770" s="36"/>
     </row>
     <row r="771" ht="15.75" customHeight="1">
-      <c r="A771" s="35"/>
+      <c r="A771" s="36"/>
     </row>
     <row r="772" ht="15.75" customHeight="1">
-      <c r="A772" s="35"/>
+      <c r="A772" s="36"/>
     </row>
     <row r="773" ht="15.75" customHeight="1">
-      <c r="A773" s="35"/>
+      <c r="A773" s="36"/>
     </row>
     <row r="774" ht="15.75" customHeight="1">
-      <c r="A774" s="35"/>
+      <c r="A774" s="36"/>
     </row>
     <row r="775" ht="15.75" customHeight="1">
-      <c r="A775" s="35"/>
+      <c r="A775" s="36"/>
     </row>
     <row r="776" ht="15.75" customHeight="1">
-      <c r="A776" s="35"/>
+      <c r="A776" s="36"/>
     </row>
     <row r="777" ht="15.75" customHeight="1">
-      <c r="A777" s="35"/>
+      <c r="A777" s="36"/>
     </row>
     <row r="778" ht="15.75" customHeight="1">
-      <c r="A778" s="35"/>
+      <c r="A778" s="36"/>
     </row>
     <row r="779" ht="15.75" customHeight="1">
-      <c r="A779" s="35"/>
+      <c r="A779" s="36"/>
     </row>
     <row r="780" ht="15.75" customHeight="1">
-      <c r="A780" s="35"/>
+      <c r="A780" s="36"/>
     </row>
     <row r="781" ht="15.75" customHeight="1">
-      <c r="A781" s="35"/>
+      <c r="A781" s="36"/>
     </row>
     <row r="782" ht="15.75" customHeight="1">
-      <c r="A782" s="35"/>
+      <c r="A782" s="36"/>
     </row>
     <row r="783" ht="15.75" customHeight="1">
-      <c r="A783" s="35"/>
+      <c r="A783" s="36"/>
     </row>
     <row r="784" ht="15.75" customHeight="1">
-      <c r="A784" s="35"/>
+      <c r="A784" s="36"/>
     </row>
     <row r="785" ht="15.75" customHeight="1">
-      <c r="A785" s="35"/>
+      <c r="A785" s="36"/>
     </row>
     <row r="786" ht="15.75" customHeight="1">
-      <c r="A786" s="35"/>
+      <c r="A786" s="36"/>
     </row>
     <row r="787" ht="15.75" customHeight="1">
-      <c r="A787" s="35"/>
+      <c r="A787" s="36"/>
     </row>
     <row r="788" ht="15.75" customHeight="1">
-      <c r="A788" s="35"/>
+      <c r="A788" s="36"/>
     </row>
     <row r="789" ht="15.75" customHeight="1">
-      <c r="A789" s="35"/>
+      <c r="A789" s="36"/>
     </row>
     <row r="790" ht="15.75" customHeight="1">
-      <c r="A790" s="35"/>
+      <c r="A790" s="36"/>
     </row>
     <row r="791" ht="15.75" customHeight="1">
-      <c r="A791" s="35"/>
+      <c r="A791" s="36"/>
     </row>
     <row r="792" ht="15.75" customHeight="1">
-      <c r="A792" s="35"/>
+      <c r="A792" s="36"/>
     </row>
     <row r="793" ht="15.75" customHeight="1">
-      <c r="A793" s="35"/>
+      <c r="A793" s="36"/>
     </row>
     <row r="794" ht="15.75" customHeight="1">
-      <c r="A794" s="35"/>
+      <c r="A794" s="36"/>
     </row>
     <row r="795" ht="15.75" customHeight="1">
-      <c r="A795" s="35"/>
+      <c r="A795" s="36"/>
     </row>
     <row r="796" ht="15.75" customHeight="1">
-      <c r="A796" s="35"/>
+      <c r="A796" s="36"/>
     </row>
     <row r="797" ht="15.75" customHeight="1">
-      <c r="A797" s="35"/>
+      <c r="A797" s="36"/>
     </row>
     <row r="798" ht="15.75" customHeight="1">
-      <c r="A798" s="35"/>
+      <c r="A798" s="36"/>
     </row>
     <row r="799" ht="15.75" customHeight="1">
-      <c r="A799" s="35"/>
+      <c r="A799" s="36"/>
     </row>
     <row r="800" ht="15.75" customHeight="1">
-      <c r="A800" s="35"/>
+      <c r="A800" s="36"/>
     </row>
     <row r="801" ht="15.75" customHeight="1">
-      <c r="A801" s="35"/>
+      <c r="A801" s="36"/>
     </row>
     <row r="802" ht="15.75" customHeight="1">
-      <c r="A802" s="35"/>
+      <c r="A802" s="36"/>
     </row>
     <row r="803" ht="15.75" customHeight="1">
-      <c r="A803" s="35"/>
+      <c r="A803" s="36"/>
     </row>
     <row r="804" ht="15.75" customHeight="1">
-      <c r="A804" s="35"/>
+      <c r="A804" s="36"/>
     </row>
     <row r="805" ht="15.75" customHeight="1">
-      <c r="A805" s="35"/>
+      <c r="A805" s="36"/>
     </row>
     <row r="806" ht="15.75" customHeight="1">
-      <c r="A806" s="35"/>
+      <c r="A806" s="36"/>
     </row>
     <row r="807" ht="15.75" customHeight="1">
-      <c r="A807" s="35"/>
+      <c r="A807" s="36"/>
     </row>
     <row r="808" ht="15.75" customHeight="1">
-      <c r="A808" s="35"/>
+      <c r="A808" s="36"/>
     </row>
     <row r="809" ht="15.75" customHeight="1">
-      <c r="A809" s="35"/>
+      <c r="A809" s="36"/>
     </row>
     <row r="810" ht="15.75" customHeight="1">
-      <c r="A810" s="35"/>
+      <c r="A810" s="36"/>
     </row>
     <row r="811" ht="15.75" customHeight="1">
-      <c r="A811" s="35"/>
+      <c r="A811" s="36"/>
     </row>
     <row r="812" ht="15.75" customHeight="1">
-      <c r="A812" s="35"/>
+      <c r="A812" s="36"/>
     </row>
     <row r="813" ht="15.75" customHeight="1">
-      <c r="A813" s="35"/>
+      <c r="A813" s="36"/>
     </row>
     <row r="814" ht="15.75" customHeight="1">
-      <c r="A814" s="35"/>
+      <c r="A814" s="36"/>
     </row>
     <row r="815" ht="15.75" customHeight="1">
-      <c r="A815" s="35"/>
+      <c r="A815" s="36"/>
     </row>
     <row r="816" ht="15.75" customHeight="1">
-      <c r="A816" s="35"/>
+      <c r="A816" s="36"/>
     </row>
     <row r="817" ht="15.75" customHeight="1">
-      <c r="A817" s="35"/>
+      <c r="A817" s="36"/>
     </row>
     <row r="818" ht="15.75" customHeight="1">
-      <c r="A818" s="35"/>
+      <c r="A818" s="36"/>
     </row>
     <row r="819" ht="15.75" customHeight="1">
-      <c r="A819" s="35"/>
+      <c r="A819" s="36"/>
     </row>
     <row r="820" ht="15.75" customHeight="1">
-      <c r="A820" s="35"/>
+      <c r="A820" s="36"/>
     </row>
     <row r="821" ht="15.75" customHeight="1">
-      <c r="A821" s="35"/>
+      <c r="A821" s="36"/>
     </row>
     <row r="822" ht="15.75" customHeight="1">
-      <c r="A822" s="35"/>
+      <c r="A822" s="36"/>
     </row>
     <row r="823" ht="15.75" customHeight="1">
-      <c r="A823" s="35"/>
+      <c r="A823" s="36"/>
     </row>
     <row r="824" ht="15.75" customHeight="1">
-      <c r="A824" s="35"/>
+      <c r="A824" s="36"/>
     </row>
     <row r="825" ht="15.75" customHeight="1">
-      <c r="A825" s="35"/>
+      <c r="A825" s="36"/>
     </row>
     <row r="826" ht="15.75" customHeight="1">
-      <c r="A826" s="35"/>
+      <c r="A826" s="36"/>
     </row>
     <row r="827" ht="15.75" customHeight="1">
-      <c r="A827" s="35"/>
+      <c r="A827" s="36"/>
     </row>
     <row r="828" ht="15.75" customHeight="1">
-      <c r="A828" s="35"/>
+      <c r="A828" s="36"/>
     </row>
     <row r="829" ht="15.75" customHeight="1">
-      <c r="A829" s="35"/>
+      <c r="A829" s="36"/>
     </row>
     <row r="830" ht="15.75" customHeight="1">
-      <c r="A830" s="35"/>
+      <c r="A830" s="36"/>
     </row>
     <row r="831" ht="15.75" customHeight="1">
-      <c r="A831" s="35"/>
+      <c r="A831" s="36"/>
     </row>
     <row r="832" ht="15.75" customHeight="1">
-      <c r="A832" s="35"/>
+      <c r="A832" s="36"/>
     </row>
     <row r="833" ht="15.75" customHeight="1">
-      <c r="A833" s="35"/>
+      <c r="A833" s="36"/>
     </row>
     <row r="834" ht="15.75" customHeight="1">
-      <c r="A834" s="35"/>
+      <c r="A834" s="36"/>
     </row>
     <row r="835" ht="15.75" customHeight="1">
-      <c r="A835" s="35"/>
+      <c r="A835" s="36"/>
     </row>
     <row r="836" ht="15.75" customHeight="1">
-      <c r="A836" s="35"/>
+      <c r="A836" s="36"/>
     </row>
     <row r="837" ht="15.75" customHeight="1">
-      <c r="A837" s="35"/>
+      <c r="A837" s="36"/>
     </row>
     <row r="838" ht="15.75" customHeight="1">
-      <c r="A838" s="35"/>
+      <c r="A838" s="36"/>
     </row>
     <row r="839" ht="15.75" customHeight="1">
-      <c r="A839" s="35"/>
+      <c r="A839" s="36"/>
     </row>
     <row r="840" ht="15.75" customHeight="1">
-      <c r="A840" s="35"/>
+      <c r="A840" s="36"/>
     </row>
     <row r="841" ht="15.75" customHeight="1">
-      <c r="A841" s="35"/>
+      <c r="A841" s="36"/>
     </row>
     <row r="842" ht="15.75" customHeight="1">
-      <c r="A842" s="35"/>
+      <c r="A842" s="36"/>
     </row>
     <row r="843" ht="15.75" customHeight="1">
-      <c r="A843" s="35"/>
+      <c r="A843" s="36"/>
     </row>
     <row r="844" ht="15.75" customHeight="1">
-      <c r="A844" s="35"/>
+      <c r="A844" s="36"/>
     </row>
     <row r="845" ht="15.75" customHeight="1">
-      <c r="A845" s="35"/>
+      <c r="A845" s="36"/>
     </row>
     <row r="846" ht="15.75" customHeight="1">
-      <c r="A846" s="35"/>
+      <c r="A846" s="36"/>
     </row>
     <row r="847" ht="15.75" customHeight="1">
-      <c r="A847" s="35"/>
+      <c r="A847" s="36"/>
     </row>
     <row r="848" ht="15.75" customHeight="1">
-      <c r="A848" s="35"/>
+      <c r="A848" s="36"/>
     </row>
     <row r="849" ht="15.75" customHeight="1">
-      <c r="A849" s="35"/>
+      <c r="A849" s="36"/>
     </row>
     <row r="850" ht="15.75" customHeight="1">
-      <c r="A850" s="35"/>
+      <c r="A850" s="36"/>
     </row>
     <row r="851" ht="15.75" customHeight="1">
-      <c r="A851" s="35"/>
+      <c r="A851" s="36"/>
     </row>
     <row r="852" ht="15.75" customHeight="1">
-      <c r="A852" s="35"/>
+      <c r="A852" s="36"/>
     </row>
     <row r="853" ht="15.75" customHeight="1">
-      <c r="A853" s="35"/>
+      <c r="A853" s="36"/>
     </row>
     <row r="854" ht="15.75" customHeight="1">
-      <c r="A854" s="35"/>
+      <c r="A854" s="36"/>
     </row>
     <row r="855" ht="15.75" customHeight="1">
-      <c r="A855" s="35"/>
+      <c r="A855" s="36"/>
     </row>
     <row r="856" ht="15.75" customHeight="1">
-      <c r="A856" s="35"/>
+      <c r="A856" s="36"/>
     </row>
     <row r="857" ht="15.75" customHeight="1">
-      <c r="A857" s="35"/>
+      <c r="A857" s="36"/>
     </row>
     <row r="858" ht="15.75" customHeight="1">
-      <c r="A858" s="35"/>
+      <c r="A858" s="36"/>
     </row>
     <row r="859" ht="15.75" customHeight="1">
-      <c r="A859" s="35"/>
+      <c r="A859" s="36"/>
     </row>
     <row r="860" ht="15.75" customHeight="1">
-      <c r="A860" s="35"/>
+      <c r="A860" s="36"/>
     </row>
     <row r="861" ht="15.75" customHeight="1">
-      <c r="A861" s="35"/>
+      <c r="A861" s="36"/>
     </row>
     <row r="862" ht="15.75" customHeight="1">
-      <c r="A862" s="35"/>
+      <c r="A862" s="36"/>
     </row>
     <row r="863" ht="15.75" customHeight="1">
-      <c r="A863" s="35"/>
+      <c r="A863" s="36"/>
     </row>
     <row r="864" ht="15.75" customHeight="1">
-      <c r="A864" s="35"/>
+      <c r="A864" s="36"/>
     </row>
     <row r="865" ht="15.75" customHeight="1">
-      <c r="A865" s="35"/>
+      <c r="A865" s="36"/>
     </row>
     <row r="866" ht="15.75" customHeight="1">
-      <c r="A866" s="35"/>
+      <c r="A866" s="36"/>
     </row>
     <row r="867" ht="15.75" customHeight="1">
-      <c r="A867" s="35"/>
+      <c r="A867" s="36"/>
     </row>
     <row r="868" ht="15.75" customHeight="1">
-      <c r="A868" s="35"/>
+      <c r="A868" s="36"/>
     </row>
     <row r="869" ht="15.75" customHeight="1">
-      <c r="A869" s="35"/>
+      <c r="A869" s="36"/>
     </row>
     <row r="870" ht="15.75" customHeight="1">
-      <c r="A870" s="35"/>
+      <c r="A870" s="36"/>
     </row>
     <row r="871" ht="15.75" customHeight="1">
-      <c r="A871" s="35"/>
+      <c r="A871" s="36"/>
     </row>
     <row r="872" ht="15.75" customHeight="1">
-      <c r="A872" s="35"/>
+      <c r="A872" s="36"/>
     </row>
     <row r="873" ht="15.75" customHeight="1">
-      <c r="A873" s="35"/>
+      <c r="A873" s="36"/>
     </row>
     <row r="874" ht="15.75" customHeight="1">
-      <c r="A874" s="35"/>
+      <c r="A874" s="36"/>
     </row>
     <row r="875" ht="15.75" customHeight="1">
-      <c r="A875" s="35"/>
+      <c r="A875" s="36"/>
     </row>
     <row r="876" ht="15.75" customHeight="1">
-      <c r="A876" s="35"/>
-    </row>
-    <row r="877" ht="15.75" customHeight="1">
-      <c r="A877" s="35"/>
-    </row>
-    <row r="878" ht="15.75" customHeight="1">
-      <c r="A878" s="35"/>
-    </row>
-    <row r="879" ht="15.75" customHeight="1">
-      <c r="A879" s="35"/>
-    </row>
-    <row r="880" ht="15.75" customHeight="1">
-      <c r="A880" s="35"/>
-    </row>
-    <row r="881" ht="15.75" customHeight="1">
-      <c r="A881" s="35"/>
-    </row>
-    <row r="882" ht="15.75" customHeight="1">
-      <c r="A882" s="35"/>
-    </row>
-    <row r="883" ht="15.75" customHeight="1">
-      <c r="A883" s="35"/>
-    </row>
-    <row r="884" ht="15.75" customHeight="1">
-      <c r="A884" s="35"/>
-    </row>
-    <row r="885" ht="15.75" customHeight="1">
-      <c r="A885" s="35"/>
-    </row>
-    <row r="886" ht="15.75" customHeight="1">
-      <c r="A886" s="35"/>
-    </row>
-    <row r="887" ht="15.75" customHeight="1">
-      <c r="A887" s="35"/>
-    </row>
-    <row r="888" ht="15.75" customHeight="1">
-      <c r="A888" s="35"/>
-    </row>
-    <row r="889" ht="15.75" customHeight="1">
-      <c r="A889" s="35"/>
-    </row>
-    <row r="890" ht="15.75" customHeight="1">
-      <c r="A890" s="35"/>
-    </row>
-    <row r="891" ht="15.75" customHeight="1">
-      <c r="A891" s="35"/>
-    </row>
-    <row r="892" ht="15.75" customHeight="1">
-      <c r="A892" s="35"/>
-    </row>
-    <row r="893" ht="15.75" customHeight="1">
-      <c r="A893" s="35"/>
-    </row>
-    <row r="894" ht="15.75" customHeight="1">
-      <c r="A894" s="35"/>
-    </row>
-    <row r="895" ht="15.75" customHeight="1">
-      <c r="A895" s="35"/>
-    </row>
-    <row r="896" ht="15.75" customHeight="1">
-      <c r="A896" s="35"/>
-    </row>
-    <row r="897" ht="15.75" customHeight="1">
-      <c r="A897" s="35"/>
-    </row>
-    <row r="898" ht="15.75" customHeight="1">
-      <c r="A898" s="35"/>
-    </row>
-    <row r="899" ht="15.75" customHeight="1">
-      <c r="A899" s="35"/>
-    </row>
-    <row r="900" ht="15.75" customHeight="1">
-      <c r="A900" s="35"/>
-    </row>
-    <row r="901" ht="15.75" customHeight="1">
-      <c r="A901" s="35"/>
-    </row>
-    <row r="902" ht="15.75" customHeight="1">
-      <c r="A902" s="35"/>
-    </row>
-    <row r="903" ht="15.75" customHeight="1">
-      <c r="A903" s="35"/>
-    </row>
-    <row r="904" ht="15.75" customHeight="1">
-      <c r="A904" s="35"/>
-    </row>
-    <row r="905" ht="15.75" customHeight="1">
-      <c r="A905" s="35"/>
-    </row>
-    <row r="906" ht="15.75" customHeight="1">
-      <c r="A906" s="35"/>
-    </row>
-    <row r="907" ht="15.75" customHeight="1">
-      <c r="A907" s="35"/>
-    </row>
-    <row r="908" ht="15.75" customHeight="1">
-      <c r="A908" s="35"/>
-    </row>
-    <row r="909" ht="15.75" customHeight="1">
-      <c r="A909" s="35"/>
-    </row>
-    <row r="910" ht="15.75" customHeight="1">
-      <c r="A910" s="35"/>
-    </row>
-    <row r="911" ht="15.75" customHeight="1">
-      <c r="A911" s="35"/>
-    </row>
-    <row r="912" ht="15.75" customHeight="1">
-      <c r="A912" s="35"/>
-    </row>
-    <row r="913" ht="15.75" customHeight="1">
-      <c r="A913" s="35"/>
-    </row>
-    <row r="914" ht="15.75" customHeight="1">
-      <c r="A914" s="35"/>
-    </row>
-    <row r="915" ht="15.75" customHeight="1">
-      <c r="A915" s="35"/>
-    </row>
-    <row r="916" ht="15.75" customHeight="1">
-      <c r="A916" s="35"/>
-    </row>
-    <row r="917" ht="15.75" customHeight="1">
-      <c r="A917" s="35"/>
-    </row>
-    <row r="918" ht="15.75" customHeight="1">
-      <c r="A918" s="35"/>
-    </row>
-    <row r="919" ht="15.75" customHeight="1">
-      <c r="A919" s="35"/>
-    </row>
-    <row r="920" ht="15.75" customHeight="1">
-      <c r="A920" s="35"/>
-    </row>
-    <row r="921" ht="15.75" customHeight="1">
-      <c r="A921" s="35"/>
-    </row>
-    <row r="922" ht="15.75" customHeight="1">
-      <c r="A922" s="35"/>
-    </row>
-    <row r="923" ht="15.75" customHeight="1">
-      <c r="A923" s="35"/>
-    </row>
-    <row r="924" ht="15.75" customHeight="1">
-      <c r="A924" s="35"/>
-    </row>
-    <row r="925" ht="15.75" customHeight="1">
-      <c r="A925" s="35"/>
-    </row>
-    <row r="926" ht="15.75" customHeight="1">
-      <c r="A926" s="35"/>
-    </row>
-    <row r="927" ht="15.75" customHeight="1">
-      <c r="A927" s="35"/>
-    </row>
-    <row r="928" ht="15.75" customHeight="1">
-      <c r="A928" s="35"/>
-    </row>
-    <row r="929" ht="15.75" customHeight="1">
-      <c r="A929" s="35"/>
-    </row>
-    <row r="930" ht="15.75" customHeight="1">
-      <c r="A930" s="35"/>
-    </row>
-    <row r="931" ht="15.75" customHeight="1">
-      <c r="A931" s="35"/>
-    </row>
-    <row r="932" ht="15.75" customHeight="1">
-      <c r="A932" s="35"/>
-    </row>
-    <row r="933" ht="15.75" customHeight="1">
-      <c r="A933" s="35"/>
-    </row>
-    <row r="934" ht="15.75" customHeight="1">
-      <c r="A934" s="35"/>
-    </row>
-    <row r="935" ht="15.75" customHeight="1">
-      <c r="A935" s="35"/>
-    </row>
-    <row r="936" ht="15.75" customHeight="1">
-      <c r="A936" s="35"/>
-    </row>
-    <row r="937" ht="15.75" customHeight="1">
-      <c r="A937" s="35"/>
-    </row>
-    <row r="938" ht="15.75" customHeight="1">
-      <c r="A938" s="35"/>
-    </row>
-    <row r="939" ht="15.75" customHeight="1">
-      <c r="A939" s="35"/>
-    </row>
-    <row r="940" ht="15.75" customHeight="1">
-      <c r="A940" s="35"/>
-    </row>
-    <row r="941" ht="15.75" customHeight="1">
-      <c r="A941" s="35"/>
-    </row>
-    <row r="942" ht="15.75" customHeight="1">
-      <c r="A942" s="35"/>
-    </row>
-    <row r="943" ht="15.75" customHeight="1">
-      <c r="A943" s="35"/>
-    </row>
-    <row r="944" ht="15.75" customHeight="1">
-      <c r="A944" s="35"/>
-    </row>
-    <row r="945" ht="15.75" customHeight="1">
-      <c r="A945" s="35"/>
-    </row>
-    <row r="946" ht="15.75" customHeight="1">
-      <c r="A946" s="35"/>
-    </row>
-    <row r="947" ht="15.75" customHeight="1">
-      <c r="A947" s="35"/>
-    </row>
-    <row r="948" ht="15.75" customHeight="1">
-      <c r="A948" s="35"/>
-    </row>
-    <row r="949" ht="15.75" customHeight="1">
-      <c r="A949" s="35"/>
-    </row>
-    <row r="950" ht="15.75" customHeight="1">
-      <c r="A950" s="35"/>
-    </row>
-    <row r="951" ht="15.75" customHeight="1">
-      <c r="A951" s="35"/>
-    </row>
-    <row r="952" ht="15.75" customHeight="1">
-      <c r="A952" s="35"/>
-    </row>
-    <row r="953" ht="15.75" customHeight="1">
-      <c r="A953" s="35"/>
-    </row>
-    <row r="954" ht="15.75" customHeight="1">
-      <c r="A954" s="35"/>
-    </row>
-    <row r="955" ht="15.75" customHeight="1">
-      <c r="A955" s="35"/>
-    </row>
-    <row r="956" ht="15.75" customHeight="1">
-      <c r="A956" s="35"/>
-    </row>
-    <row r="957" ht="15.75" customHeight="1">
-      <c r="A957" s="35"/>
-    </row>
-    <row r="958" ht="15.75" customHeight="1">
-      <c r="A958" s="35"/>
-    </row>
-    <row r="959" ht="15.75" customHeight="1">
-      <c r="A959" s="35"/>
-    </row>
-    <row r="960" ht="15.75" customHeight="1">
-      <c r="A960" s="35"/>
-    </row>
-    <row r="961" ht="15.75" customHeight="1">
-      <c r="A961" s="35"/>
-    </row>
-    <row r="962" ht="15.75" customHeight="1">
-      <c r="A962" s="35"/>
-    </row>
-    <row r="963" ht="15.75" customHeight="1">
-      <c r="A963" s="35"/>
-    </row>
-    <row r="964" ht="15.75" customHeight="1">
-      <c r="A964" s="35"/>
-    </row>
-    <row r="965" ht="15.75" customHeight="1">
-      <c r="A965" s="35"/>
-    </row>
-    <row r="966" ht="15.75" customHeight="1">
-      <c r="A966" s="35"/>
-    </row>
-    <row r="967" ht="15.75" customHeight="1">
-      <c r="A967" s="35"/>
-    </row>
-    <row r="968" ht="15.75" customHeight="1">
-      <c r="A968" s="35"/>
-    </row>
-    <row r="969" ht="15.75" customHeight="1">
-      <c r="A969" s="35"/>
-    </row>
-    <row r="970" ht="15.75" customHeight="1">
-      <c r="A970" s="35"/>
-    </row>
-    <row r="971" ht="15.75" customHeight="1">
-      <c r="A971" s="35"/>
-    </row>
-    <row r="972" ht="15.75" customHeight="1">
-      <c r="A972" s="35"/>
-    </row>
-    <row r="973" ht="15.75" customHeight="1">
-      <c r="A973" s="35"/>
-    </row>
-    <row r="974" ht="15.75" customHeight="1">
-      <c r="A974" s="35"/>
-    </row>
-    <row r="975" ht="15.75" customHeight="1">
-      <c r="A975" s="35"/>
-    </row>
-    <row r="976" ht="15.75" customHeight="1">
-      <c r="A976" s="35"/>
-    </row>
-    <row r="977" ht="15.75" customHeight="1">
-      <c r="A977" s="35"/>
-    </row>
-    <row r="978" ht="15.75" customHeight="1">
-      <c r="A978" s="35"/>
-    </row>
-    <row r="979" ht="15.75" customHeight="1">
-      <c r="A979" s="35"/>
-    </row>
-    <row r="980" ht="15.75" customHeight="1">
-      <c r="A980" s="35"/>
-    </row>
-    <row r="981" ht="15.75" customHeight="1">
-      <c r="A981" s="35"/>
-    </row>
-    <row r="982" ht="15.75" customHeight="1">
-      <c r="A982" s="35"/>
-    </row>
-    <row r="983" ht="15.75" customHeight="1">
-      <c r="A983" s="35"/>
-    </row>
-    <row r="984" ht="15.75" customHeight="1">
-      <c r="A984" s="35"/>
-    </row>
-    <row r="985" ht="15.75" customHeight="1">
-      <c r="A985" s="35"/>
-    </row>
-    <row r="986" ht="15.75" customHeight="1">
-      <c r="A986" s="35"/>
-    </row>
-    <row r="987" ht="15.75" customHeight="1">
-      <c r="A987" s="35"/>
-    </row>
-    <row r="988" ht="15.75" customHeight="1">
-      <c r="A988" s="35"/>
-    </row>
-    <row r="989" ht="15.75" customHeight="1">
-      <c r="A989" s="35"/>
-    </row>
-    <row r="990" ht="15.75" customHeight="1">
-      <c r="A990" s="35"/>
-    </row>
-    <row r="991" ht="15.75" customHeight="1">
-      <c r="A991" s="35"/>
-    </row>
-    <row r="992" ht="15.75" customHeight="1">
-      <c r="A992" s="35"/>
-    </row>
-    <row r="993" ht="15.75" customHeight="1">
-      <c r="A993" s="35"/>
-    </row>
-    <row r="994" ht="15.75" customHeight="1">
-      <c r="A994" s="35"/>
+      <c r="A876" s="36"/>
     </row>
   </sheetData>
   <autoFilter ref="$A$1:$O$610"/>

--- a/ecowas/new_data.xlsx
+++ b/ecowas/new_data.xlsx
@@ -10,8 +10,8 @@
   </definedNames>
   <calcPr/>
   <extLst>
-    <ext uri="GoogleSheetsCustomDataVersion2">
-      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId5" roundtripDataChecksum="Q2YlBMeAOYQ8zc5RzlXNt1GOXh/Q1b1WAbm2kdOsi2c="/>
+    <ext uri="GoogleSheetsCustomDataVersion1">
+      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId5" roundtripDataSignature="AMtx7mjrElENqAKLTA0DIYNVzjqy9S2ukA=="/>
     </ext>
   </extLst>
 </workbook>
@@ -119,7 +119,7 @@
     <t>Guinea Bissau</t>
   </si>
   <si>
-    <t>Gambia, The</t>
+    <t>The Gambia</t>
   </si>
   <si>
     <t>Togo</t>
@@ -579,10 +579,10 @@
     <xf borderId="4" fillId="0" fontId="5" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="4" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="4" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="4" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="4" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
     <xf borderId="4" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
@@ -3355,7 +3355,7 @@
       </c>
     </row>
     <row r="54" ht="15.75" customHeight="1">
-      <c r="A54" s="6" t="s">
+      <c r="A54" s="14" t="s">
         <v>33</v>
       </c>
       <c r="B54" s="6" t="s">
@@ -3402,7 +3402,7 @@
       </c>
     </row>
     <row r="55" ht="15.75" customHeight="1">
-      <c r="A55" s="6" t="s">
+      <c r="A55" s="14" t="s">
         <v>33</v>
       </c>
       <c r="B55" s="6" t="s">
@@ -3449,7 +3449,7 @@
       </c>
     </row>
     <row r="56" ht="15.75" customHeight="1">
-      <c r="A56" s="6" t="s">
+      <c r="A56" s="14" t="s">
         <v>33</v>
       </c>
       <c r="B56" s="6" t="s">
@@ -3496,7 +3496,7 @@
       </c>
     </row>
     <row r="57" ht="15.75" customHeight="1">
-      <c r="A57" s="6" t="s">
+      <c r="A57" s="14" t="s">
         <v>33</v>
       </c>
       <c r="B57" s="6" t="s">
@@ -3727,10 +3727,10 @@
       </c>
     </row>
     <row r="62" ht="15.75" customHeight="1">
-      <c r="A62" s="14" t="s">
+      <c r="A62" s="15" t="s">
         <v>35</v>
       </c>
-      <c r="B62" s="15" t="s">
+      <c r="B62" s="14" t="s">
         <v>18</v>
       </c>
       <c r="C62" s="16" t="s">
@@ -3772,10 +3772,10 @@
       </c>
     </row>
     <row r="63" ht="15.75" customHeight="1">
-      <c r="A63" s="14" t="s">
+      <c r="A63" s="15" t="s">
         <v>35</v>
       </c>
-      <c r="B63" s="15" t="s">
+      <c r="B63" s="14" t="s">
         <v>36</v>
       </c>
       <c r="C63" s="16" t="s">
@@ -3817,10 +3817,10 @@
       </c>
     </row>
     <row r="64" ht="15.75" customHeight="1">
-      <c r="A64" s="14" t="s">
+      <c r="A64" s="15" t="s">
         <v>35</v>
       </c>
-      <c r="B64" s="15" t="s">
+      <c r="B64" s="14" t="s">
         <v>38</v>
       </c>
       <c r="C64" s="16" t="s">
@@ -3854,10 +3854,10 @@
       </c>
     </row>
     <row r="65" ht="15.75" customHeight="1">
-      <c r="A65" s="14" t="s">
+      <c r="A65" s="15" t="s">
         <v>35</v>
       </c>
-      <c r="B65" s="15" t="s">
+      <c r="B65" s="14" t="s">
         <v>40</v>
       </c>
       <c r="C65" s="16" t="s">
@@ -3899,10 +3899,10 @@
       </c>
     </row>
     <row r="66" ht="15.75" customHeight="1">
-      <c r="A66" s="14" t="s">
+      <c r="A66" s="15" t="s">
         <v>35</v>
       </c>
-      <c r="B66" s="15" t="s">
+      <c r="B66" s="14" t="s">
         <v>42</v>
       </c>
       <c r="C66" s="16" t="s">
@@ -3944,10 +3944,10 @@
       </c>
     </row>
     <row r="67" ht="15.75" customHeight="1">
-      <c r="A67" s="14" t="s">
+      <c r="A67" s="15" t="s">
         <v>35</v>
       </c>
-      <c r="B67" s="15" t="s">
+      <c r="B67" s="14" t="s">
         <v>44</v>
       </c>
       <c r="C67" s="16" t="s">
@@ -3989,10 +3989,10 @@
       </c>
     </row>
     <row r="68" ht="15.75" customHeight="1">
-      <c r="A68" s="14" t="s">
+      <c r="A68" s="15" t="s">
         <v>35</v>
       </c>
-      <c r="B68" s="15" t="s">
+      <c r="B68" s="14" t="s">
         <v>46</v>
       </c>
       <c r="C68" s="16" t="s">
@@ -4034,10 +4034,10 @@
       </c>
     </row>
     <row r="69" ht="15.75" customHeight="1">
-      <c r="A69" s="14" t="s">
+      <c r="A69" s="15" t="s">
         <v>35</v>
       </c>
-      <c r="B69" s="15" t="s">
+      <c r="B69" s="14" t="s">
         <v>48</v>
       </c>
       <c r="C69" s="16" t="s">
@@ -4079,10 +4079,10 @@
       </c>
     </row>
     <row r="70" ht="15.75" customHeight="1">
-      <c r="A70" s="14" t="s">
+      <c r="A70" s="15" t="s">
         <v>35</v>
       </c>
-      <c r="B70" s="15" t="s">
+      <c r="B70" s="14" t="s">
         <v>19</v>
       </c>
       <c r="C70" s="16" t="s">
@@ -4124,10 +4124,10 @@
       </c>
     </row>
     <row r="71" ht="15.75" customHeight="1">
-      <c r="A71" s="14" t="s">
+      <c r="A71" s="15" t="s">
         <v>35</v>
       </c>
-      <c r="B71" s="15" t="s">
+      <c r="B71" s="14" t="s">
         <v>50</v>
       </c>
       <c r="C71" s="16" t="s">
@@ -4169,10 +4169,10 @@
       </c>
     </row>
     <row r="72" ht="15.75" customHeight="1">
-      <c r="A72" s="14" t="s">
+      <c r="A72" s="15" t="s">
         <v>35</v>
       </c>
-      <c r="B72" s="15" t="s">
+      <c r="B72" s="14" t="s">
         <v>52</v>
       </c>
       <c r="C72" s="16" t="s">
@@ -4214,10 +4214,10 @@
       </c>
     </row>
     <row r="73" ht="15.75" customHeight="1">
-      <c r="A73" s="14" t="s">
+      <c r="A73" s="15" t="s">
         <v>35</v>
       </c>
-      <c r="B73" s="15" t="s">
+      <c r="B73" s="14" t="s">
         <v>54</v>
       </c>
       <c r="C73" s="16" t="s">
@@ -4259,10 +4259,10 @@
       </c>
     </row>
     <row r="74" ht="15.75" customHeight="1">
-      <c r="A74" s="14" t="s">
+      <c r="A74" s="15" t="s">
         <v>35</v>
       </c>
-      <c r="B74" s="15" t="s">
+      <c r="B74" s="14" t="s">
         <v>56</v>
       </c>
       <c r="C74" s="16" t="s">
@@ -4304,10 +4304,10 @@
       </c>
     </row>
     <row r="75" ht="15.75" customHeight="1">
-      <c r="A75" s="14" t="s">
+      <c r="A75" s="15" t="s">
         <v>35</v>
       </c>
-      <c r="B75" s="15" t="s">
+      <c r="B75" s="14" t="s">
         <v>57</v>
       </c>
       <c r="C75" s="16" t="s">
@@ -4349,10 +4349,10 @@
       </c>
     </row>
     <row r="76" ht="15.75" customHeight="1">
-      <c r="A76" s="14" t="s">
+      <c r="A76" s="15" t="s">
         <v>35</v>
       </c>
-      <c r="B76" s="15" t="s">
+      <c r="B76" s="14" t="s">
         <v>59</v>
       </c>
       <c r="C76" s="16" t="s">
@@ -4394,10 +4394,10 @@
       </c>
     </row>
     <row r="77" ht="15.75" customHeight="1">
-      <c r="A77" s="14" t="s">
+      <c r="A77" s="15" t="s">
         <v>35</v>
       </c>
-      <c r="B77" s="15" t="s">
+      <c r="B77" s="14" t="s">
         <v>61</v>
       </c>
       <c r="C77" s="16" t="s">
@@ -4439,10 +4439,10 @@
       </c>
     </row>
     <row r="78" ht="15.75" customHeight="1">
-      <c r="A78" s="14" t="s">
+      <c r="A78" s="15" t="s">
         <v>35</v>
       </c>
-      <c r="B78" s="15" t="s">
+      <c r="B78" s="14" t="s">
         <v>63</v>
       </c>
       <c r="C78" s="16" t="s">
@@ -4484,10 +4484,10 @@
       </c>
     </row>
     <row r="79" ht="15.75" customHeight="1">
-      <c r="A79" s="14" t="s">
+      <c r="A79" s="15" t="s">
         <v>35</v>
       </c>
-      <c r="B79" s="15" t="s">
+      <c r="B79" s="14" t="s">
         <v>20</v>
       </c>
       <c r="C79" s="16" t="s">
@@ -4529,10 +4529,10 @@
       </c>
     </row>
     <row r="80" ht="15.75" customHeight="1">
-      <c r="A80" s="14" t="s">
+      <c r="A80" s="15" t="s">
         <v>35</v>
       </c>
-      <c r="B80" s="15" t="s">
+      <c r="B80" s="14" t="s">
         <v>65</v>
       </c>
       <c r="C80" s="16" t="s">
@@ -4574,10 +4574,10 @@
       </c>
     </row>
     <row r="81" ht="15.75" customHeight="1">
-      <c r="A81" s="14" t="s">
+      <c r="A81" s="15" t="s">
         <v>35</v>
       </c>
-      <c r="B81" s="15" t="s">
+      <c r="B81" s="14" t="s">
         <v>67</v>
       </c>
       <c r="C81" s="16" t="s">
@@ -4619,10 +4619,10 @@
       </c>
     </row>
     <row r="82" ht="15.75" customHeight="1">
-      <c r="A82" s="14" t="s">
+      <c r="A82" s="15" t="s">
         <v>35</v>
       </c>
-      <c r="B82" s="15" t="s">
+      <c r="B82" s="14" t="s">
         <v>69</v>
       </c>
       <c r="C82" s="16" t="s">
@@ -4664,10 +4664,10 @@
       </c>
     </row>
     <row r="83" ht="15.75" customHeight="1">
-      <c r="A83" s="14" t="s">
+      <c r="A83" s="15" t="s">
         <v>35</v>
       </c>
-      <c r="B83" s="15" t="s">
+      <c r="B83" s="14" t="s">
         <v>16</v>
       </c>
       <c r="C83" s="16" t="s">
@@ -14861,7 +14861,7 @@
       </c>
     </row>
     <row r="300" ht="15.75" customHeight="1">
-      <c r="A300" s="26" t="s">
+      <c r="A300" s="15" t="s">
         <v>33</v>
       </c>
       <c r="B300" s="6" t="s">
@@ -14908,7 +14908,7 @@
       </c>
     </row>
     <row r="301" ht="15.75" customHeight="1">
-      <c r="A301" s="26" t="s">
+      <c r="A301" s="15" t="s">
         <v>33</v>
       </c>
       <c r="B301" s="6" t="s">
@@ -14955,7 +14955,7 @@
       </c>
     </row>
     <row r="302" ht="15.75" customHeight="1">
-      <c r="A302" s="26" t="s">
+      <c r="A302" s="15" t="s">
         <v>33</v>
       </c>
       <c r="B302" s="6" t="s">
@@ -15002,7 +15002,7 @@
       </c>
     </row>
     <row r="303" ht="15.75" customHeight="1">
-      <c r="A303" s="26" t="s">
+      <c r="A303" s="15" t="s">
         <v>33</v>
       </c>
       <c r="B303" s="6" t="s">
@@ -15049,7 +15049,7 @@
       </c>
     </row>
     <row r="304" ht="15.75" customHeight="1">
-      <c r="A304" s="26" t="s">
+      <c r="A304" s="15" t="s">
         <v>33</v>
       </c>
       <c r="B304" s="6" t="s">
@@ -15096,7 +15096,7 @@
       </c>
     </row>
     <row r="305" ht="15.75" customHeight="1">
-      <c r="A305" s="26" t="s">
+      <c r="A305" s="15" t="s">
         <v>33</v>
       </c>
       <c r="B305" s="6" t="s">
@@ -15143,7 +15143,7 @@
       </c>
     </row>
     <row r="306" ht="15.75" customHeight="1">
-      <c r="A306" s="26" t="s">
+      <c r="A306" s="15" t="s">
         <v>33</v>
       </c>
       <c r="B306" s="6" t="s">
@@ -15190,7 +15190,7 @@
       </c>
     </row>
     <row r="307" ht="15.75" customHeight="1">
-      <c r="A307" s="26" t="s">
+      <c r="A307" s="15" t="s">
         <v>33</v>
       </c>
       <c r="B307" s="6" t="s">
@@ -15237,7 +15237,7 @@
       </c>
     </row>
     <row r="308" ht="15.75" customHeight="1">
-      <c r="A308" s="26" t="s">
+      <c r="A308" s="15" t="s">
         <v>33</v>
       </c>
       <c r="B308" s="6" t="s">
@@ -15284,7 +15284,7 @@
       </c>
     </row>
     <row r="309" ht="15.75" customHeight="1">
-      <c r="A309" s="26" t="s">
+      <c r="A309" s="15" t="s">
         <v>33</v>
       </c>
       <c r="B309" s="6" t="s">
@@ -15331,7 +15331,7 @@
       </c>
     </row>
     <row r="310" ht="15.75" customHeight="1">
-      <c r="A310" s="26" t="s">
+      <c r="A310" s="15" t="s">
         <v>33</v>
       </c>
       <c r="B310" s="6" t="s">
@@ -15378,7 +15378,7 @@
       </c>
     </row>
     <row r="311" ht="15.75" customHeight="1">
-      <c r="A311" s="26" t="s">
+      <c r="A311" s="15" t="s">
         <v>33</v>
       </c>
       <c r="B311" s="6" t="s">
@@ -15425,7 +15425,7 @@
       </c>
     </row>
     <row r="312" ht="15.75" customHeight="1">
-      <c r="A312" s="26" t="s">
+      <c r="A312" s="15" t="s">
         <v>33</v>
       </c>
       <c r="B312" s="6" t="s">
@@ -15472,7 +15472,7 @@
       </c>
     </row>
     <row r="313" ht="15.75" customHeight="1">
-      <c r="A313" s="26" t="s">
+      <c r="A313" s="15" t="s">
         <v>33</v>
       </c>
       <c r="B313" s="6" t="s">
@@ -15519,7 +15519,7 @@
       </c>
     </row>
     <row r="314" ht="15.75" customHeight="1">
-      <c r="A314" s="26" t="s">
+      <c r="A314" s="15" t="s">
         <v>33</v>
       </c>
       <c r="B314" s="6" t="s">
@@ -15566,7 +15566,7 @@
       </c>
     </row>
     <row r="315" ht="15.75" customHeight="1">
-      <c r="A315" s="26" t="s">
+      <c r="A315" s="15" t="s">
         <v>33</v>
       </c>
       <c r="B315" s="6" t="s">
@@ -15613,7 +15613,7 @@
       </c>
     </row>
     <row r="316" ht="15.75" customHeight="1">
-      <c r="A316" s="26" t="s">
+      <c r="A316" s="15" t="s">
         <v>33</v>
       </c>
       <c r="B316" s="6" t="s">
@@ -15660,7 +15660,7 @@
       </c>
     </row>
     <row r="317" ht="15.75" customHeight="1">
-      <c r="A317" s="26" t="s">
+      <c r="A317" s="15" t="s">
         <v>33</v>
       </c>
       <c r="B317" s="6" t="s">
@@ -18335,7 +18335,7 @@
       </c>
     </row>
     <row r="406" ht="15.75" customHeight="1">
-      <c r="A406" s="6" t="s">
+      <c r="A406" s="14" t="s">
         <v>33</v>
       </c>
       <c r="B406" s="6" t="s">
@@ -18353,7 +18353,7 @@
       </c>
     </row>
     <row r="407" ht="15.75" customHeight="1">
-      <c r="A407" s="6" t="s">
+      <c r="A407" s="14" t="s">
         <v>33</v>
       </c>
       <c r="B407" s="6" t="s">
@@ -18371,7 +18371,7 @@
       </c>
     </row>
     <row r="408" ht="15.75" customHeight="1">
-      <c r="A408" s="6" t="s">
+      <c r="A408" s="14" t="s">
         <v>33</v>
       </c>
       <c r="B408" s="6" t="s">
@@ -18389,7 +18389,7 @@
       </c>
     </row>
     <row r="409" ht="15.75" customHeight="1">
-      <c r="A409" s="6" t="s">
+      <c r="A409" s="14" t="s">
         <v>33</v>
       </c>
       <c r="B409" s="6" t="s">
@@ -21027,7 +21027,7 @@
       </c>
     </row>
     <row r="575" ht="15.75" customHeight="1">
-      <c r="A575" s="26" t="s">
+      <c r="A575" s="15" t="s">
         <v>33</v>
       </c>
       <c r="B575" s="6" t="s">
@@ -21043,7 +21043,7 @@
       </c>
     </row>
     <row r="576" ht="15.75" customHeight="1">
-      <c r="A576" s="26" t="s">
+      <c r="A576" s="15" t="s">
         <v>33</v>
       </c>
       <c r="B576" s="6" t="s">
@@ -21059,7 +21059,7 @@
       </c>
     </row>
     <row r="577" ht="15.75" customHeight="1">
-      <c r="A577" s="26" t="s">
+      <c r="A577" s="15" t="s">
         <v>33</v>
       </c>
       <c r="B577" s="6" t="s">
@@ -21075,7 +21075,7 @@
       </c>
     </row>
     <row r="578" ht="15.75" customHeight="1">
-      <c r="A578" s="26" t="s">
+      <c r="A578" s="15" t="s">
         <v>33</v>
       </c>
       <c r="B578" s="6" t="s">
@@ -21091,7 +21091,7 @@
       </c>
     </row>
     <row r="579" ht="15.75" customHeight="1">
-      <c r="A579" s="26" t="s">
+      <c r="A579" s="15" t="s">
         <v>33</v>
       </c>
       <c r="B579" s="6" t="s">
@@ -21107,7 +21107,7 @@
       </c>
     </row>
     <row r="580" ht="15.75" customHeight="1">
-      <c r="A580" s="26" t="s">
+      <c r="A580" s="15" t="s">
         <v>33</v>
       </c>
       <c r="B580" s="6" t="s">
@@ -21123,7 +21123,7 @@
       </c>
     </row>
     <row r="581" ht="15.75" customHeight="1">
-      <c r="A581" s="26" t="s">
+      <c r="A581" s="15" t="s">
         <v>33</v>
       </c>
       <c r="B581" s="6" t="s">
@@ -21139,7 +21139,7 @@
       </c>
     </row>
     <row r="582" ht="15.75" customHeight="1">
-      <c r="A582" s="26" t="s">
+      <c r="A582" s="15" t="s">
         <v>33</v>
       </c>
       <c r="B582" s="6" t="s">
@@ -21155,7 +21155,7 @@
       </c>
     </row>
     <row r="583" ht="15.75" customHeight="1">
-      <c r="A583" s="26" t="s">
+      <c r="A583" s="15" t="s">
         <v>33</v>
       </c>
       <c r="B583" s="6" t="s">
@@ -21171,7 +21171,7 @@
       </c>
     </row>
     <row r="584" ht="15.75" customHeight="1">
-      <c r="A584" s="26" t="s">
+      <c r="A584" s="15" t="s">
         <v>33</v>
       </c>
       <c r="B584" s="6" t="s">
@@ -21185,7 +21185,7 @@
       </c>
     </row>
     <row r="585" ht="15.75" customHeight="1">
-      <c r="A585" s="26" t="s">
+      <c r="A585" s="15" t="s">
         <v>33</v>
       </c>
       <c r="B585" s="6" t="s">
@@ -21201,7 +21201,7 @@
       </c>
     </row>
     <row r="586" ht="15.75" customHeight="1">
-      <c r="A586" s="26" t="s">
+      <c r="A586" s="15" t="s">
         <v>33</v>
       </c>
       <c r="B586" s="6" t="s">
